--- a/covid19_drdfm/data/example-output/DE/df.xlsx
+++ b/covid19_drdfm/data/example-output/DE/df.xlsx
@@ -447,22 +447,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Employment1</t>
+          <t>GDP</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Employment2</t>
+          <t>Prod</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CPIU</t>
+          <t>UI</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PCEC</t>
+          <t>UR</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <v>40909</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1911968455201832</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.3571428571428571</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>40940</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8170711884503437</v>
+        <v>0.989159648586503</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8258139200228848</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4804248097350872</v>
+        <v>0.2071409288542583</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9797476154831077</v>
+        <v>0.3571428571428571</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         <v>40969</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8135122768330407</v>
+        <v>0.989353583492234</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8239012100173577</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4783596646895119</v>
+        <v>0.1612676183485078</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9810227532710519</v>
+        <v>0.3571428571428571</v>
       </c>
     </row>
     <row r="5">
@@ -522,16 +522,16 @@
         <v>41000</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8018882440272991</v>
+        <v>0.9826550485949707</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8180161564203544</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4580164258916395</v>
+        <v>0.1702882107952488</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9802673354121212</v>
+        <v>0.3571428571428571</v>
       </c>
     </row>
     <row r="6">
@@ -539,16 +539,16 @@
         <v>41030</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8182644828456356</v>
+        <v>0.9843215790839286</v>
       </c>
       <c r="C6" t="n">
-        <v>0.819039970538338</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2823120937051792</v>
+        <v>0.143498204166694</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9781946328218968</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="7">
@@ -556,16 +556,16 @@
         <v>41061</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8137537407112719</v>
+        <v>0.9838846665324036</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8175601904981341</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3408982227867237</v>
+        <v>0.1928673371293272</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9782729285877159</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="8">
@@ -573,16 +573,16 @@
         <v>41091</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8032999920192481</v>
+        <v>0.9845255381424882</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8205909698480336</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3934463727922193</v>
+        <v>0.2296394066073208</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9782685951174721</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="9">
@@ -590,16 +590,16 @@
         <v>41122</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8069065484055066</v>
+        <v>0.9824632180247876</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8218528986159431</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6527359268372354</v>
+        <v>0.183889511024717</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9766178983157136</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="10">
@@ -607,16 +607,16 @@
         <v>41153</v>
       </c>
       <c r="B10" t="n">
-        <v>0.834591805387279</v>
+        <v>0.9826808739302509</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8220476470543482</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6040928049754837</v>
+        <v>0.1267646486151463</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9791251766773968</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="11">
@@ -624,16 +624,16 @@
         <v>41183</v>
       </c>
       <c r="B11" t="n">
-        <v>0.8210965500458856</v>
+        <v>0.9801547502344943</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8210990580937662</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D11" t="n">
-        <v>0.506728251696605</v>
+        <v>0.2034611691414173</v>
       </c>
       <c r="E11" t="n">
-        <v>0.98396198687112</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="12">
@@ -641,16 +641,16 @@
         <v>41214</v>
       </c>
       <c r="B12" t="n">
-        <v>0.8033629658599835</v>
+        <v>0.9826380489947694</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8212544385497698</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3006557725101743</v>
+        <v>0.1983930617205458</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9784922095456062</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="13">
@@ -658,16 +658,16 @@
         <v>41244</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8068337204551878</v>
+        <v>0.9822597449233897</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8244209083586208</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D13" t="n">
-        <v>0.37413804795302</v>
+        <v>0.2259930943678139</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9770136390526549</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="14">
@@ -675,16 +675,16 @@
         <v>41275</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8055543580226956</v>
+        <v>0.9822468201428536</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8223316824338748</v>
+        <v>0.2378787923587464</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4730736920152049</v>
+        <v>0.240726531932876</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9824906505822639</v>
+        <v>0.3673469387755102</v>
       </c>
     </row>
     <row r="15">
@@ -692,16 +692,16 @@
         <v>41306</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8095017709632395</v>
+        <v>0.9810480331886041</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8259306364023364</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6349860070635606</v>
+        <v>0.2031176278118857</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9789649499577149</v>
+        <v>0.3571428571428571</v>
       </c>
     </row>
     <row r="16">
@@ -709,16 +709,16 @@
         <v>41334</v>
       </c>
       <c r="B16" t="n">
-        <v>0.805262264353838</v>
+        <v>0.9844599366241474</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8204826442824038</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2471689513070562</v>
+        <v>0.1635700330754534</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9778175006322838</v>
+        <v>0.3571428571428571</v>
       </c>
     </row>
     <row r="17">
@@ -726,16 +726,16 @@
         <v>41365</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8185903306715626</v>
+        <v>0.9869696098326864</v>
       </c>
       <c r="C17" t="n">
-        <v>0.822175410606488</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2813645162752761</v>
+        <v>0.1482391264777695</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9772029075462043</v>
+        <v>0.3469387755102041</v>
       </c>
     </row>
     <row r="18">
@@ -743,16 +743,16 @@
         <v>41395</v>
       </c>
       <c r="B18" t="n">
-        <v>0.815943793632123</v>
+        <v>0.9859810000319812</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8232958481094075</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3993518297214528</v>
+        <v>0.1577498999166021</v>
       </c>
       <c r="E18" t="n">
-        <v>0.978462438089242</v>
+        <v>0.336734693877551</v>
       </c>
     </row>
     <row r="19">
@@ -760,16 +760,16 @@
         <v>41426</v>
       </c>
       <c r="B19" t="n">
-        <v>0.8112013334931283</v>
+        <v>0.9849467216267481</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8217901061473404</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4918638127890506</v>
+        <v>0.2409402231206417</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9807746156791444</v>
+        <v>0.326530612244898</v>
       </c>
     </row>
     <row r="20">
@@ -777,16 +777,16 @@
         <v>41456</v>
       </c>
       <c r="B20" t="n">
-        <v>0.8165747062094404</v>
+        <v>0.9880507711275307</v>
       </c>
       <c r="C20" t="n">
-        <v>0.819524705107271</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4719810427311055</v>
+        <v>0.2160981654398614</v>
       </c>
       <c r="E20" t="n">
-        <v>0.979262308224759</v>
+        <v>0.3163265306122448</v>
       </c>
     </row>
     <row r="21">
@@ -794,16 +794,16 @@
         <v>41487</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8091941800468382</v>
+        <v>0.9878370647118477</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8244296392645107</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4921920362000497</v>
+        <v>0.1844759909715083</v>
       </c>
       <c r="E21" t="n">
-        <v>0.978809824789761</v>
+        <v>0.3061224489795918</v>
       </c>
     </row>
     <row r="22">
@@ -811,16 +811,16 @@
         <v>41518</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8102815037840168</v>
+        <v>0.988613371060054</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8220025398786427</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3976005690238599</v>
+        <v>0.1127331900781911</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9786423571171835</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="23">
@@ -828,16 +828,16 @@
         <v>41548</v>
       </c>
       <c r="B23" t="n">
-        <v>0.7748893508307949</v>
+        <v>0.9961984088299212</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8234365294311478</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4050553748719518</v>
+        <v>0.2015226402168925</v>
       </c>
       <c r="E23" t="n">
-        <v>0.982760952384311</v>
+        <v>0.2755102040816326</v>
       </c>
     </row>
     <row r="24">
@@ -845,16 +845,16 @@
         <v>41579</v>
       </c>
       <c r="B24" t="n">
-        <v>0.8412095355145293</v>
+        <v>0.9961072875974259</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8256241022260118</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4666731454969064</v>
+        <v>0.2340867049120092</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9812503954983279</v>
+        <v>0.2653061224489796</v>
       </c>
     </row>
     <row r="25">
@@ -862,16 +862,16 @@
         <v>41609</v>
       </c>
       <c r="B25" t="n">
-        <v>0.8177730833014433</v>
+        <v>0.9956370004705074</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8167674345972542</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D25" t="n">
-        <v>0.504271433281398</v>
+        <v>0.2434344274669057</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9796268144426162</v>
+        <v>0.2653061224489796</v>
       </c>
     </row>
     <row r="26">
@@ -879,16 +879,16 @@
         <v>41640</v>
       </c>
       <c r="B26" t="n">
-        <v>0.8203859482666936</v>
+        <v>0.9878565979325376</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8219631015294253</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.493934346505972</v>
+        <v>0.2404702410643688</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9777682868082346</v>
+        <v>0.2551020408163265</v>
       </c>
     </row>
     <row r="27">
@@ -896,16 +896,16 @@
         <v>41671</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8063658967333401</v>
+        <v>0.9887463833876869</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8207960185887884</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4316850960443767</v>
+        <v>0.2231181529939931</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9765583916561276</v>
+        <v>0.2551020408163265</v>
       </c>
     </row>
     <row r="28">
@@ -913,16 +913,16 @@
         <v>41699</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8254627173521412</v>
+        <v>0.9877591858644393</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8257300281421081</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4759716818008413</v>
+        <v>0.1442367164753394</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9818597384704605</v>
+        <v>0.2448979591836735</v>
       </c>
     </row>
     <row r="29">
@@ -930,16 +930,16 @@
         <v>41730</v>
       </c>
       <c r="B29" t="n">
-        <v>0.8076266774238325</v>
+        <v>0.9938886720044671</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8270190966267184</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D29" t="n">
-        <v>0.467607911577312</v>
+        <v>0.1187631203040736</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9818450146574353</v>
+        <v>0.2346938775510203</v>
       </c>
     </row>
     <row r="30">
@@ -947,16 +947,16 @@
         <v>41760</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8126222115907127</v>
+        <v>0.9939193860434561</v>
       </c>
       <c r="C30" t="n">
-        <v>0.822667647186039</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4694354679379368</v>
+        <v>0.1554928433255304</v>
       </c>
       <c r="E30" t="n">
-        <v>0.9813103476548442</v>
+        <v>0.2346938775510203</v>
       </c>
     </row>
     <row r="31">
@@ -964,16 +964,16 @@
         <v>41791</v>
       </c>
       <c r="B31" t="n">
-        <v>0.822080809866217</v>
+        <v>0.9942129134933954</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8277647645364593</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4420601940130754</v>
+        <v>0.2243036117248566</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9787811040867067</v>
+        <v>0.2244897959183674</v>
       </c>
     </row>
     <row r="32">
@@ -981,16 +981,16 @@
         <v>41821</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8123850160291054</v>
+        <v>0.9914639383804928</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8242174934096156</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4328522352647602</v>
+        <v>0.215252902602469</v>
       </c>
       <c r="E32" t="n">
-        <v>0.981568512407801</v>
+        <v>0.2142857142857142</v>
       </c>
     </row>
     <row r="33">
@@ -998,16 +998,16 @@
         <v>41852</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8116286777528561</v>
+        <v>0.9925267572757165</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8217938869930206</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3723022077765162</v>
+        <v>0.1806616537247878</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9755787392253349</v>
+        <v>0.2040816326530612</v>
       </c>
     </row>
     <row r="34">
@@ -1015,16 +1015,16 @@
         <v>41883</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8158018120719297</v>
+        <v>0.9922089535918019</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8266302034985644</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3832166305801797</v>
+        <v>0.07058695330518255</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9791237022486354</v>
+        <v>0.1938775510204082</v>
       </c>
     </row>
     <row r="35">
@@ -1032,16 +1032,16 @@
         <v>41913</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8300547056264846</v>
+        <v>0.9890596621227218</v>
       </c>
       <c r="C35" t="n">
-        <v>0.824127956244755</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3705152434098531</v>
+        <v>0.2346836020562044</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9777252114392785</v>
+        <v>0.1836734693877551</v>
       </c>
     </row>
     <row r="36">
@@ -1049,16 +1049,16 @@
         <v>41944</v>
       </c>
       <c r="B36" t="n">
-        <v>0.8061260573769912</v>
+        <v>0.9894023656888701</v>
       </c>
       <c r="C36" t="n">
-        <v>0.8257594276344505</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D36" t="n">
-        <v>0.2910385964014466</v>
+        <v>0.2195419435967794</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9784373590744389</v>
+        <v>0.173469387755102</v>
       </c>
     </row>
     <row r="37">
@@ -1066,16 +1066,16 @@
         <v>41974</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8144364776464362</v>
+        <v>0.9899198183912489</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8254627742564683</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2342588880723614</v>
+        <v>0.2276454642728146</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9778768331199639</v>
+        <v>0.1632653061224489</v>
       </c>
     </row>
     <row r="38">
@@ -1083,16 +1083,16 @@
         <v>42005</v>
       </c>
       <c r="B38" t="n">
-        <v>0.8257177919739254</v>
+        <v>0.9932677521058253</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8222752866023222</v>
+        <v>0.6146945201350265</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07870096975326518</v>
+        <v>0.2809065870068505</v>
       </c>
       <c r="E38" t="n">
-        <v>0.973189625613409</v>
+        <v>0.1530612244897959</v>
       </c>
     </row>
     <row r="39">
@@ -1100,16 +1100,16 @@
         <v>42036</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8034061642763356</v>
+        <v>0.98892673824594</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8250360465027927</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4991270461619542</v>
+        <v>0.1820330810704924</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9781517738182761</v>
+        <v>0.1428571428571429</v>
       </c>
     </row>
     <row r="40">
@@ -1117,16 +1117,16 @@
         <v>42064</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8098794065368862</v>
+        <v>0.988718619310747</v>
       </c>
       <c r="C40" t="n">
-        <v>0.8183126748240903</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5066174053952723</v>
+        <v>0.1850869537006168</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9803666848320294</v>
+        <v>0.1428571428571429</v>
       </c>
     </row>
     <row r="41">
@@ -1134,16 +1134,16 @@
         <v>42095</v>
       </c>
       <c r="B41" t="n">
-        <v>0.8204703357769915</v>
+        <v>0.9909486496515351</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8254374346256902</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4289422565245661</v>
+        <v>0.09250976586521242</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9809898533911975</v>
+        <v>0.1428571428571429</v>
       </c>
     </row>
     <row r="42">
@@ -1151,16 +1151,16 @@
         <v>42125</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8177257676594207</v>
+        <v>0.9897922388064879</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8277463401846614</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5349905266530876</v>
+        <v>0.1525987663893844</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9791221375105186</v>
+        <v>0.1428571428571429</v>
       </c>
     </row>
     <row r="43">
@@ -1168,16 +1168,16 @@
         <v>42156</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8069081625681082</v>
+        <v>0.9900616139122315</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8206217231591978</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5101022712614719</v>
+        <v>0.2402019946945882</v>
       </c>
       <c r="E43" t="n">
-        <v>0.978997543988299</v>
+        <v>0.1326530612244898</v>
       </c>
     </row>
     <row r="44">
@@ -1185,16 +1185,16 @@
         <v>42186</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8074361484750139</v>
+        <v>0.9791316724690395</v>
       </c>
       <c r="C44" t="n">
-        <v>0.825997886786185</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4545412938591608</v>
+        <v>0.2231279779100235</v>
       </c>
       <c r="E44" t="n">
-        <v>0.977651602238532</v>
+        <v>0.1326530612244898</v>
       </c>
     </row>
     <row r="45">
@@ -1202,16 +1202,16 @@
         <v>42217</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8192830710681206</v>
+        <v>0.9796305672324603</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8200613956704663</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3796449961608567</v>
+        <v>0.1938818779142668</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9770182518838439</v>
+        <v>0.1224489795918368</v>
       </c>
     </row>
     <row r="46">
@@ -1219,16 +1219,16 @@
         <v>42248</v>
       </c>
       <c r="B46" t="n">
-        <v>0.7944628639571398</v>
+        <v>0.9805946663656585</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8198242076397693</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2738033829246919</v>
+        <v>0.09936408102462681</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9793377865484874</v>
+        <v>0.1224489795918368</v>
       </c>
     </row>
     <row r="47">
@@ -1236,16 +1236,16 @@
         <v>42278</v>
       </c>
       <c r="B47" t="n">
-        <v>0.8217058068666531</v>
+        <v>0.9843945998170257</v>
       </c>
       <c r="C47" t="n">
-        <v>0.8269545291609484</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4264502145385787</v>
+        <v>0.1941138098052432</v>
       </c>
       <c r="E47" t="n">
-        <v>0.974613594179923</v>
+        <v>0.1224489795918368</v>
       </c>
     </row>
     <row r="48">
@@ -1253,16 +1253,16 @@
         <v>42309</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8145543568902583</v>
+        <v>0.983870003245287</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8232721524409696</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4361074937639563</v>
+        <v>0.2289446363846896</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9783873368083413</v>
+        <v>0.1122448979591836</v>
       </c>
     </row>
     <row r="49">
@@ -1270,16 +1270,16 @@
         <v>42339</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8301987447499016</v>
+        <v>0.9848447660755839</v>
       </c>
       <c r="C49" t="n">
-        <v>0.8251024926703656</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3291286649421136</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9767338669535904</v>
+        <v>0.1122448979591836</v>
       </c>
     </row>
     <row r="50">
@@ -1287,16 +1287,16 @@
         <v>42370</v>
       </c>
       <c r="B50" t="n">
-        <v>0.8252302269764712</v>
+        <v>0.9800054488638511</v>
       </c>
       <c r="C50" t="n">
-        <v>0.8190219459600729</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3582333302100829</v>
+        <v>0.5024655083563038</v>
       </c>
       <c r="E50" t="n">
-        <v>0.98167363084452</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="51">
@@ -1304,16 +1304,16 @@
         <v>42401</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8168785545332913</v>
+        <v>0.9807368053786191</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8227369194373043</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D51" t="n">
-        <v>0.317139331932879</v>
+        <v>0.182009486044292</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9804857309116678</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="52">
@@ -1321,16 +1321,16 @@
         <v>42430</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8166172624762037</v>
+        <v>0.978669148948484</v>
       </c>
       <c r="C52" t="n">
-        <v>0.8244083425910558</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D52" t="n">
-        <v>0.527342817213182</v>
+        <v>0.1721046155790258</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9799677242166804</v>
+        <v>0.0918367346938776</v>
       </c>
     </row>
     <row r="53">
@@ -1338,16 +1338,16 @@
         <v>42461</v>
       </c>
       <c r="B53" t="n">
-        <v>0.8019526135529373</v>
+        <v>0.985533070314067</v>
       </c>
       <c r="C53" t="n">
-        <v>0.8218700422722833</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5600276253743403</v>
+        <v>0.1333116499696602</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9843664993593824</v>
+        <v>0.0918367346938776</v>
       </c>
     </row>
     <row r="54">
@@ -1355,16 +1355,16 @@
         <v>42491</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8089540979698909</v>
+        <v>0.9867799303260258</v>
       </c>
       <c r="C54" t="n">
-        <v>0.8163254740842698</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4911291353516724</v>
+        <v>0.1636590902405644</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9803337721967778</v>
+        <v>0.0918367346938776</v>
       </c>
     </row>
     <row r="55">
@@ -1372,16 +1372,16 @@
         <v>42522</v>
       </c>
       <c r="B55" t="n">
-        <v>0.8100965821959163</v>
+        <v>0.9864865020608871</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8241843065082501</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5104932049111612</v>
+        <v>0.2424267442905529</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9790415223734227</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="56">
@@ -1389,16 +1389,16 @@
         <v>42552</v>
       </c>
       <c r="B56" t="n">
-        <v>0.8183967831948311</v>
+        <v>0.9846847860887079</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8284285715748178</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3560972505717873</v>
+        <v>0.2061619296316844</v>
       </c>
       <c r="E56" t="n">
-        <v>0.981015281890797</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="57">
@@ -1406,16 +1406,16 @@
         <v>42583</v>
       </c>
       <c r="B57" t="n">
-        <v>0.8147146482922014</v>
+        <v>0.9839373204826558</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8202700264204013</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4669182200412889</v>
+        <v>0.1912967755304703</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9817396552186772</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="58">
@@ -1423,16 +1423,16 @@
         <v>42614</v>
       </c>
       <c r="B58" t="n">
-        <v>0.8063220843276583</v>
+        <v>0.983772330092971</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8258780750537105</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5033182562553414</v>
+        <v>0.07701241261950299</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9787856550618544</v>
+        <v>0.1122448979591836</v>
       </c>
     </row>
     <row r="59">
@@ -1440,16 +1440,16 @@
         <v>42644</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8080478076572463</v>
+        <v>0.9849553939282732</v>
       </c>
       <c r="C59" t="n">
-        <v>0.8186995853766205</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4901319569909405</v>
+        <v>0.2030419430851083</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9801327453041018</v>
+        <v>0.1122448979591836</v>
       </c>
     </row>
     <row r="60">
@@ -1457,16 +1457,16 @@
         <v>42675</v>
       </c>
       <c r="B60" t="n">
-        <v>0.8124965697135286</v>
+        <v>0.9862116891924378</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8191507907084582</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4353786391004341</v>
+        <v>0.08783131324587931</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9760322058243911</v>
+        <v>0.1224489795918368</v>
       </c>
     </row>
     <row r="61">
@@ -1474,16 +1474,16 @@
         <v>42705</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8139368519997429</v>
+        <v>0.9852210860693436</v>
       </c>
       <c r="C61" t="n">
-        <v>0.8228900852335511</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4986856164755484</v>
+        <v>0.3620793668103336</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9794266720231996</v>
+        <v>0.1224489795918368</v>
       </c>
     </row>
     <row r="62">
@@ -1491,16 +1491,16 @@
         <v>42736</v>
       </c>
       <c r="B62" t="n">
-        <v>0.8067712217436585</v>
+        <v>0.9819968628457829</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8233304665654089</v>
+        <v>0.3084369894737599</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5700337409100718</v>
+        <v>0.28546590526097</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9846549301094776</v>
+        <v>0.1224489795918368</v>
       </c>
     </row>
     <row r="63">
@@ -1508,16 +1508,16 @@
         <v>42767</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8182238647215494</v>
+        <v>0.9834944113979135</v>
       </c>
       <c r="C63" t="n">
-        <v>0.8223746599484877</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D63" t="n">
-        <v>0.454856946818932</v>
+        <v>0.199509331069648</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9820560951350176</v>
+        <v>0.1122448979591836</v>
       </c>
     </row>
     <row r="64">
@@ -1525,16 +1525,16 @@
         <v>42795</v>
       </c>
       <c r="B64" t="n">
-        <v>0.8270024494154147</v>
+        <v>0.9849263183920567</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8195031242404242</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3578150554331625</v>
+        <v>0.1667577162142057</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9721032874061285</v>
+        <v>0.1122448979591836</v>
       </c>
     </row>
     <row r="65">
@@ -1542,16 +1542,16 @@
         <v>42826</v>
       </c>
       <c r="B65" t="n">
-        <v>0.813441790037817</v>
+        <v>0.9790903032320527</v>
       </c>
       <c r="C65" t="n">
-        <v>0.82201841942333</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4379823293781138</v>
+        <v>0.1119513375659853</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9838459099350136</v>
+        <v>0.1122448979591836</v>
       </c>
     </row>
     <row r="66">
@@ -1559,16 +1559,16 @@
         <v>42856</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8005818281819526</v>
+        <v>0.9807531196940311</v>
       </c>
       <c r="C66" t="n">
-        <v>0.8227593368173521</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3433451879440547</v>
+        <v>0.1609213430334908</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9778158293211698</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="67">
@@ -1576,16 +1576,16 @@
         <v>42887</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8154578610815599</v>
+        <v>0.979855232401758</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8220724558148131</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D67" t="n">
-        <v>0.410549347079741</v>
+        <v>0.2578963331476465</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9800304991106373</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="68">
@@ -1593,16 +1593,16 @@
         <v>42917</v>
       </c>
       <c r="B68" t="n">
-        <v>0.8155122669478176</v>
+        <v>0.9892289329454397</v>
       </c>
       <c r="C68" t="n">
-        <v>0.8215006893539329</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3952852113377378</v>
+        <v>0.2116314859342348</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9765079631200255</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="69">
@@ -1610,16 +1610,16 @@
         <v>42948</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8046915430680994</v>
+        <v>0.9877583527960216</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8196592654238672</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5609150233935125</v>
+        <v>0.1932462802737174</v>
       </c>
       <c r="E69" t="n">
-        <v>0.979102434513735</v>
+        <v>0.0918367346938776</v>
       </c>
     </row>
     <row r="70">
@@ -1627,16 +1627,16 @@
         <v>42979</v>
       </c>
       <c r="B70" t="n">
-        <v>0.8335959615893236</v>
+        <v>0.9867957877229482</v>
       </c>
       <c r="C70" t="n">
-        <v>0.818047234278343</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6199503001817661</v>
+        <v>0.05560288825469817</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9794011733698422</v>
+        <v>0.0918367346938776</v>
       </c>
     </row>
     <row r="71">
@@ -1644,16 +1644,16 @@
         <v>43009</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7839068529739605</v>
+        <v>0.9869069363253277</v>
       </c>
       <c r="C71" t="n">
-        <v>0.8201370254127243</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4163665091399184</v>
+        <v>0.1779638217557723</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9848340411545677</v>
+        <v>0.08163265306122447</v>
       </c>
     </row>
     <row r="72">
@@ -1661,16 +1661,16 @@
         <v>43040</v>
       </c>
       <c r="B72" t="n">
-        <v>0.8136231473531693</v>
+        <v>0.9867747974036607</v>
       </c>
       <c r="C72" t="n">
-        <v>0.8231901576691838</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5054531287823583</v>
+        <v>0.2563357490960501</v>
       </c>
       <c r="E72" t="n">
-        <v>0.9771776535582584</v>
+        <v>0.08163265306122447</v>
       </c>
     </row>
     <row r="73">
@@ -1678,16 +1678,16 @@
         <v>43070</v>
       </c>
       <c r="B73" t="n">
-        <v>0.8103141008001655</v>
+        <v>0.9869135225989926</v>
       </c>
       <c r="C73" t="n">
-        <v>0.819973832527095</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4790655403947179</v>
+        <v>0.2421537829057862</v>
       </c>
       <c r="E73" t="n">
-        <v>0.980097022167201</v>
+        <v>0.07142857142857145</v>
       </c>
     </row>
     <row r="74">
@@ -1695,16 +1695,16 @@
         <v>43101</v>
       </c>
       <c r="B74" t="n">
-        <v>0.8246466423312068</v>
+        <v>0.992543616075001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.8201546828915486</v>
+        <v>0.534001791714672</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5579617292651852</v>
+        <v>0.3035569137741946</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9868247112645042</v>
+        <v>0.07142857142857145</v>
       </c>
     </row>
     <row r="75">
@@ -1712,16 +1712,16 @@
         <v>43132</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8330659605477557</v>
+        <v>0.9931998419472217</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8290277501110732</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5115782435314746</v>
+        <v>0.1759219407791629</v>
       </c>
       <c r="E75" t="n">
-        <v>0.9827496788666857</v>
+        <v>0.06122448979591832</v>
       </c>
     </row>
     <row r="76">
@@ -1729,16 +1729,16 @@
         <v>43160</v>
       </c>
       <c r="B76" t="n">
-        <v>0.8075171382937057</v>
+        <v>0.9938021981007593</v>
       </c>
       <c r="C76" t="n">
-        <v>0.8228779466578857</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4066752155894716</v>
+        <v>0.1486325191755399</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9834844979235169</v>
+        <v>0.05102040816326531</v>
       </c>
     </row>
     <row r="77">
@@ -1746,16 +1746,16 @@
         <v>43191</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8102497836714794</v>
+        <v>0.9879658364809663</v>
       </c>
       <c r="C77" t="n">
-        <v>0.8199781543527314</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4864555798421895</v>
+        <v>0.1084667386271587</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9810957775417388</v>
+        <v>0.04081632653061223</v>
       </c>
     </row>
     <row r="78">
@@ -1763,16 +1763,16 @@
         <v>43221</v>
       </c>
       <c r="B78" t="n">
-        <v>0.8183984649936918</v>
+        <v>0.9879918369403023</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8267750524003048</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4990037387758953</v>
+        <v>0.1461224100059623</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9817591353187322</v>
+        <v>0.03061224489795916</v>
       </c>
     </row>
     <row r="79">
@@ -1780,16 +1780,16 @@
         <v>43252</v>
       </c>
       <c r="B79" t="n">
-        <v>0.8106440688255686</v>
+        <v>0.9884942272665626</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8223965221927245</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D79" t="n">
-        <v>0.443536424040789</v>
+        <v>0.2703185753057266</v>
       </c>
       <c r="E79" t="n">
-        <v>0.9784106657816277</v>
+        <v>0.02040816326530615</v>
       </c>
     </row>
     <row r="80">
@@ -1797,16 +1797,16 @@
         <v>43282</v>
       </c>
       <c r="B80" t="n">
-        <v>0.8198417357191273</v>
+        <v>0.9914705560562737</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8166722053316008</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4183183667114636</v>
+        <v>0.2201569822221378</v>
       </c>
       <c r="E80" t="n">
-        <v>0.979491595978044</v>
+        <v>0.02040816326530615</v>
       </c>
     </row>
     <row r="81">
@@ -1814,16 +1814,16 @@
         <v>43313</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7853610245878195</v>
+        <v>0.9915145762654344</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8238186390224658</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4596972479140294</v>
+        <v>0.190111297317996</v>
       </c>
       <c r="E81" t="n">
-        <v>0.975033970154923</v>
+        <v>0.01020408163265307</v>
       </c>
     </row>
     <row r="82">
@@ -1831,16 +1831,16 @@
         <v>43344</v>
       </c>
       <c r="B82" t="n">
-        <v>0.824129043682934</v>
+        <v>0.9905075635050309</v>
       </c>
       <c r="C82" t="n">
-        <v>0.8178823542293278</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4715287686595205</v>
+        <v>0.06709996294566081</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9826209712153378</v>
+        <v>0.01020408163265307</v>
       </c>
     </row>
     <row r="83">
@@ -1848,16 +1848,16 @@
         <v>43374</v>
       </c>
       <c r="B83" t="n">
-        <v>0.819552886792289</v>
+        <v>0.9876267899259759</v>
       </c>
       <c r="C83" t="n">
-        <v>0.820674477890516</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4961603152117828</v>
+        <v>0.1835325960344964</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9796210093737875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -1865,16 +1865,16 @@
         <v>43405</v>
       </c>
       <c r="B84" t="n">
-        <v>0.8179852778074733</v>
+        <v>0.9885084779671974</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8181339159172965</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3415997683456339</v>
+        <v>0.2375383475831889</v>
       </c>
       <c r="E84" t="n">
-        <v>0.98166126228281</v>
+        <v>0.01020408163265307</v>
       </c>
     </row>
     <row r="85">
@@ -1882,16 +1882,16 @@
         <v>43435</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8101511910185669</v>
+        <v>0.9886434533918657</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8213242929372483</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3600564217250121</v>
+        <v>0.2547311380657802</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9806439707852279</v>
+        <v>0.01020408163265307</v>
       </c>
     </row>
     <row r="86">
@@ -1899,16 +1899,16 @@
         <v>43466</v>
       </c>
       <c r="B86" t="n">
-        <v>0.7973139801202804</v>
+        <v>0.9903792324956118</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8259309936709726</v>
+        <v>0.8287920985253894</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3647174717258458</v>
+        <v>0.2852507283117881</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9786664338987189</v>
+        <v>0.01020408163265307</v>
       </c>
     </row>
     <row r="87">
@@ -1916,16 +1916,16 @@
         <v>43497</v>
       </c>
       <c r="B87" t="n">
-        <v>0.8196116871088801</v>
+        <v>0.9891988879818086</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8138010898794865</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5038792710841919</v>
+        <v>0.2024863462074954</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9767325971937034</v>
+        <v>0.01020408163265307</v>
       </c>
     </row>
     <row r="88">
@@ -1933,16 +1933,16 @@
         <v>43525</v>
       </c>
       <c r="B88" t="n">
-        <v>0.8018329244093183</v>
+        <v>0.9883700581039625</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8229487460305345</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5913563343395413</v>
+        <v>0.1416088028296189</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9793252182555847</v>
+        <v>0.01020408163265307</v>
       </c>
     </row>
     <row r="89">
@@ -1950,16 +1950,16 @@
         <v>43556</v>
       </c>
       <c r="B89" t="n">
-        <v>0.8045367245601444</v>
+        <v>0.9888986661245849</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8234836547045727</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5446092017417534</v>
+        <v>0.1066409000152493</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9851240471169656</v>
+        <v>0.01020408163265307</v>
       </c>
     </row>
     <row r="90">
@@ -1967,16 +1967,16 @@
         <v>43586</v>
       </c>
       <c r="B90" t="n">
-        <v>0.8113212842232385</v>
+        <v>0.9905040367523033</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8170516540991243</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4097728513891348</v>
+        <v>0.1585289012986802</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9785662060674547</v>
+        <v>0.02040816326530615</v>
       </c>
     </row>
     <row r="91">
@@ -1984,16 +1984,16 @@
         <v>43617</v>
       </c>
       <c r="B91" t="n">
-        <v>0.8186221843914154</v>
+        <v>0.9904514017150735</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8206962770596742</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D91" t="n">
-        <v>0.38649153885636</v>
+        <v>0.2691484002225217</v>
       </c>
       <c r="E91" t="n">
-        <v>0.9823941640804321</v>
+        <v>0.02040816326530615</v>
       </c>
     </row>
     <row r="92">
@@ -2001,16 +2001,16 @@
         <v>43647</v>
       </c>
       <c r="B92" t="n">
-        <v>0.8189620174086807</v>
+        <v>0.9892597857944893</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8175942660774596</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4792752537025191</v>
+        <v>0.2364581903823663</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9798030836781131</v>
+        <v>0.03061224489795916</v>
       </c>
     </row>
     <row r="93">
@@ -2018,16 +2018,16 @@
         <v>43678</v>
       </c>
       <c r="B93" t="n">
-        <v>0.8154828077055877</v>
+        <v>0.9899923489028822</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8230507446757434</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4312301472581591</v>
+        <v>0.1937291818975568</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9781783786194277</v>
+        <v>0.03061224489795916</v>
       </c>
     </row>
     <row r="94">
@@ -2035,16 +2035,16 @@
         <v>43709</v>
       </c>
       <c r="B94" t="n">
-        <v>0.8241791552854203</v>
+        <v>0.9897368011133344</v>
       </c>
       <c r="C94" t="n">
-        <v>0.8221298771470258</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4565441355295847</v>
+        <v>0.06795346020950424</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9765585280189282</v>
+        <v>0.03061224489795916</v>
       </c>
     </row>
     <row r="95">
@@ -2052,16 +2052,16 @@
         <v>43739</v>
       </c>
       <c r="B95" t="n">
-        <v>0.8126319742663987</v>
+        <v>0.9863785169232928</v>
       </c>
       <c r="C95" t="n">
-        <v>0.819289810779421</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5099701165816628</v>
+        <v>0.2001363571662454</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9797858088696763</v>
+        <v>0.03061224489795916</v>
       </c>
     </row>
     <row r="96">
@@ -2069,16 +2069,16 @@
         <v>43770</v>
       </c>
       <c r="B96" t="n">
-        <v>0.8124937237162303</v>
+        <v>0.9874359132063417</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8224031023543661</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4682875810744797</v>
+        <v>0.2487013571981198</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9750503690185857</v>
+        <v>0.02040816326530615</v>
       </c>
     </row>
     <row r="97">
@@ -2086,16 +2086,16 @@
         <v>43800</v>
       </c>
       <c r="B97" t="n">
-        <v>0.8132794396938479</v>
+        <v>0.9860570684112078</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8183015343154202</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4666626050633214</v>
+        <v>0.2340362516483831</v>
       </c>
       <c r="E97" t="n">
-        <v>0.9831072632591373</v>
+        <v>0.02040816326530615</v>
       </c>
     </row>
     <row r="98">
@@ -2103,16 +2103,16 @@
         <v>43831</v>
       </c>
       <c r="B98" t="n">
-        <v>0.7973372499006984</v>
+        <v>0.9801097718689453</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8266883716369168</v>
+        <v>0.8917086735980018</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4562957516250217</v>
+        <v>0.2571979800799694</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9826493603113391</v>
+        <v>0.02040816326530615</v>
       </c>
     </row>
     <row r="99">
@@ -2120,16 +2120,16 @@
         <v>43862</v>
       </c>
       <c r="B99" t="n">
-        <v>0.8137453876417202</v>
+        <v>0.9805877565744382</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8244621293926442</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D99" t="n">
-        <v>0.439059555797408</v>
+        <v>0.2094109687659182</v>
       </c>
       <c r="E99" t="n">
-        <v>0.98124669381788</v>
+        <v>0.02040816326530615</v>
       </c>
     </row>
     <row r="100">
@@ -2137,16 +2137,16 @@
         <v>43891</v>
       </c>
       <c r="B100" t="n">
-        <v>0.6969692592429803</v>
+        <v>0.9828625410096268</v>
       </c>
       <c r="C100" t="n">
-        <v>0.762894256021043</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D100" t="n">
-        <v>0.2262743642876197</v>
+        <v>0.1532717866473737</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9717266243966615</v>
+        <v>0.1530612244897959</v>
       </c>
     </row>
     <row r="101">
@@ -2154,16 +2154,16 @@
         <v>43922</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>0.9755064648775628</v>
       </c>
       <c r="C101" t="n">
-        <v>0.01182346175643989</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>0.956664595749088</v>
+        <v>0.9795918367346937</v>
       </c>
     </row>
     <row r="102">
@@ -2171,16 +2171,16 @@
         <v>43952</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9569070071883189</v>
+        <v>0.9708248839507264</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9241151740788696</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D102" t="n">
-        <v>0.3522132825430839</v>
+        <v>0.2408814718789307</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9795497106727131</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="103">
@@ -2188,16 +2188,16 @@
         <v>43983</v>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0.9687869021347275</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6138188260274466</v>
+        <v>0.1507139883037646</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9824998107526026</v>
+        <v>0.9387755102040815</v>
       </c>
     </row>
     <row r="104">
@@ -2205,16 +2205,16 @@
         <v>44013</v>
       </c>
       <c r="B104" t="n">
-        <v>0.8619915693855537</v>
+        <v>0.9999196727385774</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8719716723206929</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6223428498919439</v>
+        <v>0.1585598370021853</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9876516371695102</v>
+        <v>0.4285714285714286</v>
       </c>
     </row>
     <row r="105">
@@ -2222,16 +2222,16 @@
         <v>44044</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9301592416903756</v>
+        <v>0.9994894042708684</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8827494139037064</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D105" t="n">
-        <v>0.568632768710604</v>
+        <v>0.1162311084911514</v>
       </c>
       <c r="E105" t="n">
-        <v>0.9869906892720072</v>
+        <v>0.4081632653061225</v>
       </c>
     </row>
     <row r="106">
@@ -2239,16 +2239,16 @@
         <v>44075</v>
       </c>
       <c r="B106" t="n">
-        <v>0.8220104815944788</v>
+        <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8519897923760563</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4905468607131919</v>
+        <v>0.1444442940536693</v>
       </c>
       <c r="E106" t="n">
-        <v>0.9811618247421615</v>
+        <v>0.4183673469387754</v>
       </c>
     </row>
     <row r="107">
@@ -2256,16 +2256,16 @@
         <v>44105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.8854473545587337</v>
+        <v>0.9868658388129047</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8424105555477105</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4091997879257664</v>
+        <v>0.00218451720168622</v>
       </c>
       <c r="E107" t="n">
-        <v>0.9753990616390603</v>
+        <v>0.1836734693877551</v>
       </c>
     </row>
     <row r="108">
@@ -2273,16 +2273,16 @@
         <v>44136</v>
       </c>
       <c r="B108" t="n">
-        <v>0.809529527014256</v>
+        <v>0.986969335937297</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8247803516057473</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4466437111373774</v>
+        <v>0.08643541386793691</v>
       </c>
       <c r="E108" t="n">
-        <v>0.9751453397140232</v>
+        <v>0.1938775510204082</v>
       </c>
     </row>
     <row r="109">
@@ -2290,16 +2290,16 @@
         <v>44166</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8080962408847309</v>
+        <v>0.9841016965130822</v>
       </c>
       <c r="C109" t="n">
-        <v>0.804278529958791</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5321018246348093</v>
+        <v>0.1716335189442063</v>
       </c>
       <c r="E109" t="n">
-        <v>0.9875337282372185</v>
+        <v>0.2142857142857142</v>
       </c>
     </row>
     <row r="110">
@@ -2307,16 +2307,16 @@
         <v>44197</v>
       </c>
       <c r="B110" t="n">
-        <v>0.8037985530107958</v>
+        <v>0.9868753640885087</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8336290661528916</v>
+        <v>0.5201431957128754</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4943928131909315</v>
+        <v>0.2435985502952302</v>
       </c>
       <c r="E110" t="n">
-        <v>0.9869867133354615</v>
+        <v>0.2244897959183674</v>
       </c>
     </row>
     <row r="111">
@@ -2324,16 +2324,16 @@
         <v>44228</v>
       </c>
       <c r="B111" t="n">
-        <v>0.8186046173234472</v>
+        <v>0.9872037742044296</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8366655330876169</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5855552089591999</v>
+        <v>0.1801318850497206</v>
       </c>
       <c r="E111" t="n">
-        <v>0.9809566549164035</v>
+        <v>0.2244897959183674</v>
       </c>
     </row>
     <row r="112">
@@ -2341,16 +2341,16 @@
         <v>44256</v>
       </c>
       <c r="B112" t="n">
-        <v>0.8259506443671929</v>
+        <v>0.9854174962007595</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8445415267298729</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6801679785195373</v>
+        <v>0.1381728817836715</v>
       </c>
       <c r="E112" t="n">
-        <v>0.991288101526027</v>
+        <v>0.2346938775510203</v>
       </c>
     </row>
     <row r="113">
@@ -2358,16 +2358,16 @@
         <v>44287</v>
       </c>
       <c r="B113" t="n">
-        <v>0.8215175625321907</v>
+        <v>0.9874955598235285</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8254862688070219</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D113" t="n">
-        <v>0.681290936005489</v>
+        <v>0.1693003014201584</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.2346938775510203</v>
       </c>
     </row>
     <row r="114">
@@ -2375,16 +2375,16 @@
         <v>44317</v>
       </c>
       <c r="B114" t="n">
-        <v>0.8177091421539534</v>
+        <v>0.9876281056145754</v>
       </c>
       <c r="C114" t="n">
-        <v>0.832893679041615</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7097890436050871</v>
+        <v>0.2444416730482688</v>
       </c>
       <c r="E114" t="n">
-        <v>0.9953177368131433</v>
+        <v>0.2244897959183674</v>
       </c>
     </row>
     <row r="115">
@@ -2392,16 +2392,16 @@
         <v>44348</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8139240932155383</v>
+        <v>0.9872636730484941</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8407928447358934</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7918698206865462</v>
+        <v>0.2151951808131157</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9938378403237628</v>
+        <v>0.2244897959183674</v>
       </c>
     </row>
     <row r="116">
@@ -2409,16 +2409,16 @@
         <v>44378</v>
       </c>
       <c r="B116" t="n">
-        <v>0.8447262678280361</v>
+        <v>0.986330727725761</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8435193384603674</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5933676549433829</v>
+        <v>0.1151404357484768</v>
       </c>
       <c r="E116" t="n">
-        <v>0.9902418238171297</v>
+        <v>0.2040816326530612</v>
       </c>
     </row>
     <row r="117">
@@ -2426,16 +2426,16 @@
         <v>44409</v>
       </c>
       <c r="B117" t="n">
-        <v>0.8216318148412766</v>
+        <v>0.9867423797388569</v>
       </c>
       <c r="C117" t="n">
-        <v>0.8394124451332354</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5369842896455852</v>
+        <v>0.06056612726790031</v>
       </c>
       <c r="E117" t="n">
-        <v>0.9875954422895242</v>
+        <v>0.1836734693877551</v>
       </c>
     </row>
     <row r="118">
@@ -2443,16 +2443,16 @@
         <v>44440</v>
       </c>
       <c r="B118" t="n">
-        <v>0.829324685465715</v>
+        <v>0.9872906244443604</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8353603053475847</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5733056891296506</v>
+        <v>0.05426815117884229</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9826403914483204</v>
+        <v>0.1530612244897959</v>
       </c>
     </row>
     <row r="119">
@@ -2460,16 +2460,16 @@
         <v>44470</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8248883981973458</v>
+        <v>0.9888171566704793</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8435751480102291</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7869501147721993</v>
+        <v>0.1329174136830875</v>
       </c>
       <c r="E119" t="n">
-        <v>0.990822126533077</v>
+        <v>0.1428571428571429</v>
       </c>
     </row>
     <row r="120">
@@ -2477,16 +2477,16 @@
         <v>44501</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8454799427581161</v>
+        <v>0.988484777855012</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8372741196385735</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7086646182002438</v>
+        <v>0.1821109916283447</v>
       </c>
       <c r="E120" t="n">
-        <v>0.9952808646827681</v>
+        <v>0.1326530612244898</v>
       </c>
     </row>
     <row r="121">
@@ -2494,16 +2494,16 @@
         <v>44531</v>
       </c>
       <c r="B121" t="n">
-        <v>0.8253004314759759</v>
+        <v>0.9889112592408951</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8355296793252621</v>
+        <v>0.5640021604148648</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6505070675988471</v>
+        <v>0.189386441884282</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9964095594698834</v>
+        <v>0.1326530612244898</v>
       </c>
     </row>
     <row r="122">
@@ -2511,16 +2511,16 @@
         <v>44562</v>
       </c>
       <c r="B122" t="n">
-        <v>0.8417655800512969</v>
+        <v>0.9867501574115194</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8279498252863896</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6833060359507753</v>
+        <v>0.2883173500359431</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9934873959452977</v>
+        <v>0.1326530612244898</v>
       </c>
     </row>
     <row r="123">
@@ -2528,16 +2528,16 @@
         <v>44593</v>
       </c>
       <c r="B123" t="n">
-        <v>0.8225231991975527</v>
+        <v>0.9862787823929741</v>
       </c>
       <c r="C123" t="n">
-        <v>0.8476052779413291</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7548506731960245</v>
+        <v>0.1471493035958689</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9891751212416464</v>
+        <v>0.1122448979591836</v>
       </c>
     </row>
     <row r="124">
@@ -2545,16 +2545,16 @@
         <v>44621</v>
       </c>
       <c r="B124" t="n">
-        <v>0.8314178054745589</v>
+        <v>0.9838098306532541</v>
       </c>
       <c r="C124" t="n">
-        <v>0.8296529253655485</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9618970566512602</v>
+        <v>0.1425809155506272</v>
       </c>
       <c r="E124" t="n">
-        <v>0.9891880507522977</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="125">
@@ -2562,16 +2562,16 @@
         <v>44652</v>
       </c>
       <c r="B125" t="n">
-        <v>0.7954831318683658</v>
+        <v>0.9899932989369233</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8238175672650873</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5362716851339961</v>
+        <v>0.1092707641291604</v>
       </c>
       <c r="E125" t="n">
-        <v>0.9868666973528365</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="126">
@@ -2579,16 +2579,16 @@
         <v>44682</v>
       </c>
       <c r="B126" t="n">
-        <v>0.8174440166948352</v>
+        <v>0.9871644166418843</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8277797188483189</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>0.8373213481418396</v>
+        <v>0.1444467445445404</v>
       </c>
       <c r="E126" t="n">
-        <v>0.9894910767429179</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="127">
@@ -2596,16 +2596,16 @@
         <v>44713</v>
       </c>
       <c r="B127" t="n">
-        <v>0.7989289927695611</v>
+        <v>0.9844977615472891</v>
       </c>
       <c r="C127" t="n">
-        <v>0.8279645765271101</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0.2625678169596494</v>
       </c>
       <c r="E127" t="n">
-        <v>0.9998990712482405</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="128">
@@ -2613,16 +2613,16 @@
         <v>44743</v>
       </c>
       <c r="B128" t="n">
-        <v>0.8140641755195509</v>
+        <v>0.9906427706964767</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8350499354766038</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0.3707296219929684</v>
+        <v>0.2513390108337784</v>
       </c>
       <c r="E128" t="n">
-        <v>0.9771713840447283</v>
+        <v>0.0918367346938776</v>
       </c>
     </row>
     <row r="129">
@@ -2630,16 +2630,16 @@
         <v>44774</v>
       </c>
       <c r="B129" t="n">
-        <v>0.8208919451701608</v>
+        <v>0.9881356328664634</v>
       </c>
       <c r="C129" t="n">
-        <v>0.8272376443346845</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4356150255383813</v>
+        <v>0.2122502921668539</v>
       </c>
       <c r="E129" t="n">
-        <v>0.9966912583357779</v>
+        <v>0.1020408163265306</v>
       </c>
     </row>
     <row r="130">
@@ -2647,16 +2647,16 @@
         <v>44805</v>
       </c>
       <c r="B130" t="n">
-        <v>0.8120903226948355</v>
+        <v>0.987592019226022</v>
       </c>
       <c r="C130" t="n">
-        <v>0.827137159737487</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5617259035703712</v>
+        <v>0.06359962527673832</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9931564108696392</v>
+        <v>0.08163265306122447</v>
       </c>
     </row>
     <row r="131">
@@ -2664,16 +2664,16 @@
         <v>44835</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7984613780182788</v>
+        <v>0.9887593275571626</v>
       </c>
       <c r="C131" t="n">
-        <v>0.8261809070724782</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5863861258720136</v>
+        <v>0.2055531181366165</v>
       </c>
       <c r="E131" t="n">
-        <v>0.986597945689223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -2681,16 +2681,16 @@
         <v>44866</v>
       </c>
       <c r="B132" t="n">
-        <v>0.8047628919116875</v>
+        <v>0.9906471816538258</v>
       </c>
       <c r="C132" t="n">
-        <v>0.8249456853534888</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4252858022654106</v>
+        <v>0.1234152593035975</v>
       </c>
       <c r="E132" t="n">
-        <v>0.982967929989221</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -2698,16 +2698,16 @@
         <v>44896</v>
       </c>
       <c r="B133" t="n">
-        <v>0.8305827208491328</v>
+        <v>0.9909176050080779</v>
       </c>
       <c r="C133" t="n">
-        <v>0.8231128340033643</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>0.9894576781362352</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/covid19_drdfm/data/example-output/DE/df.xlsx
+++ b/covid19_drdfm/data/example-output/DE/df.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E133"/>
+  <dimension ref="A1:N133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,19 +452,64 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Prod</t>
+          <t>RPFI</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>FixAss</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>UI</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PartR</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>UR</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Cons3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Cons5</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CPIU</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>PCE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Mask2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>School</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Hosp1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -480,7 +525,34 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8055555555555571</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.3571428571428571</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -491,13 +563,40 @@
         <v>0.989159648586503</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.8870368903842295</v>
       </c>
       <c r="D3" t="n">
+        <v>0.4471932674544087</v>
+      </c>
+      <c r="E3" t="n">
         <v>0.2071409288542583</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
+        <v>0.8055555555555571</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.3571428571428571</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9910371302269441</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9945606588623457</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.4804248097350872</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9679389035394174</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +607,40 @@
         <v>0.989353583492234</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.8845145937112349</v>
       </c>
       <c r="D4" t="n">
+        <v>0.4584501652580931</v>
+      </c>
+      <c r="E4" t="n">
         <v>0.1612676183485078</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
+        <v>0.7777777777777786</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.3571428571428571</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9912427580972847</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.994757850036428</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4783596646895119</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.966573298315848</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -525,13 +651,40 @@
         <v>0.9826550485949707</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.5654457973933925</v>
       </c>
       <c r="D5" t="n">
+        <v>0.1774868925260338</v>
+      </c>
+      <c r="E5" t="n">
         <v>0.1702882107952488</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
+        <v>0.7777777777777786</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.3571428571428571</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.9916219814373808</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.9951191448972986</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4580164258916395</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.9640820130383683</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -542,13 +695,40 @@
         <v>0.9843215790839286</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.5630897431195303</v>
       </c>
       <c r="D6" t="n">
+        <v>0.2626546428176496</v>
+      </c>
+      <c r="E6" t="n">
         <v>0.143498204166694</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.3673469387755102</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.993191114835735</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.9966054008700973</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2823120937051792</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.9538741718760513</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -559,13 +739,40 @@
         <v>0.9838846665324036</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.5607341000250929</v>
       </c>
       <c r="D7" t="n">
+        <v>0.2386791743659279</v>
+      </c>
+      <c r="E7" t="n">
         <v>0.1928673371293272</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G7" t="n">
         <v>0.3673469387755102</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9927848869258775</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.9962240642938009</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.3408982227867237</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.956476820529933</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -576,13 +783,40 @@
         <v>0.9845255381424882</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.4601341012922524</v>
       </c>
       <c r="D8" t="n">
+        <v>0.2924535976136655</v>
+      </c>
+      <c r="E8" t="n">
         <v>0.2296394066073208</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
+        <v>0.7222222222222214</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.3673469387755102</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.992222498013299</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9956950702464941</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.3934463727922193</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.9600922983102562</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -593,13 +827,40 @@
         <v>0.9824632180247876</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.4596733618432381</v>
       </c>
       <c r="D9" t="n">
+        <v>0.1847091083432237</v>
+      </c>
+      <c r="E9" t="n">
         <v>0.183889511024717</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
+        <v>0.7222222222222214</v>
+      </c>
+      <c r="G9" t="n">
         <v>0.3673469387755102</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9902832607546517</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.993864342328051</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.6527359268372354</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.9726370191705382</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -610,13 +871,40 @@
         <v>0.9826808739302509</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.4592090492621739</v>
       </c>
       <c r="D10" t="n">
+        <v>0.1952422989455949</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.1267646486151463</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
+        <v>0.6944444444444464</v>
+      </c>
+      <c r="G10" t="n">
         <v>0.3673469387755102</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9904853112628518</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9940580382644012</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.6040928049754837</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.9712958398905062</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -627,13 +915,40 @@
         <v>0.9801547502344943</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.5143803853408282</v>
       </c>
       <c r="D11" t="n">
+        <v>0.07548995592854851</v>
+      </c>
+      <c r="E11" t="n">
         <v>0.2034611691414173</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
+        <v>0.6666666666666679</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.3673469387755102</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9905249739754982</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9940981894174604</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.506728251696605</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.9710078867636006</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -644,13 +959,40 @@
         <v>0.9826380489947694</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.5118339951259425</v>
       </c>
       <c r="D12" t="n">
+        <v>0.2030965754303779</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.1983930617205458</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
+        <v>0.6388888888888893</v>
+      </c>
+      <c r="G12" t="n">
         <v>0.3673469387755102</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9928734652195846</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.99632116217773</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.3006557725101743</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9557458204525275</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -661,13 +1003,40 @@
         <v>0.9822597449233897</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.5092748911311699</v>
       </c>
       <c r="D13" t="n">
+        <v>0.1822415174029525</v>
+      </c>
+      <c r="E13" t="n">
         <v>0.2259930943678139</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
+        <v>0.6111111111111143</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.3673469387755102</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.9925347347558038</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.9960035313158128</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.37413804795302</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.9579119267895568</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -678,13 +1047,40 @@
         <v>0.9822468201428536</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2378787923587464</v>
+        <v>0.5017893922242006</v>
       </c>
       <c r="D14" t="n">
+        <v>0.1590693510121803</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.240726531932876</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
+        <v>0.5555555555555571</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.3673469387755102</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.9906787784715181</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.994866680464215</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.4730736920152049</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.9666573187698657</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -695,13 +1091,40 @@
         <v>0.9810480331886041</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.4992443734418925</v>
       </c>
       <c r="D15" t="n">
+        <v>0.09453213389003146</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.2031176278118857</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
+        <v>0.5277777777777786</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.3571428571428571</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9895593816913678</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9938082441937443</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.6349860070635606</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.9739022526346681</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -712,13 +1135,40 @@
         <v>0.9844599366241474</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.4966835068304062</v>
       </c>
       <c r="D16" t="n">
+        <v>0.2691074780412258</v>
+      </c>
+      <c r="E16" t="n">
         <v>0.1635700330754534</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
+        <v>0.472222222222225</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.3571428571428571</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9927702232864123</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9968437496077134</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.2471689513070562</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.953062076468007</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -729,13 +1179,40 @@
         <v>0.9869696098326864</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.607880149416358</v>
       </c>
       <c r="D17" t="n">
+        <v>0.5026175756344368</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.1482391264777695</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
+        <v>0.4444444444444464</v>
+      </c>
+      <c r="G17" t="n">
         <v>0.3469387755102041</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.992423047133269</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.996515395113575</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.2813645162752761</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.9552985360150279</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -746,13 +1223,40 @@
         <v>0.9859810000319812</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.607669296216901</v>
       </c>
       <c r="D18" t="n">
+        <v>0.4507359334287874</v>
+      </c>
+      <c r="E18" t="n">
         <v>0.1577498999166021</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
+        <v>0.4166666666666679</v>
+      </c>
+      <c r="G18" t="n">
         <v>0.336734693877551</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.9914923734806387</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.9956353860204683</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.3993518297214528</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.9613194141187007</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -763,13 +1267,40 @@
         <v>0.9849467216267481</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.6074593216290661</v>
       </c>
       <c r="D19" t="n">
+        <v>0.3964881324218044</v>
+      </c>
+      <c r="E19" t="n">
         <v>0.2409402231206417</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
+        <v>0.4166666666666679</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.326530612244898</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9905188177267464</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.9947148362690575</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.4918638127890506</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.9676185898792923</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -780,13 +1311,40 @@
         <v>0.9880507711275307</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.7104132932390059</v>
       </c>
       <c r="D20" t="n">
+        <v>0.4565512858589491</v>
+      </c>
+      <c r="E20" t="n">
         <v>0.2160981654398614</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
+        <v>0.4166666666666679</v>
+      </c>
+      <c r="G20" t="n">
         <v>0.3163265306122448</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9911060511395141</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.9952699038043704</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.4719810427311055</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.9637948380358665</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -797,13 +1355,40 @@
         <v>0.9878370647118477</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.7096121518195875</v>
       </c>
       <c r="D21" t="n">
+        <v>0.4454840311849478</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.1844759909715083</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
+        <v>0.3888888888888893</v>
+      </c>
+      <c r="G21" t="n">
         <v>0.3061224489795918</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9909136322997409</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.9950878655901781</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.4921920362000497</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.9650278671739611</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -814,13 +1399,40 @@
         <v>0.988613371060054</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.7088192757731562</v>
       </c>
       <c r="D22" t="n">
+        <v>0.4857680071455807</v>
+      </c>
+      <c r="E22" t="n">
         <v>0.1127331900781911</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
+        <v>0.3888888888888893</v>
+      </c>
+      <c r="G22" t="n">
         <v>0.2857142857142857</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.9916509161108404</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.9957847963723424</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3976005690238599</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.9602308122521267</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -831,13 +1443,40 @@
         <v>0.9961984088299212</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5640021604148648</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
+        <v>0.867506350898432</v>
+      </c>
+      <c r="E23" t="n">
         <v>0.2015226402168925</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
+        <v>0.3888888888888893</v>
+      </c>
+      <c r="G23" t="n">
         <v>0.2755102040816326</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.9908092299036688</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.9949889230843201</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.4050553748719518</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.9656751792246812</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -848,13 +1487,40 @@
         <v>0.9961072875974259</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.9963774591128232</v>
       </c>
       <c r="D24" t="n">
+        <v>0.8667063107673958</v>
+      </c>
+      <c r="E24" t="n">
         <v>0.2340867049120092</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
+        <v>0.3888888888888893</v>
+      </c>
+      <c r="G24" t="n">
         <v>0.2653061224489796</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9908912680144787</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.99506636665325</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.4666731454969064</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.9651282623410788</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -865,13 +1531,40 @@
         <v>0.9956370004705074</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.9928191944071709</v>
       </c>
       <c r="D25" t="n">
+        <v>0.8460553826954982</v>
+      </c>
+      <c r="E25" t="n">
         <v>0.2434344274669057</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
+        <v>0.4166666666666679</v>
+      </c>
+      <c r="G25" t="n">
         <v>0.2653061224489796</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9906118394617119</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.994802069741978</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.504271433281398</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.9669260016326096</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -882,13 +1575,40 @@
         <v>0.9878565979325376</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.7660086141675999</v>
       </c>
       <c r="D26" t="n">
+        <v>0.5679811391372543</v>
+      </c>
+      <c r="E26" t="n">
         <v>0.2404702410643688</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
+        <v>0.4166666666666679</v>
+      </c>
+      <c r="G26" t="n">
         <v>0.2551020408163265</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.9918005222617746</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.9963088589358595</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.493934346505972</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.9665405811298221</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -899,13 +1619,40 @@
         <v>0.9887463833876869</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.7653577177670913</v>
       </c>
       <c r="D27" t="n">
+        <v>0.6138098624371037</v>
+      </c>
+      <c r="E27" t="n">
         <v>0.2231181529939931</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
+        <v>0.4444444444444464</v>
+      </c>
+      <c r="G27" t="n">
         <v>0.2551020408163265</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9926403418404472</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.9970995875436611</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.4316850960443767</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.9610381658735081</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -916,13 +1663,40 @@
         <v>0.9877591858644393</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.7647105122266781</v>
       </c>
       <c r="D28" t="n">
+        <v>0.5622549793591142</v>
+      </c>
+      <c r="E28" t="n">
         <v>0.1442367164753394</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
+        <v>0.472222222222225</v>
+      </c>
+      <c r="G28" t="n">
         <v>0.2448979591836735</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9917173255062836</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.9962237190607269</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.4759716818008413</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.9669709174555586</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -933,13 +1707,40 @@
         <v>0.9938886720044671</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.9971968628904297</v>
       </c>
       <c r="D29" t="n">
+        <v>0.6600674533541013</v>
+      </c>
+      <c r="E29" t="n">
         <v>0.1187631203040736</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
+        <v>0.5000000000000036</v>
+      </c>
+      <c r="G29" t="n">
         <v>0.2346938775510203</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.9917493112634038</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.9962507749359327</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.467607911577312</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.9667094161832184</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -950,13 +1751,40 @@
         <v>0.9939193860434561</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.9942237187082343</v>
       </c>
       <c r="D30" t="n">
+        <v>0.6657674512694254</v>
+      </c>
+      <c r="E30" t="n">
         <v>0.1554928433255304</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
+        <v>0.5277777777777786</v>
+      </c>
+      <c r="G30" t="n">
         <v>0.2346938775510203</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.9918816263298972</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.9963727221743479</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.4694354679379368</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.9657974574043684</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -967,13 +1795,40 @@
         <v>0.9942129134933954</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.9912875145981153</v>
       </c>
       <c r="D31" t="n">
+        <v>0.6849725683494176</v>
+      </c>
+      <c r="E31" t="n">
         <v>0.2243036117248566</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
+        <v>0.5555555555555571</v>
+      </c>
+      <c r="G31" t="n">
         <v>0.2244897959183674</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.9922579425422462</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.9967253913074774</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.4420601940130754</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.9633029987871482</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -984,13 +1839,40 @@
         <v>0.9914639383804928</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.8383230239390801</v>
       </c>
       <c r="D32" t="n">
+        <v>0.5656977445637237</v>
+      </c>
+      <c r="E32" t="n">
         <v>0.215252902602469</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
+        <v>0.5833333333333357</v>
+      </c>
+      <c r="G32" t="n">
         <v>0.2142857142857142</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.9920061999238968</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.9964843125394918</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.4328522352647602</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.9648830981661997</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1001,13 +1883,40 @@
         <v>0.9925267572757165</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.8370600438214801</v>
       </c>
       <c r="D33" t="n">
+        <v>0.6229925329746364</v>
+      </c>
+      <c r="E33" t="n">
         <v>0.1806616537247878</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
+        <v>0.6111111111111143</v>
+      </c>
+      <c r="G33" t="n">
         <v>0.2040816326530612</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.9930513682940774</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.9974694033632823</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.3723022077765162</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.9580503926351426</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1018,13 +1927,40 @@
         <v>0.9922089535918019</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.8358082498048238</v>
       </c>
       <c r="D34" t="n">
+        <v>0.6085925799691686</v>
+      </c>
+      <c r="E34" t="n">
         <v>0.07058695330518255</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
+        <v>0.6388888888888893</v>
+      </c>
+      <c r="G34" t="n">
         <v>0.1938775510204082</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.9927989630639764</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.9972277682259373</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.3832166305801797</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.9596354928650028</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1035,13 +1971,40 @@
         <v>0.9890596621227218</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.7203729831900686</v>
       </c>
       <c r="D35" t="n">
+        <v>0.5600938944801892</v>
+      </c>
+      <c r="E35" t="n">
         <v>0.2346836020562044</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
+        <v>0.6388888888888893</v>
+      </c>
+      <c r="G35" t="n">
         <v>0.1836734693877551</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.993116751095143</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.9975252429555296</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.3705152434098531</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.9575220698412108</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1052,13 +2015,40 @@
         <v>0.9894023656888701</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.7199339664524601</v>
       </c>
       <c r="D36" t="n">
+        <v>0.577947551648163</v>
+      </c>
+      <c r="E36" t="n">
         <v>0.2195419435967794</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
+        <v>0.6388888888888893</v>
+      </c>
+      <c r="G36" t="n">
         <v>0.173469387755102</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.9934411131431459</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.9978289662590933</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.2910385964014466</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.9553663852445861</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1069,13 +2059,40 @@
         <v>0.9899198183912489</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.7194974531237357</v>
       </c>
       <c r="D37" t="n">
+        <v>0.6048709842464565</v>
+      </c>
+      <c r="E37" t="n">
         <v>0.2276454642728146</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
+        <v>0.6388888888888893</v>
+      </c>
+      <c r="G37" t="n">
         <v>0.1632653061224489</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.9939295662192106</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.9982878577565395</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.2342588880723614</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.9521466689884892</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1086,13 +2103,40 @@
         <v>0.9932677521058253</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6146945201350265</v>
+        <v>0.6725015194884614</v>
       </c>
       <c r="D38" t="n">
+        <v>0.7137035738091659</v>
+      </c>
+      <c r="E38" t="n">
         <v>0.2809065870068505</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
+        <v>0.6388888888888893</v>
+      </c>
+      <c r="G38" t="n">
         <v>0.1530612244897959</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.9964291794849952</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.9989643190273056</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.07870096975326518</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.9391826878446033</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1103,13 +2147,40 @@
         <v>0.98892673824594</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.6722447817016568</v>
       </c>
       <c r="D39" t="n">
+        <v>0.4890793242410278</v>
+      </c>
+      <c r="E39" t="n">
         <v>0.1820330810704924</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
+        <v>0.6666666666666679</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.1428571428571429</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.9923619446253472</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.9951273689152933</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.4991270461619542</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.965489893197179</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1120,13 +2191,40 @@
         <v>0.988718619310747</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.6719893654631458</v>
       </c>
       <c r="D40" t="n">
+        <v>0.4789544496159358</v>
+      </c>
+      <c r="E40" t="n">
         <v>0.1850869537006168</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
+        <v>0.6666666666666679</v>
+      </c>
+      <c r="G40" t="n">
         <v>0.1428571428571429</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.9921760368273377</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.9949598318121353</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5066174053952723</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.9666207178331913</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1137,13 +2235,40 @@
         <v>0.9909486496515351</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.7477198031071594</v>
       </c>
       <c r="D41" t="n">
+        <v>0.5502575833242545</v>
+      </c>
+      <c r="E41" t="n">
         <v>0.09250976586521242</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
+        <v>0.6944444444444464</v>
+      </c>
+      <c r="G41" t="n">
         <v>0.1428571428571429</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.9929077924392975</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.9956597915063495</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.4289422565245661</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.9617994349538268</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1154,13 +2279,40 @@
         <v>0.9897922388064879</v>
       </c>
       <c r="C42" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.7471657648741873</v>
       </c>
       <c r="D42" t="n">
+        <v>0.4916834232113889</v>
+      </c>
+      <c r="E42" t="n">
         <v>0.1525987663893844</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
+        <v>0.7222222222222214</v>
+      </c>
+      <c r="G42" t="n">
         <v>0.1428571428571429</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.9918492836198105</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.994667119780397</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5349905266530876</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.9685919911023991</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1171,13 +2323,40 @@
         <v>0.9900616139122315</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.7466148225530762</v>
       </c>
       <c r="D43" t="n">
+        <v>0.5070899011803167</v>
+      </c>
+      <c r="E43" t="n">
         <v>0.2402019946945882</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
+        <v>0.7222222222222214</v>
+      </c>
+      <c r="G43" t="n">
         <v>0.1326530612244898</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.9921293247309143</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.9949398614036696</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5101022712614719</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.9667021880574344</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1188,13 +2367,40 @@
         <v>0.9791316724690395</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.3274909841994619</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>0.2231279779100235</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G44" t="n">
         <v>0.1326530612244898</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.992838885119835</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.9956186004857638</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.4545412938591608</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.9620265158749708</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1205,13 +2411,40 @@
         <v>0.9796305672324603</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.3238764553084862</v>
       </c>
       <c r="D45" t="n">
+        <v>0.02423919417918069</v>
+      </c>
+      <c r="E45" t="n">
         <v>0.1938818779142668</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G45" t="n">
         <v>0.1224489795918368</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.9933529855242412</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.9961124703837106</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.3796449961608567</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.9586193262337169</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1222,13 +2455,40 @@
         <v>0.9805946663656585</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.3201891860526368</v>
       </c>
       <c r="D46" t="n">
+        <v>0.07257227664762811</v>
+      </c>
+      <c r="E46" t="n">
         <v>0.09936408102462681</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
+        <v>0.7777777777777786</v>
+      </c>
+      <c r="G46" t="n">
         <v>0.1224489795918368</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.9943051626069719</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.9970204284634172</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.2738033829246919</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.9523708961543608</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -1239,13 +2499,40 @@
         <v>0.9843945998170257</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.4530317813711942</v>
       </c>
       <c r="D47" t="n">
+        <v>0.3296438015080906</v>
+      </c>
+      <c r="E47" t="n">
         <v>0.1941138098052432</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
+        <v>0.7777777777777786</v>
+      </c>
+      <c r="G47" t="n">
         <v>0.1224489795918368</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.9934311648963815</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.996201815437484</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.4264502145385787</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.9579696750175393</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1256,13 +2543,40 @@
         <v>0.983870003245287</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.4527830621234436</v>
       </c>
       <c r="D48" t="n">
+        <v>0.3021845924156559</v>
+      </c>
+      <c r="E48" t="n">
         <v>0.2289446363846896</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
+        <v>0.8055555555555571</v>
+      </c>
+      <c r="G48" t="n">
         <v>0.1122448979591836</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.9929321502778551</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.9957376456764939</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.4361074937639563</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.9611364394003525</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1273,13 +2587,40 @@
         <v>0.9848447660755839</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.4525330837835393</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>0.3525452451744468</v>
       </c>
       <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.8333333333333321</v>
+      </c>
+      <c r="G49" t="n">
         <v>0.1122448979591836</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.9938414071987924</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.996604804246823</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.3291286649421136</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.9551682272165031</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1290,13 +2631,40 @@
         <v>0.9800054488638511</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>0.3408446204761645</v>
       </c>
       <c r="D50" t="n">
+        <v>0.1103572624238841</v>
+      </c>
+      <c r="E50" t="n">
         <v>0.5024655083563038</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
+        <v>0.8333333333333321</v>
+      </c>
+      <c r="G50" t="n">
         <v>0.1020408163265306</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.9910493562162558</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.9960715026838302</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.3582333302100829</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.9607309983917958</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1307,13 +2675,40 @@
         <v>0.9807368053786191</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.3381112139445135</v>
       </c>
       <c r="D51" t="n">
+        <v>0.1467680295387308</v>
+      </c>
+      <c r="E51" t="n">
         <v>0.182009486044292</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
+        <v>0.8333333333333321</v>
+      </c>
+      <c r="G51" t="n">
         <v>0.1020408163265306</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.9917810264010463</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.9967600435157286</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.317139331932879</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.9559797406527168</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1324,13 +2719,40 @@
         <v>0.978669148948484</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.3353280213817459</v>
       </c>
       <c r="D52" t="n">
+        <v>0.03788619954849037</v>
+      </c>
+      <c r="E52" t="n">
         <v>0.1721046155790258</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
+        <v>0.8333333333333321</v>
+      </c>
+      <c r="G52" t="n">
         <v>0.0918367346938776</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.9898847082606974</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.9949640660299924</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.527342817213182</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.9682764402574415</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1341,13 +2763,40 @@
         <v>0.985533070314067</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.5855353292376632</v>
       </c>
       <c r="D53" t="n">
+        <v>0.3362195398965751</v>
+      </c>
+      <c r="E53" t="n">
         <v>0.1333116499696602</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
+        <v>0.8055555555555571</v>
+      </c>
+      <c r="G53" t="n">
         <v>0.0918367346938776</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.9892457012389501</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.9943567852287999</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5600276253743403</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.9724172516696103</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1358,13 +2807,40 @@
         <v>0.9867799303260258</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.5854270571141934</v>
       </c>
       <c r="D54" t="n">
+        <v>0.4006963600968659</v>
+      </c>
+      <c r="E54" t="n">
         <v>0.1636590902405644</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
+        <v>0.7777777777777786</v>
+      </c>
+      <c r="G54" t="n">
         <v>0.0918367346938776</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.990419868443101</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.9954637230727743</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.4911291353516724</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.9647954030113071</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1375,13 +2851,40 @@
         <v>0.9864865020608871</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.5853190095846447</v>
       </c>
       <c r="D55" t="n">
+        <v>0.3852395055008203</v>
+      </c>
+      <c r="E55" t="n">
         <v>0.2424267442905529</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G55" t="n">
         <v>0.1020408163265306</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.9901474176219239</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.9952030253622076</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5104932049111612</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.9665581937920824</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1392,13 +2895,40 @@
         <v>0.9846847860887079</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.5181123165673005</v>
       </c>
       <c r="D56" t="n">
+        <v>0.3063440074304508</v>
+      </c>
+      <c r="E56" t="n">
         <v>0.2061619296316844</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G56" t="n">
         <v>0.1020408163265306</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.9911098313446102</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.9961098042602488</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.3560972505717873</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.9603096985690595</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1409,13 +2939,40 @@
         <v>0.9839373204826558</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.5172975460059123</v>
       </c>
       <c r="D57" t="n">
+        <v>0.2664866521009808</v>
+      </c>
+      <c r="E57" t="n">
         <v>0.1912967755304703</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
+        <v>0.7222222222222214</v>
+      </c>
+      <c r="G57" t="n">
         <v>0.1020408163265306</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.9904088752920767</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.9954440264113961</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.4669182200412889</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.9648524551104239</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1426,13 +2983,40 @@
         <v>0.983772330092971</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.5164791919897075</v>
       </c>
       <c r="D58" t="n">
+        <v>0.2568543092288174</v>
+      </c>
+      <c r="E58" t="n">
         <v>0.07701241261950299</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
+        <v>0.7222222222222214</v>
+      </c>
+      <c r="G58" t="n">
         <v>0.1122448979591836</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.9902549728845342</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.995295458296656</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5033182562553414</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.9658462222735239</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1443,13 +3027,40 @@
         <v>0.9849553939282732</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.5530754029076816</v>
       </c>
       <c r="D59" t="n">
+        <v>0.3017477329975792</v>
+      </c>
+      <c r="E59" t="n">
         <v>0.2030419430851083</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
+        <v>0.7222222222222214</v>
+      </c>
+      <c r="G59" t="n">
         <v>0.1122448979591836</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.9899476051219197</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.9950018187707194</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.4901319569909405</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.9678357228058145</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1460,13 +3071,40 @@
         <v>0.9862116891924378</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.5526654261622547</v>
       </c>
       <c r="D60" t="n">
+        <v>0.3662519266207481</v>
+      </c>
+      <c r="E60" t="n">
         <v>0.08783131324587931</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
+        <v>0.7222222222222214</v>
+      </c>
+      <c r="G60" t="n">
         <v>0.1224489795918368</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.9911269261291829</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.996113734344801</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.4353786391004341</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.9601796615295174</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1477,13 +3115,40 @@
         <v>0.9852210860693436</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.5522550630191829</v>
       </c>
       <c r="D61" t="n">
+        <v>0.314155545751383</v>
+      </c>
+      <c r="E61" t="n">
         <v>0.3620793668103336</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
+        <v>0.7222222222222214</v>
+      </c>
+      <c r="G61" t="n">
         <v>0.1224489795918368</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.9901960184806085</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.9952306247078969</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.4986856164755484</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.9662146507041421</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1494,13 +3159,40 @@
         <v>0.9819968628457829</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3084369894737599</v>
+        <v>0.5334042018644561</v>
       </c>
       <c r="D62" t="n">
+        <v>0.1614873529451852</v>
+      </c>
+      <c r="E62" t="n">
         <v>0.28546590526097</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
+        <v>0.6944444444444464</v>
+      </c>
+      <c r="G62" t="n">
         <v>0.1224489795918368</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.9891448451977175</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.994917419073345</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5700337409100718</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.9741675116419231</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1511,13 +3203,40 @@
         <v>0.9834944113979135</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.5320708018071886</v>
       </c>
       <c r="D63" t="n">
+        <v>0.2378893016871279</v>
+      </c>
+      <c r="E63" t="n">
         <v>0.199509331069648</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
+        <v>0.7222222222222214</v>
+      </c>
+      <c r="G63" t="n">
         <v>0.1122448979591836</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.9905534678599857</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.9962412431464301</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.454856946818932</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.9650207628940169</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1528,13 +3247,40 @@
         <v>0.9849263183920567</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.5307334052996234</v>
       </c>
       <c r="D64" t="n">
+        <v>0.31087309298294</v>
+      </c>
+      <c r="E64" t="n">
         <v>0.1667577162142057</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G64" t="n">
         <v>0.1122448979591836</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.9919004598512414</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.9975068669156322</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.3578150554331625</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.9562735189784204</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1545,13 +3291,40 @@
         <v>0.9790903032320527</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.3602470634538666</v>
       </c>
       <c r="D65" t="n">
+        <v>0.0273758595900479</v>
+      </c>
+      <c r="E65" t="n">
         <v>0.1119513375659853</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
+        <v>0.7777777777777786</v>
+      </c>
+      <c r="G65" t="n">
         <v>0.1122448979591836</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.9901240296140797</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.9958196229294513</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.4379823293781138</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.967792310613265</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1562,13 +3335,40 @@
         <v>0.9807531196940311</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.3569523607374294</v>
       </c>
       <c r="D66" t="n">
+        <v>0.1114326836318523</v>
+      </c>
+      <c r="E66" t="n">
         <v>0.1609213430334908</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
+        <v>0.7777777777777786</v>
+      </c>
+      <c r="G66" t="n">
         <v>0.1020408163265306</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.9917263212067557</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.9973267402039513</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.3433451879440547</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.9573885046215503</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1579,13 +3379,40 @@
         <v>0.979855232401758</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.353598402632922</v>
       </c>
       <c r="D67" t="n">
+        <v>0.06256824348498724</v>
+      </c>
+      <c r="E67" t="n">
         <v>0.2578963331476465</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
+        <v>0.8055555555555571</v>
+      </c>
+      <c r="G67" t="n">
         <v>0.1020408163265306</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.9909243471410151</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.9965608901990765</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.410549347079741</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.9625847141759466</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1596,13 +3423,40 @@
         <v>0.9892289329454397</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.6192958688975804</v>
       </c>
       <c r="D68" t="n">
+        <v>0.4896994117623186</v>
+      </c>
+      <c r="E68" t="n">
         <v>0.2116314859342348</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
+        <v>0.8055555555555571</v>
+      </c>
+      <c r="G68" t="n">
         <v>0.1020408163265306</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.9913756523427665</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.996979972938963</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.3952852113377378</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.9596490326494385</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -1613,13 +3467,40 @@
         <v>0.9877583527960216</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.6192165196243385</v>
       </c>
       <c r="D69" t="n">
+        <v>0.4137927169312083</v>
+      </c>
+      <c r="E69" t="n">
         <v>0.1932462802737174</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
+        <v>0.8055555555555571</v>
+      </c>
+      <c r="G69" t="n">
         <v>0.0918367346938776</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.9900080979367408</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.9956795391954059</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5609150233935125</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.9685152302080455</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1630,13 +3511,40 @@
         <v>0.9867957877229482</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.6191374140238152</v>
       </c>
       <c r="D70" t="n">
+        <v>0.3642384169194046</v>
+      </c>
+      <c r="E70" t="n">
         <v>0.05560288825469817</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
+        <v>0.8055555555555571</v>
+      </c>
+      <c r="G70" t="n">
         <v>0.0918367346938776</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.9891175230787891</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.9948301099979744</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.6199503001817661</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.9742869427779088</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -1647,13 +3555,40 @@
         <v>0.9869069363253277</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.6693985555386455</v>
       </c>
       <c r="D71" t="n">
+        <v>0.3248246687542496</v>
+      </c>
+      <c r="E71" t="n">
         <v>0.1779638217557723</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
+        <v>0.7777777777777786</v>
+      </c>
+      <c r="G71" t="n">
         <v>0.08163265306122447</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.9905847454702312</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.9962098413129207</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.4163665091399184</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.9647592257847142</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1664,13 +3599,40 @@
         <v>0.9867747974036607</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.6678693377403031</v>
       </c>
       <c r="D72" t="n">
+        <v>0.3174839323416665</v>
+      </c>
+      <c r="E72" t="n">
         <v>0.2563357490960501</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
+        <v>0.7777777777777786</v>
+      </c>
+      <c r="G72" t="n">
         <v>0.08163265306122447</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.990463967209353</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.996088311073662</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5054531287823583</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.9655357433002423</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -1681,13 +3643,40 @@
         <v>0.9869135225989926</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.6663551761134374</v>
       </c>
       <c r="D73" t="n">
+        <v>0.3241966519993099</v>
+      </c>
+      <c r="E73" t="n">
         <v>0.2421537829057862</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G73" t="n">
         <v>0.07142857142857145</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.9905975573373216</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.9962073241703403</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.4790655403947179</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.9646616633608113</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -1698,13 +3687,40 @@
         <v>0.992543616075001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.534001791714672</v>
+        <v>0.7369433751108607</v>
       </c>
       <c r="D74" t="n">
+        <v>0.4685122402308571</v>
+      </c>
+      <c r="E74" t="n">
         <v>0.3035569137741946</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G74" t="n">
         <v>0.07142857142857145</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.9905094462094721</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.9956329972898289</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5579617292651852</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.9735329438710333</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1715,13 +3731,40 @@
         <v>0.9931998419472217</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.7363921559331933</v>
       </c>
       <c r="D75" t="n">
+        <v>0.5075882677796424</v>
+      </c>
+      <c r="E75" t="n">
         <v>0.1759219407791629</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
+        <v>0.7777777777777786</v>
+      </c>
+      <c r="G75" t="n">
         <v>0.06122448979591832</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.9912250796078957</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.99630179794689</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5115782435314746</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.9688438384149842</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -1732,13 +3775,40 @@
         <v>0.9938021981007593</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.7358445810167794</v>
       </c>
       <c r="D76" t="n">
+        <v>0.5437303954333794</v>
+      </c>
+      <c r="E76" t="n">
         <v>0.1486325191755399</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
+        <v>0.8055555555555571</v>
+      </c>
+      <c r="G76" t="n">
         <v>0.05102040816326531</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.991887490373528</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.9969203761276327</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.4066752155894716</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.9645001110870208</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -1749,13 +3819,40 @@
         <v>0.9879658364809663</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.7272870913865418</v>
       </c>
       <c r="D77" t="n">
+        <v>0.4901145565380111</v>
+      </c>
+      <c r="E77" t="n">
         <v>0.1084667386271587</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
+        <v>0.8333333333333321</v>
+      </c>
+      <c r="G77" t="n">
         <v>0.04081632653061223</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.9915285456040249</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.996573441398298</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.4864555798421895</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.9667848214319522</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1766,13 +3863,40 @@
         <v>0.9879918369403023</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.7266563301829215</v>
       </c>
       <c r="D78" t="n">
+        <v>0.4915090898633362</v>
+      </c>
+      <c r="E78" t="n">
         <v>0.1461224100059623</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
+        <v>0.8333333333333321</v>
+      </c>
+      <c r="G78" t="n">
         <v>0.03061224489795916</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.9915600034559395</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.9965956919989744</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.4990037387758953</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.9665362728472044</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -1783,13 +3907,40 @@
         <v>0.9884942272665626</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.7260309143961947</v>
       </c>
       <c r="D79" t="n">
+        <v>0.5176230247554547</v>
+      </c>
+      <c r="E79" t="n">
         <v>0.2703185753057266</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
+        <v>0.8055555555555571</v>
+      </c>
+      <c r="G79" t="n">
         <v>0.02040816326530615</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.992038791397809</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.9970409462329018</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.443536424040789</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.9633848452105244</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -1800,13 +3951,40 @@
         <v>0.9914705560562737</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.7385511105273481</v>
       </c>
       <c r="D80" t="n">
+        <v>0.6715765856598916</v>
+      </c>
+      <c r="E80" t="n">
         <v>0.2201569822221378</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G80" t="n">
         <v>0.02040816326530615</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.9921759661331585</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.997163322805534</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.4183183667114636</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.9624506699879065</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1817,13 +3995,40 @@
         <v>0.9915145762654344</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.7378615405171858</v>
       </c>
       <c r="D81" t="n">
+        <v>0.6749325242555064</v>
+      </c>
+      <c r="E81" t="n">
         <v>0.190111297317996</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
+        <v>0.7222222222222214</v>
+      </c>
+      <c r="G81" t="n">
         <v>0.01020408163265307</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.9922591581221739</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.9972347508788905</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.4596972479140294</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.9618671054426999</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -1834,13 +4039,40 @@
         <v>0.9905075635050309</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.7371779310984181</v>
       </c>
       <c r="D82" t="n">
+        <v>0.6237122916079345</v>
+      </c>
+      <c r="E82" t="n">
         <v>0.06709996294566081</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
+        <v>0.6666666666666679</v>
+      </c>
+      <c r="G82" t="n">
         <v>0.01020408163265307</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.9913544566804098</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.9963722960636942</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.4715287686595205</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.9676953519512914</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -1851,12 +4083,39 @@
         <v>0.9876267899259759</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.6012889636697369</v>
       </c>
       <c r="D83" t="n">
+        <v>0.4805115584337928</v>
+      </c>
+      <c r="E83" t="n">
         <v>0.1835325960344964</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
+        <v>0.6666666666666679</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.9916475624336274</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0.9966423513752435</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.4961603152117828</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.9657500705502127</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1868,13 +4127,40 @@
         <v>0.9885084779671974</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.6012641887514192</v>
       </c>
       <c r="D84" t="n">
+        <v>0.5261511664369597</v>
+      </c>
+      <c r="E84" t="n">
         <v>0.2375383475831889</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
+        <v>0.6944444444444464</v>
+      </c>
+      <c r="G84" t="n">
         <v>0.01020408163265307</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.9924788596879177</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0.9974213041032921</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.3415997683456339</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.9603119476597124</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -1885,13 +4171,40 @@
         <v>0.9886434533918657</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.6012394187445679</v>
       </c>
       <c r="D85" t="n">
+        <v>0.5330401319047449</v>
+      </c>
+      <c r="E85" t="n">
         <v>0.2547311380657802</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
+        <v>0.7222222222222214</v>
+      </c>
+      <c r="G85" t="n">
         <v>0.01020408163265307</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.9926088281582508</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0.9975372921107752</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.3600564217250121</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.9594258489978714</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -1902,13 +4215,40 @@
         <v>0.9903792324956118</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8287920985253894</v>
+        <v>0.6666748350242442</v>
       </c>
       <c r="D86" t="n">
+        <v>0.6015679281944086</v>
+      </c>
+      <c r="E86" t="n">
         <v>0.2852507283117881</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G86" t="n">
         <v>0.01020408163265307</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.9922704360750971</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0.9968426081264707</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.3647174717258458</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.9580397579119233</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1919,13 +4259,40 @@
         <v>0.9891988879818086</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.6664191037774949</v>
       </c>
       <c r="D87" t="n">
+        <v>0.5408641322246017</v>
+      </c>
+      <c r="E87" t="n">
         <v>0.2024863462074954</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G87" t="n">
         <v>0.01020408163265307</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.9911820636832461</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0.9958109021182506</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.5038792710841919</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.9650809838276905</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -1936,13 +4303,40 @@
         <v>0.9883700581039625</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.6661646978127628</v>
       </c>
       <c r="D88" t="n">
+        <v>0.4983903631276315</v>
+      </c>
+      <c r="E88" t="n">
         <v>0.1416088028296189</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
+        <v>0.7777777777777786</v>
+      </c>
+      <c r="G88" t="n">
         <v>0.01020408163265307</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.9904235580151017</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0.9950910794673994</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5913563343395413</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.9699815938231239</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -1953,13 +4347,40 @@
         <v>0.9888986661245849</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.7347582040571872</v>
       </c>
       <c r="D89" t="n">
+        <v>0.4184300303525088</v>
+      </c>
+      <c r="E89" t="n">
         <v>0.1066409000152493</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
+        <v>0.7777777777777786</v>
+      </c>
+      <c r="G89" t="n">
         <v>0.01020408163265307</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.9901892492495673</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0.9948668618392112</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5446092017417534</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.9714802479258705</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -1970,13 +4391,40 @@
         <v>0.9905040367523033</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.7340982596941041</v>
       </c>
       <c r="D90" t="n">
+        <v>0.5031096401896233</v>
+      </c>
+      <c r="E90" t="n">
         <v>0.1585289012986802</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
+        <v>0.7777777777777786</v>
+      </c>
+      <c r="G90" t="n">
         <v>0.02040816326530615</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.9917260919307699</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0.9963171368707272</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.4097728513891348</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.9614828871109893</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -1987,13 +4435,40 @@
         <v>0.9904514017150735</v>
       </c>
       <c r="C91" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.7334439592174847</v>
       </c>
       <c r="D91" t="n">
+        <v>0.5017093600456553</v>
+      </c>
+      <c r="E91" t="n">
         <v>0.2691484002225217</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G91" t="n">
         <v>0.02040816326530615</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.9917053311413252</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.9962948540887578</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.38649153885636</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.9615954132079207</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2004,13 +4479,40 @@
         <v>0.9892597857944893</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.6680205078549155</v>
       </c>
       <c r="D92" t="n">
+        <v>0.4488730425922074</v>
+      </c>
+      <c r="E92" t="n">
         <v>0.2364581903823663</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G92" t="n">
         <v>0.03061224489795916</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.9912322907058266</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0.9958450018582522</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.4792752537025191</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.9646437228756978</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2021,13 +4523,40 @@
         <v>0.9899923489028822</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.6677353924649692</v>
       </c>
       <c r="D93" t="n">
+        <v>0.4877942002504018</v>
+      </c>
+      <c r="E93" t="n">
         <v>0.1937291818975568</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
+        <v>0.7222222222222214</v>
+      </c>
+      <c r="G93" t="n">
         <v>0.03061224489795916</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.9919401683436824</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0.9965116262930758</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.4312301472581591</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.9600269790545484</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2038,13 +4567,40 @@
         <v>0.9897368011133344</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.6674519254623325</v>
       </c>
       <c r="D94" t="n">
+        <v>0.4754126576232287</v>
+      </c>
+      <c r="E94" t="n">
         <v>0.06795346020950424</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
+        <v>0.6666666666666679</v>
+      </c>
+      <c r="G94" t="n">
         <v>0.03061224489795916</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.9917197724519455</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0.9963006699302519</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.4565441355295847</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.9614356136961584</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2055,13 +4611,40 @@
         <v>0.9863785169232928</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.5343315327297281</v>
       </c>
       <c r="D95" t="n">
+        <v>0.4140383076713465</v>
+      </c>
+      <c r="E95" t="n">
         <v>0.2001363571662454</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
+        <v>0.6388888888888893</v>
+      </c>
+      <c r="G95" t="n">
         <v>0.03061224489795916</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.9908906373045971</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0.9955142249972625</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5099701165816628</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.9667957063588241</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2072,13 +4655,40 @@
         <v>0.9874359132063417</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.5343001291656354</v>
       </c>
       <c r="D96" t="n">
+        <v>0.4687494111913365</v>
+      </c>
+      <c r="E96" t="n">
         <v>0.2487013571981198</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
+        <v>0.5833333333333357</v>
+      </c>
+      <c r="G96" t="n">
         <v>0.02040816326530615</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.9918839162738748</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0.9964507336835959</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.4682875810744797</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.9603266245918292</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2089,13 +4699,40 @@
         <v>0.9860570684112078</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.5342686837350828</v>
       </c>
       <c r="D97" t="n">
+        <v>0.3969978549038327</v>
+      </c>
+      <c r="E97" t="n">
         <v>0.2340362516483831</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
+        <v>0.5277777777777786</v>
+      </c>
+      <c r="G97" t="n">
         <v>0.02040816326530615</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.990589126860039</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0.9952240948604429</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.4666626050633214</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.9687096497014823</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2106,13 +4743,40 @@
         <v>0.9801097718689453</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8917086735980018</v>
+        <v>0.4259359117975411</v>
       </c>
       <c r="D98" t="n">
+        <v>0.3445734784464395</v>
+      </c>
+      <c r="E98" t="n">
         <v>0.2571979800799694</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
+        <v>0.472222222222225</v>
+      </c>
+      <c r="G98" t="n">
         <v>0.02040816326530615</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.9905520451557872</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0.9913241710503026</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.4562957516250217</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.9664542322535288</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2123,13 +4787,40 @@
         <v>0.9805877565744382</v>
       </c>
       <c r="C99" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.4256492476376293</v>
       </c>
       <c r="D99" t="n">
+        <v>0.3703709222954801</v>
+      </c>
+      <c r="E99" t="n">
         <v>0.2094109687659182</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
+        <v>0.3888888888888893</v>
+      </c>
+      <c r="G99" t="n">
         <v>0.02040816326530615</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.991029639220958</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0.9917681968426272</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.439059555797408</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.9633423732977117</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="100">
@@ -2140,13 +4831,40 @@
         <v>0.9828625410096268</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.4253614689909087</v>
       </c>
       <c r="D100" t="n">
+        <v>0.4894671983190405</v>
+      </c>
+      <c r="E100" t="n">
         <v>0.1532717866473737</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
+        <v>0.5555555555555571</v>
+      </c>
+      <c r="G100" t="n">
         <v>0.1530612244897959</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.9931951815674863</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.9938079497767309</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.2262743642876197</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.9492734477251853</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -2157,13 +4875,40 @@
         <v>0.9755064648775628</v>
       </c>
       <c r="C101" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.04663306097270681</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
       </c>
       <c r="E101" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
         <v>0.9795918367346937</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.9951933831147033</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0.9956894132276516</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.9362916290410209</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.46875</v>
       </c>
     </row>
     <row r="102">
@@ -2174,13 +4919,40 @@
         <v>0.9708248839507264</v>
       </c>
       <c r="C102" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.02386427402236257</v>
       </c>
       <c r="D102" t="n">
+        <v>0.7694340676021567</v>
+      </c>
+      <c r="E102" t="n">
         <v>0.2408814718789307</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
+        <v>0.8055555555555571</v>
+      </c>
+      <c r="G102" t="n">
         <v>0.9999999999999999</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.9910781315092519</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0.9917910788431171</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.3522132825430839</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.9629923664167638</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2191,13 +4963,40 @@
         <v>0.9687869021347275</v>
       </c>
       <c r="C103" t="n">
-        <v>0.5640021604148648</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
+        <v>0.676814185847895</v>
+      </c>
+      <c r="E103" t="n">
         <v>0.1507139883037646</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="n">
         <v>0.9387755102040815</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.9894579523828488</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.9902515337667627</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.6138188260274466</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.9734976021779451</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.28125</v>
       </c>
     </row>
     <row r="104">
@@ -2208,13 +5007,40 @@
         <v>0.9999196727385774</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.9938323183452991</v>
       </c>
       <c r="D104" t="n">
+        <v>0.1792140009385367</v>
+      </c>
+      <c r="E104" t="n">
         <v>0.1585598370021853</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
+        <v>0.3055555555555571</v>
+      </c>
+      <c r="G104" t="n">
         <v>0.4285714285714286</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.9898541861236648</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0.9906182433956492</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.6223428498919439</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.9709144307873941</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="105">
@@ -2225,13 +5051,40 @@
         <v>0.9994894042708684</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.9807679975323617</v>
       </c>
       <c r="D105" t="n">
+        <v>0.1736392952770113</v>
+      </c>
+      <c r="E105" t="n">
         <v>0.1162311084911514</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
+        <v>0.5000000000000036</v>
+      </c>
+      <c r="G105" t="n">
         <v>0.4081632653061225</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.9897825399414297</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0.9905425331691005</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.568632768710604</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.9713683439790582</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="106">
@@ -2242,13 +5095,40 @@
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.9681659571633314</v>
       </c>
       <c r="D106" t="n">
+        <v>0.2160872206592162</v>
+      </c>
+      <c r="E106" t="n">
         <v>0.1444442940536693</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
+        <v>0.6944444444444464</v>
+      </c>
+      <c r="G106" t="n">
         <v>0.4183673469387754</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.990579844389242</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0.9912882543494577</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.4905468607131919</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.9661813748160424</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.46875</v>
       </c>
     </row>
     <row r="107">
@@ -2259,13 +5139,40 @@
         <v>0.9868658388129047</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.774768704163674</v>
       </c>
       <c r="D107" t="n">
+        <v>0.2925901950006028</v>
+      </c>
+      <c r="E107" t="n">
         <v>0.00218451720168622</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
+        <v>0.3888888888888893</v>
+      </c>
+      <c r="G107" t="n">
         <v>0.1836734693877551</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.991546522118515</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0.9921940185415947</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.4091997879257664</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.9598946761274347</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.40625</v>
       </c>
     </row>
     <row r="108">
@@ -2276,13 +5183,40 @@
         <v>0.986969335937297</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.7694859926116039</v>
       </c>
       <c r="D108" t="n">
+        <v>0.2965644073463382</v>
+      </c>
+      <c r="E108" t="n">
         <v>0.08643541386793691</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
+        <v>0.472222222222225</v>
+      </c>
+      <c r="G108" t="n">
         <v>0.1938775510204082</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.9916432491531306</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0.992277238373671</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.4466437111373774</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.9592553680439437</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="109">
@@ -2293,13 +5227,40 @@
         <v>0.9841016965130822</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.7643035502324046</v>
       </c>
       <c r="D109" t="n">
+        <v>0.1462859219780156</v>
+      </c>
+      <c r="E109" t="n">
         <v>0.1716335189442063</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
+        <v>0.5277777777777786</v>
+      </c>
+      <c r="G109" t="n">
         <v>0.2142857142857142</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.9889495418148658</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0.9897222727444069</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.5321018246348093</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.9767310302830582</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="110">
@@ -2310,13 +5271,40 @@
         <v>0.9868753640885087</v>
       </c>
       <c r="C110" t="n">
-        <v>0.5201431957128754</v>
+        <v>0.6640043546815138</v>
       </c>
       <c r="D110" t="n">
+        <v>0.4943194177947753</v>
+      </c>
+      <c r="E110" t="n">
         <v>0.2435985502952302</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
+        <v>0.5833333333333357</v>
+      </c>
+      <c r="G110" t="n">
         <v>0.2244897959183674</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.999883377432686</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.9986513641123358</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.4943928131909315</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.9747526090468045</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="111">
@@ -2327,13 +5315,40 @@
         <v>0.9872037742044296</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.6619418584070961</v>
       </c>
       <c r="D111" t="n">
+        <v>0.5069730319492753</v>
+      </c>
+      <c r="E111" t="n">
         <v>0.1801318850497206</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
+        <v>0.6388888888888893</v>
+      </c>
+      <c r="G111" t="n">
         <v>0.2244897959183674</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.9988963173467647</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.5855552089591999</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.9726478689356843</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="112">
@@ -2344,13 +5359,40 @@
         <v>0.9854174962007595</v>
       </c>
       <c r="C112" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.6598991479446304</v>
       </c>
       <c r="D112" t="n">
+        <v>0.409932680525375</v>
+      </c>
+      <c r="E112" t="n">
         <v>0.1381728817836715</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
+        <v>0.6944444444444464</v>
+      </c>
+      <c r="G112" t="n">
         <v>0.2346938775510203</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.9981376246037447</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0.9972646886707803</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.6801679785195373</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.9834387148438586</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="113">
@@ -2361,13 +5403,40 @@
         <v>0.9874955598235285</v>
       </c>
       <c r="C113" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.630675629642903</v>
       </c>
       <c r="D113" t="n">
+        <v>0.4932495113446513</v>
+      </c>
+      <c r="E113" t="n">
         <v>0.1693003014201584</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
+        <v>0.7222222222222214</v>
+      </c>
+      <c r="G113" t="n">
         <v>0.2346938775510203</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.9983343921319349</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.9975744668122967</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.681290936005489</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.9809057856832755</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="114">
@@ -2378,13 +5447,40 @@
         <v>0.9876281056145754</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.6299414480660334</v>
       </c>
       <c r="D114" t="n">
+        <v>0.4974790282691405</v>
+      </c>
+      <c r="E114" t="n">
         <v>0.2444416730482688</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
+        <v>0.7222222222222214</v>
+      </c>
+      <c r="G114" t="n">
         <v>0.2244897959183674</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.9983063332134289</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0.9976666703866399</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.7097890436050871</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.979874732390936</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.46875</v>
       </c>
     </row>
     <row r="115">
@@ -2395,13 +5491,40 @@
         <v>0.9872636730484941</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.6292119950002237</v>
       </c>
       <c r="D115" t="n">
+        <v>0.4759736124340804</v>
+      </c>
+      <c r="E115" t="n">
         <v>0.2151951808131157</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
+        <v>0.7222222222222214</v>
+      </c>
+      <c r="G115" t="n">
         <v>0.2244897959183674</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.9978172199002874</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0.9973182465211856</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.7918698206865462</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.9818776518647443</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.40625</v>
       </c>
     </row>
     <row r="116">
@@ -2412,13 +5535,40 @@
         <v>0.986330727725761</v>
       </c>
       <c r="C116" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.4915445056926038</v>
       </c>
       <c r="D116" t="n">
+        <v>0.527519107310253</v>
+      </c>
+      <c r="E116" t="n">
         <v>0.1151404357484768</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
+        <v>0.6666666666666679</v>
+      </c>
+      <c r="G116" t="n">
         <v>0.2040816326530612</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.9982805562897394</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.9978657710983969</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.5933676549433829</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.9777341744656977</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="117">
@@ -2429,13 +5579,40 @@
         <v>0.9867423797388569</v>
       </c>
       <c r="C117" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.4914607228717047</v>
       </c>
       <c r="D117" t="n">
+        <v>0.5455384066374819</v>
+      </c>
+      <c r="E117" t="n">
         <v>0.06056612726790031</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
+        <v>0.6388888888888893</v>
+      </c>
+      <c r="G117" t="n">
         <v>0.1836734693877551</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.9985132077696616</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.998190949535112</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.5369842896455852</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.9751247411652975</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="118">
@@ -2446,13 +5623,40 @@
         <v>0.9872906244443604</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.4913767579853627</v>
       </c>
       <c r="D118" t="n">
+        <v>0.5707291801080727</v>
+      </c>
+      <c r="E118" t="n">
         <v>0.05426815117884229</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
+        <v>0.5833333333333357</v>
+      </c>
+      <c r="G118" t="n">
         <v>0.1530612244897959</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.9988793505479572</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.9986382940255928</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.5733056891296506</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.9716828912948247</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="119">
@@ -2463,13 +5667,40 @@
         <v>0.9888171566704793</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.5452775257263159</v>
       </c>
       <c r="D119" t="n">
+        <v>0.4948267993131853</v>
+      </c>
+      <c r="E119" t="n">
         <v>0.1329174136830875</v>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
+        <v>0.5555555555555571</v>
+      </c>
+      <c r="G119" t="n">
         <v>0.1428571428571429</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.9970350358515092</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.9969920722320874</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.7869501147721993</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.9826292188753706</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.46875</v>
       </c>
     </row>
     <row r="120">
@@ -2480,13 +5711,40 @@
         <v>0.988484777855012</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.5452413395378453</v>
       </c>
       <c r="D120" t="n">
+        <v>0.4769765427663835</v>
+      </c>
+      <c r="E120" t="n">
         <v>0.1821109916283447</v>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
+        <v>0.5277777777777786</v>
+      </c>
+      <c r="G120" t="n">
         <v>0.1326530612244898</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.9966285973100717</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.9967015753752547</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.7086646182002438</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.9842700119624287</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0.40625</v>
       </c>
     </row>
     <row r="121">
@@ -2497,13 +5755,40 @@
         <v>0.9889112592408951</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5640021604148648</v>
+        <v>0.5452050770040815</v>
       </c>
       <c r="D121" t="n">
+        <v>0.4985450241403642</v>
+      </c>
+      <c r="E121" t="n">
         <v>0.189386441884282</v>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
+        <v>0.5000000000000036</v>
+      </c>
+      <c r="G121" t="n">
         <v>0.1326530612244898</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.9969383976416663</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.9970847510212011</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.6505070675988471</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.981289234280188</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="122">
@@ -2517,10 +5802,37 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
         <v>0.2883173500359431</v>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
+        <v>0.5277777777777786</v>
+      </c>
+      <c r="G122" t="n">
         <v>0.1326530612244898</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.9902539106520558</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.9964259369438542</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.6833060359507753</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.9807111507994541</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0.46875</v>
       </c>
     </row>
     <row r="123">
@@ -2534,10 +5846,37 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
         <v>0.1471493035958689</v>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
+        <v>0.5000000000000036</v>
+      </c>
+      <c r="G123" t="n">
         <v>0.1122448979591836</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.9898222071836812</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.9959931889586032</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.7548506731960245</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.9834275684871278</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0.40625</v>
       </c>
     </row>
     <row r="124">
@@ -2551,10 +5890,37 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
         <v>0.1425809155506272</v>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
+        <v>0.5000000000000036</v>
+      </c>
+      <c r="G124" t="n">
         <v>0.1020408163265306</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.9875141902640059</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0.9937870650186281</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.9618970566512602</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.9983337449731385</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="125">
@@ -2568,10 +5934,37 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
         <v>0.1092707641291604</v>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
+        <v>0.5000000000000036</v>
+      </c>
+      <c r="G125" t="n">
         <v>0.1020408163265306</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.9923324851584757</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0.9983185027072489</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.5362716851339961</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.9669481793166751</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="126">
@@ -2585,10 +5978,37 @@
         <v>0</v>
       </c>
       <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
         <v>0.1444467445445404</v>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
+        <v>0.5000000000000036</v>
+      </c>
+      <c r="G126" t="n">
         <v>0.1020408163265306</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.9896996478526343</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.9958061904429313</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.8373213481418396</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.983965977254543</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="127">
@@ -2602,10 +6022,37 @@
         <v>0</v>
       </c>
       <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
         <v>0.2625678169596494</v>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
+        <v>0.5000000000000036</v>
+      </c>
+      <c r="G127" t="n">
         <v>0.1020408163265306</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.9872187357887117</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.9934379329620697</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="128">
@@ -2619,10 +6066,37 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
         <v>0.2513390108337784</v>
       </c>
-      <c r="E128" t="n">
+      <c r="F128" t="n">
+        <v>0.472222222222225</v>
+      </c>
+      <c r="G128" t="n">
         <v>0.0918367346938776</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.9941836004110548</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.3707296219929684</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.9546659025765803</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0.46875</v>
       </c>
     </row>
     <row r="129">
@@ -2636,10 +6110,37 @@
         <v>0</v>
       </c>
       <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
         <v>0.2122502921668539</v>
       </c>
-      <c r="E129" t="n">
+      <c r="F129" t="n">
+        <v>0.4444444444444464</v>
+      </c>
+      <c r="G129" t="n">
         <v>0.1020408163265306</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.9918364671103895</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0.9977590421638708</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.4356150255383813</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.9698313082519218</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0.40625</v>
       </c>
     </row>
     <row r="130">
@@ -2653,10 +6154,37 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
         <v>0.06359962527673832</v>
       </c>
-      <c r="E130" t="n">
+      <c r="F130" t="n">
+        <v>0.3888888888888893</v>
+      </c>
+      <c r="G130" t="n">
         <v>0.08163265306122447</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.9913333715215715</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0.9972618105330753</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.5617259035703712</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.9730170184310524</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="131">
@@ -2670,10 +6198,37 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
         <v>0.2055531181366165</v>
       </c>
-      <c r="E131" t="n">
-        <v>0</v>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.991105158818096</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0.9970248377038948</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.5863861258720136</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.9744176722955573</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="132">
@@ -2687,10 +6242,37 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
         <v>0.1234152593035975</v>
       </c>
-      <c r="E132" t="n">
-        <v>0</v>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.9929028604773025</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0.9987035136169232</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.4252858022654106</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.9626555518560601</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0.453125</v>
       </c>
     </row>
     <row r="133">
@@ -2708,6 +6290,33 @@
       </c>
       <c r="E133" t="n">
         <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.9931810137701023</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.998945999761645</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.9607671626147806</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0.421875</v>
       </c>
     </row>
   </sheetData>

--- a/covid19_drdfm/data/example-output/DE/df.xlsx
+++ b/covid19_drdfm/data/example-output/DE/df.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N133"/>
+  <dimension ref="A1:S132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,65 +447,90 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>GDP</t>
+          <t>TBill1yr</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>RPFI</t>
+          <t>TBill10yr</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>FixAss</t>
+          <t>Employment1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>UI</t>
+          <t>Employment2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>PartR</t>
+          <t>Cons1</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>UR</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Cons3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Cons5</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>CPIU</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>PCE</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Cases5</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Cases2</t>
+        </is>
+      </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Mask2</t>
+          <t>Deaths5</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>School</t>
+          <t>Deaths2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Cases3</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Deaths3</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Cases4</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Hosp2</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Cases1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Hosp1</t>
         </is>
@@ -513,5809 +538,7730 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.0235042735042735</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.4017857142857143</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.8170711884503437</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.8237297960071758</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8055555555555571</v>
+        <v>0.4156041004800278</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3571428571428571</v>
+        <v>0.4707642066786504</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.4804248097350872</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4967522167341814</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N2" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B3" t="n">
-        <v>0.989159648586503</v>
+        <v>0.02991452991452991</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8870368903842295</v>
+        <v>0.4613095238095237</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4471932674544087</v>
+        <v>0.8135122768330407</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2071409288542583</v>
+        <v>0.8217942005629378</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8055555555555571</v>
+        <v>0.437607597209667</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3571428571428571</v>
+        <v>0.4899504692811167</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9910371302269441</v>
+        <v>0.4783596646895119</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9945606588623457</v>
+        <v>0.4753169610054069</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4804248097350872</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9679389035394174</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N3" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B4" t="n">
-        <v>0.989353583492234</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8845145937112349</v>
+        <v>0.425595238095238</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4584501652580931</v>
+        <v>0.8018882440272991</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1612676183485078</v>
+        <v>0.8158387327196476</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7777777777777786</v>
+        <v>0.4779276880014838</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3571428571428571</v>
+        <v>0.52510365557276</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9912427580972847</v>
+        <v>0.4580164258916395</v>
       </c>
       <c r="I4" t="n">
-        <v>0.994757850036428</v>
+        <v>0.4362124408304384</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4783596646895119</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K4" t="n">
-        <v>0.966573298315848</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N4" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9826550485949707</v>
+        <v>0.02991452991452991</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5654457973933925</v>
+        <v>0.3511904761904762</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1774868925260338</v>
+        <v>0.8182644828456356</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1702882107952488</v>
+        <v>0.8168747967004858</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7777777777777786</v>
+        <v>0.6438112193055241</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3571428571428571</v>
+        <v>0.6697130556704278</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9916219814373808</v>
+        <v>0.2823120937051792</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9951191448972986</v>
+        <v>0.2759848128333319</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4580164258916395</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9640820130383683</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N5" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9843215790839286</v>
+        <v>0.02991452991452991</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5630897431195303</v>
+        <v>0.2976190476190476</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2626546428176496</v>
+        <v>0.8137537407112719</v>
       </c>
       <c r="E6" t="n">
-        <v>0.143498204166694</v>
+        <v>0.8153773111977091</v>
       </c>
       <c r="F6" t="n">
-        <v>0.75</v>
+        <v>0.6012419836026794</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.6326098550490153</v>
       </c>
       <c r="H6" t="n">
-        <v>0.993191114835735</v>
+        <v>0.3408982227867237</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9966054008700973</v>
+        <v>0.316837350964585</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2823120937051792</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9538741718760513</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N6" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9838846665324036</v>
+        <v>0.02991452991452991</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5607341000250929</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2386791743659279</v>
+        <v>0.8032999920192481</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1928673371293272</v>
+        <v>0.8184443536062311</v>
       </c>
       <c r="F7" t="n">
-        <v>0.75</v>
+        <v>0.5421918816470113</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.5811399109503402</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9927848869258775</v>
+        <v>0.3934463727922193</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9962240642938009</v>
+        <v>0.3735877862041102</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3408982227867237</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K7" t="n">
-        <v>0.956476820529933</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N7" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9845255381424882</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4601341012922524</v>
+        <v>0.3154761904761905</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2924535976136655</v>
+        <v>0.8069065484055066</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2296394066073208</v>
+        <v>0.8197213812617881</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7222222222222214</v>
+        <v>0.3378477852604192</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.4030141567913352</v>
       </c>
       <c r="H8" t="n">
-        <v>0.992222498013299</v>
+        <v>0.6527359268372354</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9956950702464941</v>
+        <v>0.5704963034279991</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3934463727922193</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9600922983102562</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N8" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9824632180247876</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4596733618432381</v>
+        <v>0.3273809523809523</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1847091083432237</v>
+        <v>0.834591805387279</v>
       </c>
       <c r="E9" t="n">
-        <v>0.183889511024717</v>
+        <v>0.8199184598513599</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7222222222222214</v>
+        <v>0.3594613486907129</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.421860340537336</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9902832607546517</v>
+        <v>0.6040928049754837</v>
       </c>
       <c r="I9" t="n">
-        <v>0.993864342328051</v>
+        <v>0.5494444501182414</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6527359268372354</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9726370191705382</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N9" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9826808739302509</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4592090492621739</v>
+        <v>0.3363095238095238</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1952422989455949</v>
+        <v>0.8210965500458856</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1267646486151463</v>
+        <v>0.8189585210915629</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6944444444444464</v>
+        <v>0.3639369246069853</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.425766958417023</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9904853112628518</v>
+        <v>0.506728251696605</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9940580382644012</v>
+        <v>0.5449245868322847</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6040928049754837</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9712958398905062</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N10" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9801547502344943</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5143803853408282</v>
+        <v>0.306547619047619</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07548995592854851</v>
+        <v>0.8033629658599835</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2034611691414173</v>
+        <v>0.8191157606636335</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6666666666666679</v>
+        <v>0.612049858865465</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.6420572631689658</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9905249739754982</v>
+        <v>0.3006557725101743</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9940981894174604</v>
+        <v>0.3053631904044893</v>
       </c>
       <c r="J11" t="n">
-        <v>0.506728251696605</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9710078867636006</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N11" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9826380489947694</v>
+        <v>0.0235042735042735</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5118339951259425</v>
+        <v>0.3273809523809523</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2030965754303779</v>
+        <v>0.8068337204551878</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1983930617205458</v>
+        <v>0.8223201170577645</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6388888888888893</v>
+        <v>0.5765913782496199</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.6111524868484562</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9928734652195846</v>
+        <v>0.37413804795302</v>
       </c>
       <c r="I12" t="n">
-        <v>0.99632116217773</v>
+        <v>0.3393635314024407</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3006557725101743</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9557458204525275</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N12" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9822597449233897</v>
+        <v>0.02136752136752136</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5092748911311699</v>
+        <v>0.3839285714285714</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1822415174029525</v>
+        <v>0.8055543580226956</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2259930943678139</v>
+        <v>0.8202058936939317</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6111111111111143</v>
+        <v>0.4613447094495949</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.5005394278203452</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9925347347558038</v>
+        <v>0.4730736920152049</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9960035313158128</v>
+        <v>0.4766357901129943</v>
       </c>
       <c r="J13" t="n">
-        <v>0.37413804795302</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9579119267895568</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N13" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9822468201428536</v>
+        <v>0.0235042735042735</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5017893922242006</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1590693510121803</v>
+        <v>0.8095017709632395</v>
       </c>
       <c r="E14" t="n">
-        <v>0.240726531932876</v>
+        <v>0.8238479088897778</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5555555555555571</v>
+        <v>0.3431516187361816</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3673469387755102</v>
+        <v>0.3975559331090244</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9906787784715181</v>
+        <v>0.6349860070635606</v>
       </c>
       <c r="I14" t="n">
-        <v>0.994866680464215</v>
+        <v>0.5903560713844669</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4730736920152049</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9666573187698657</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N14" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9810480331886041</v>
+        <v>0.02136752136752136</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4992443734418925</v>
+        <v>0.3988095238095238</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09453213389003146</v>
+        <v>0.805262264353838</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2031176278118857</v>
+        <v>0.8183347319329395</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5277777777777786</v>
+        <v>0.6819073293852534</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3571428571428571</v>
+        <v>0.6929038576530653</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9895593816913678</v>
+        <v>0.2471689513070562</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9938082441937443</v>
+        <v>0.2632377374361727</v>
       </c>
       <c r="J15" t="n">
-        <v>0.6349860070635606</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9739022526346681</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N15" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9844599366241474</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4966835068304062</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2691074780412258</v>
+        <v>0.8185903306715626</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1635700330754534</v>
+        <v>0.8200477520852829</v>
       </c>
       <c r="F16" t="n">
-        <v>0.472222222222225</v>
+        <v>0.645203550874092</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3571428571428571</v>
+        <v>0.6609556957712972</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9927702232864123</v>
+        <v>0.2813645162752761</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9968437496077134</v>
+        <v>0.2983423793122137</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2471689513070562</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K16" t="n">
-        <v>0.953062076468007</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N16" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9869696098326864</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C17" t="n">
-        <v>0.607880149416358</v>
+        <v>0.3898809523809523</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5026175756344368</v>
+        <v>0.815943793632123</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1482391264777695</v>
+        <v>0.8211815955429621</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4444444444444464</v>
+        <v>0.5469267603250632</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3469387755102041</v>
+        <v>0.5753327685207439</v>
       </c>
       <c r="H17" t="n">
-        <v>0.992423047133269</v>
+        <v>0.3993518297214528</v>
       </c>
       <c r="I17" t="n">
-        <v>0.996515395113575</v>
+        <v>0.3928492394475876</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2813645162752761</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9552985360150279</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N17" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9859810000319812</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C18" t="n">
-        <v>0.607669296216901</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4507359334287874</v>
+        <v>0.8112013334931283</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1577498999166021</v>
+        <v>0.8196578374857798</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4166666666666679</v>
+        <v>0.444125327946482</v>
       </c>
       <c r="G18" t="n">
-        <v>0.336734693877551</v>
+        <v>0.4857653253966053</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9914923734806387</v>
+        <v>0.4918638127890506</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9956353860204683</v>
+        <v>0.4917244055485628</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3993518297214528</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9613194141187007</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N18" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9849467216267481</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6074593216290661</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3964881324218044</v>
+        <v>0.8165747062094404</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2409402231206417</v>
+        <v>0.8173653310839419</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4166666666666679</v>
+        <v>0.5060263763693373</v>
       </c>
       <c r="G19" t="n">
-        <v>0.326530612244898</v>
+        <v>0.5397721618799136</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9905188177267464</v>
+        <v>0.4719810427311055</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9947148362690575</v>
+        <v>0.4317047913931817</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4918638127890506</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9676185898792923</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N19" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9880507711275307</v>
+        <v>0.01709401709401709</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7104132932390059</v>
+        <v>0.630952380952381</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4565512858589491</v>
+        <v>0.8091941800468382</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2160981654398614</v>
+        <v>0.8223289524283204</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4166666666666679</v>
+        <v>0.4856551283798399</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3163265306122448</v>
+        <v>0.5220602485682199</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9911060511395141</v>
+        <v>0.4921920362000497</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9952699038043704</v>
+        <v>0.4510590633598667</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4719810427311055</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9637948380358665</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N20" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9878370647118477</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7096121518195875</v>
+        <v>0.6517857142857143</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4454840311849478</v>
+        <v>0.8102815037840168</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1844759909715083</v>
+        <v>0.8198728129715163</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3888888888888893</v>
+        <v>0.5633909997267363</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3061224489795918</v>
+        <v>0.5898700634069087</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9909136322997409</v>
+        <v>0.3976005690238599</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9950878655901781</v>
+        <v>0.3757619736740684</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4921920362000497</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9650278671739611</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N21" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B22" t="n">
-        <v>0.988613371060054</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7088192757731562</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4857680071455807</v>
+        <v>0.7748893508307949</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1127331900781911</v>
+        <v>0.8213239601066769</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3888888888888893</v>
+        <v>0.4745067248256579</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5124333628377938</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9916509161108404</v>
+        <v>0.4050553748719518</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9957847963723424</v>
+        <v>0.4612196127661135</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3976005690238599</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K22" t="n">
-        <v>0.9602308122521267</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N22" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9961984088299212</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.867506350898432</v>
+        <v>0.8412095355145293</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2015226402168925</v>
+        <v>0.8235377070539099</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3888888888888893</v>
+        <v>0.4830986958489077</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2755102040816326</v>
+        <v>0.5199684498277463</v>
       </c>
       <c r="H23" t="n">
-        <v>0.9908092299036688</v>
+        <v>0.4666731454969064</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9949889230843201</v>
+        <v>0.4526349185513692</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4050553748719518</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K23" t="n">
-        <v>0.9656751792246812</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N23" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9961072875974259</v>
+        <v>0.01709401709401709</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9963774591128232</v>
+        <v>0.6785714285714285</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8667063107673958</v>
+        <v>0.8177730833014433</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2340867049120092</v>
+        <v>0.8145750700290521</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3888888888888893</v>
+        <v>0.4535473575168038</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2653061224489796</v>
+        <v>0.4942529482679925</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9908912680144787</v>
+        <v>0.504271433281398</v>
       </c>
       <c r="I24" t="n">
-        <v>0.99506636665325</v>
+        <v>0.480853177227112</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4666731454969064</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K24" t="n">
-        <v>0.9651282623410788</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N24" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9956370004705074</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9928191944071709</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8460553826954982</v>
+        <v>0.8203859482666936</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2434344274669057</v>
+        <v>0.8198329027452651</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4166666666666679</v>
+        <v>0.5709330088702771</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2653061224489796</v>
+        <v>0.6408601851025227</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9906118394617119</v>
+        <v>0.493934346505972</v>
       </c>
       <c r="I25" t="n">
-        <v>0.994802069741978</v>
+        <v>0.4748034148962615</v>
       </c>
       <c r="J25" t="n">
-        <v>0.504271433281398</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K25" t="n">
-        <v>0.9669260016326096</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N25" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9878565979325376</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7660086141675999</v>
+        <v>0.6220238095238095</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5679811391372543</v>
+        <v>0.8063658967333401</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2404702410643688</v>
+        <v>0.8186518557405352</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4166666666666679</v>
+        <v>0.6594953945994805</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.7177963197300885</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9918005222617746</v>
+        <v>0.4316850960443767</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9963088589358595</v>
+        <v>0.3884346195011176</v>
       </c>
       <c r="J26" t="n">
-        <v>0.493934346505972</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K26" t="n">
-        <v>0.9665405811298221</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N26" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9887463833876869</v>
+        <v>0.01709401709401709</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7653577177670913</v>
+        <v>0.625</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6138098624371037</v>
+        <v>0.8254627173521412</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2231181529939931</v>
+        <v>0.8236449003660327</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4444444444444464</v>
+        <v>0.5620356416416631</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2551020408163265</v>
+        <v>0.6325762646388621</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9926403418404472</v>
+        <v>0.4759716818008413</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9970995875436611</v>
+        <v>0.4815581995385124</v>
       </c>
       <c r="J27" t="n">
-        <v>0.4316850960443767</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9610381658735081</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N27" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9877591858644393</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7647105122266781</v>
+        <v>0.6220238095238095</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5622549793591142</v>
+        <v>0.8076266774238325</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1442367164753394</v>
+        <v>0.8249493924630638</v>
       </c>
       <c r="F28" t="n">
-        <v>0.472222222222225</v>
+        <v>0.5653528856646111</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2448979591836735</v>
+        <v>0.6352087411127906</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9917173255062836</v>
+        <v>0.467607911577312</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9962237190607269</v>
+        <v>0.4774535384334815</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4759716818008413</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K28" t="n">
-        <v>0.9669709174555586</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N28" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9938886720044671</v>
+        <v>0.01068376068376068</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9971968628904297</v>
+        <v>0.5773809523809523</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6600674533541013</v>
+        <v>0.8126222115907127</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1187631203040736</v>
+        <v>0.8205458782403786</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5000000000000036</v>
+        <v>0.5792579666988346</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2346938775510203</v>
+        <v>0.6470739361488659</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9917493112634038</v>
+        <v>0.4694354679379368</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9962507749359327</v>
+        <v>0.4631389551986168</v>
       </c>
       <c r="J29" t="n">
-        <v>0.467607911577312</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K29" t="n">
-        <v>0.9667094161832184</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N29" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9939193860434561</v>
+        <v>0.01068376068376068</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9942237187082343</v>
+        <v>0.5892857142857143</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6657674512694254</v>
+        <v>0.822080809866217</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1554928433255304</v>
+        <v>0.8257039822361284</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5277777777777786</v>
+        <v>0.6189117623296154</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2346938775510203</v>
+        <v>0.6813878583185272</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9918816263298972</v>
+        <v>0.4420601940130754</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9963727221743479</v>
+        <v>0.4239846246189448</v>
       </c>
       <c r="J30" t="n">
-        <v>0.4694354679379368</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K30" t="n">
-        <v>0.9657974574043684</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N30" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9942129134933954</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9912875145981153</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6849725683494176</v>
+        <v>0.8123850160291054</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2243036117248566</v>
+        <v>0.8221142682634116</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5555555555555571</v>
+        <v>0.5922905286014452</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2244897959183674</v>
+        <v>0.6579314304536554</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9922579425422462</v>
+        <v>0.4328522352647602</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9967253913074774</v>
+        <v>0.4487866930954535</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4420601940130754</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K31" t="n">
-        <v>0.9633029987871482</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N31" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9914639383804928</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8383230239390801</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="D32" t="n">
-        <v>0.5656977445637237</v>
+        <v>0.8116286777528561</v>
       </c>
       <c r="E32" t="n">
-        <v>0.215252902602469</v>
+        <v>0.8196616635690087</v>
       </c>
       <c r="F32" t="n">
-        <v>0.5833333333333357</v>
+        <v>0.7025257299191005</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2142857142857142</v>
+        <v>0.7537785763539768</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9920061999238968</v>
+        <v>0.3723022077765162</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9964843125394918</v>
+        <v>0.3415369639278926</v>
       </c>
       <c r="J32" t="n">
-        <v>0.4328522352647602</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K32" t="n">
-        <v>0.9648830981661997</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N32" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9925267572757165</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8370600438214801</v>
+        <v>0.5684523809523809</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6229925329746364</v>
+        <v>0.8158018120719297</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1806616537247878</v>
+        <v>0.8245558462563858</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6111111111111143</v>
+        <v>0.6758357069548274</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2040816326530612</v>
+        <v>0.7302680149880358</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9930513682940774</v>
+        <v>0.3832166305801797</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9974694033632823</v>
+        <v>0.3664175283812016</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3723022077765162</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K33" t="n">
-        <v>0.9580503926351426</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N33" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9922089535918019</v>
+        <v>0.01068376068376068</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8358082498048238</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6085925799691686</v>
+        <v>0.8300547056264846</v>
       </c>
       <c r="E34" t="n">
-        <v>0.07058695330518255</v>
+        <v>0.8220236597927636</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6388888888888893</v>
+        <v>0.7093155516528422</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1938775510204082</v>
+        <v>0.7592116444690082</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9927989630639764</v>
+        <v>0.3705152434098531</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9972277682259373</v>
+        <v>0.3332441322955792</v>
       </c>
       <c r="J34" t="n">
-        <v>0.3832166305801797</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K34" t="n">
-        <v>0.9596354928650028</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N34" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9890596621227218</v>
+        <v>0.01709401709401709</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7203729831900686</v>
+        <v>0.5089285714285714</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5600938944801892</v>
+        <v>0.8061260573769912</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2346836020562044</v>
+        <v>0.8236746516212029</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6388888888888893</v>
+        <v>0.743489615179572</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1836734693877551</v>
+        <v>0.7887632462979541</v>
       </c>
       <c r="H35" t="n">
-        <v>0.993116751095143</v>
+        <v>0.2910385964014466</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9975252429555296</v>
+        <v>0.2994073764003015</v>
       </c>
       <c r="J35" t="n">
-        <v>0.3705152434098531</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K35" t="n">
-        <v>0.9575220698412108</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N35" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9894023656888701</v>
+        <v>0.03418803418803418</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7199339664524601</v>
+        <v>0.4732142857142857</v>
       </c>
       <c r="D36" t="n">
-        <v>0.577947551648163</v>
+        <v>0.8144364776464362</v>
       </c>
       <c r="E36" t="n">
-        <v>0.2195419435967794</v>
+        <v>0.8233744488067245</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6388888888888893</v>
+        <v>0.7949797113879751</v>
       </c>
       <c r="G36" t="n">
-        <v>0.173469387755102</v>
+        <v>0.8334123682326064</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9934411131431459</v>
+        <v>0.2342588880723614</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9978289662590933</v>
+        <v>0.2488690215870865</v>
       </c>
       <c r="J36" t="n">
-        <v>0.2910385964014466</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K36" t="n">
-        <v>0.9553663852445861</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N36" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9899198183912489</v>
+        <v>0.03205128205128205</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7194974531237357</v>
+        <v>0.375</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6048709842464565</v>
+        <v>0.8257177919739254</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2276454642728146</v>
+        <v>0.8201488230902793</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6388888888888893</v>
+        <v>0.8985563612015302</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1632653061224489</v>
+        <v>0.8992305451450272</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9939295662192106</v>
+        <v>0.07870096975326518</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9982878577565395</v>
+        <v>0.04537957508667029</v>
       </c>
       <c r="J37" t="n">
-        <v>0.2342588880723614</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K37" t="n">
-        <v>0.9521466689884892</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N37" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9932677521058253</v>
+        <v>0.03632478632478632</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6725015194884614</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7137035738091659</v>
+        <v>0.8034061642763356</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2809065870068505</v>
+        <v>0.8229426152859306</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6388888888888893</v>
+        <v>0.4703208730009614</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1530612244897959</v>
+        <v>0.525903834229991</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9964291794849952</v>
+        <v>0.4991270461619542</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9989643190273056</v>
+        <v>0.4583112661122414</v>
       </c>
       <c r="J38" t="n">
-        <v>0.07870096975326518</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K38" t="n">
-        <v>0.9391826878446033</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N38" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B39" t="n">
-        <v>0.98892673824594</v>
+        <v>0.04273504273504273</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6722447817016568</v>
+        <v>0.4226190476190476</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4890793242410278</v>
+        <v>0.8098794065368862</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1820330810704924</v>
+        <v>0.8161387989449225</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6666666666666679</v>
+        <v>0.4516492316513415</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.5096028467653858</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9923619446253472</v>
+        <v>0.5066174053952723</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9951273689152933</v>
+        <v>0.4760612826169863</v>
       </c>
       <c r="J39" t="n">
-        <v>0.4991270461619542</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K39" t="n">
-        <v>0.965489893197179</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N39" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B40" t="n">
-        <v>0.988718619310747</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6719893654631458</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4789544496159358</v>
+        <v>0.8204703357769915</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1850869537006168</v>
+        <v>0.8233488059890725</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6666666666666679</v>
+        <v>0.5298036529082436</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.5777073680089612</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9921760368273377</v>
+        <v>0.4289422565245661</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9949598318121353</v>
+        <v>0.4003838982043652</v>
       </c>
       <c r="J40" t="n">
-        <v>0.5066174053952723</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K40" t="n">
-        <v>0.9666207178331913</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N40" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9909486496515351</v>
+        <v>0.04059829059829059</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7477198031071594</v>
+        <v>0.4702380952380952</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5502575833242545</v>
+        <v>0.8177257676594207</v>
       </c>
       <c r="E41" t="n">
-        <v>0.09250976586521242</v>
+        <v>0.8256853374382761</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6944444444444464</v>
+        <v>0.4190337123086902</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.481122617191385</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9929077924392975</v>
+        <v>0.5349905266530876</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9956597915063495</v>
+        <v>0.5070034216096323</v>
       </c>
       <c r="J41" t="n">
-        <v>0.4289422565245661</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K41" t="n">
-        <v>0.9617994349538268</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N41" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9897922388064879</v>
+        <v>0.04914529914529914</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7471657648741873</v>
+        <v>0.5178571428571428</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4916834232113889</v>
+        <v>0.8069081625681082</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1525987663893844</v>
+        <v>0.8184754748785685</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7222222222222214</v>
+        <v>0.4495035590758055</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.5076597704442261</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9918492836198105</v>
+        <v>0.5101022712614719</v>
       </c>
       <c r="I42" t="n">
-        <v>0.994667119780397</v>
+        <v>0.4773400819806607</v>
       </c>
       <c r="J42" t="n">
-        <v>0.5349905266530876</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K42" t="n">
-        <v>0.9685919911023991</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N42" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9900616139122315</v>
+        <v>0.0534188034188034</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7466148225530762</v>
+        <v>0.5059523809523809</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5070899011803167</v>
+        <v>0.8074361484750139</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2402019946945882</v>
+        <v>0.8239159639196696</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7222222222222214</v>
+        <v>0.5252889129395368</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1326530612244898</v>
+        <v>0.5736995733320452</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9921293247309143</v>
+        <v>0.4545412938591608</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9949398614036696</v>
+        <v>0.4039482794265793</v>
       </c>
       <c r="J43" t="n">
-        <v>0.5101022712614719</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K43" t="n">
-        <v>0.9667021880574344</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N43" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9791316724690395</v>
+        <v>0.0705128205128205</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3274909841994619</v>
+        <v>0.4613095238095237</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>0.8192830710681206</v>
       </c>
       <c r="E44" t="n">
-        <v>0.2231279779100235</v>
+        <v>0.8179084431114235</v>
       </c>
       <c r="F44" t="n">
-        <v>0.75</v>
+        <v>0.5804397978463043</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1326530612244898</v>
+        <v>0.6217520158288187</v>
       </c>
       <c r="H44" t="n">
-        <v>0.992838885119835</v>
+        <v>0.3796449961608567</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9956186004857638</v>
+        <v>0.3504672440466652</v>
       </c>
       <c r="J44" t="n">
-        <v>0.4545412938591608</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K44" t="n">
-        <v>0.9620265158749708</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N44" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9796305672324603</v>
+        <v>0.06837606837606836</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3238764553084862</v>
+        <v>0.4613095238095237</v>
       </c>
       <c r="D45" t="n">
-        <v>0.02423919417918069</v>
+        <v>0.7944628639571398</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1938818779142668</v>
+        <v>0.8176684171428668</v>
       </c>
       <c r="F45" t="n">
-        <v>0.75</v>
+        <v>0.6818092361502426</v>
       </c>
       <c r="G45" t="n">
-        <v>0.1224489795918368</v>
+        <v>0.7100943173052977</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9933529855242412</v>
+        <v>0.2738033829246919</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9961124703837106</v>
+        <v>0.2523886087700005</v>
       </c>
       <c r="J45" t="n">
-        <v>0.3796449961608567</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K45" t="n">
-        <v>0.9586193262337169</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N45" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9805946663656585</v>
+        <v>0.04487179487179487</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3201891860526368</v>
+        <v>0.431547619047619</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07257227664762811</v>
+        <v>0.8217058068666531</v>
       </c>
       <c r="E46" t="n">
-        <v>0.09936408102462681</v>
+        <v>0.8248840524521739</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7777777777777786</v>
+        <v>0.5904661343218486</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1224489795918368</v>
+        <v>0.6304450908201487</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9943051626069719</v>
+        <v>0.4264502145385787</v>
       </c>
       <c r="I46" t="n">
-        <v>0.9970204284634172</v>
+        <v>0.3402699778727123</v>
       </c>
       <c r="J46" t="n">
-        <v>0.2738033829246919</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K46" t="n">
-        <v>0.9523708961543608</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N46" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9843945998170257</v>
+        <v>0.09188034188034186</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4530317813711942</v>
+        <v>0.488095238095238</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3296438015080906</v>
+        <v>0.8145543568902583</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1941138098052432</v>
+        <v>0.8211576163575424</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7777777777777786</v>
+        <v>0.5386842930758262</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1224489795918368</v>
+        <v>0.5852824055837345</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9934311648963815</v>
+        <v>0.4361074937639563</v>
       </c>
       <c r="I47" t="n">
-        <v>0.996201815437484</v>
+        <v>0.3899771723142749</v>
       </c>
       <c r="J47" t="n">
-        <v>0.4264502145385787</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K47" t="n">
-        <v>0.9579696750175393</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N47" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B48" t="n">
-        <v>0.983870003245287</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4527830621234436</v>
+        <v>0.4821428571428572</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3021845924156559</v>
+        <v>0.8301987447499016</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2289446363846896</v>
+        <v>0.8230098564771564</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8055555555555571</v>
+        <v>0.6354993683062007</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1122448979591836</v>
+        <v>0.6696550055529737</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9929321502778551</v>
+        <v>0.3291286649421136</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9957376456764939</v>
+        <v>0.2962969840750834</v>
       </c>
       <c r="J48" t="n">
-        <v>0.4361074937639563</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K48" t="n">
-        <v>0.9611364394003525</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N48" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9848447660755839</v>
+        <v>0.1047008547008547</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4525330837835393</v>
+        <v>0.4374999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3525452451744468</v>
+        <v>0.8252302269764712</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>0.8168565564594282</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8333333333333321</v>
+        <v>0.5525012865264383</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1122448979591836</v>
+        <v>0.6177659497597657</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9938414071987924</v>
+        <v>0.3582333302100829</v>
       </c>
       <c r="I49" t="n">
-        <v>0.996604804246823</v>
+        <v>0.3836131576258782</v>
       </c>
       <c r="J49" t="n">
-        <v>0.3291286649421136</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K49" t="n">
-        <v>0.9551682272165031</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N49" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9800054488638511</v>
+        <v>0.1025641025641025</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3408446204761645</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1103572624238841</v>
+        <v>0.8168785545332913</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5024655083563038</v>
+        <v>0.8206159793291865</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8333333333333321</v>
+        <v>0.6294913804395785</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1020408163265306</v>
+        <v>0.6847594411003409</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9910493562162558</v>
+        <v>0.317139331932879</v>
       </c>
       <c r="I50" t="n">
-        <v>0.9960715026838302</v>
+        <v>0.3090349245371968</v>
       </c>
       <c r="J50" t="n">
-        <v>0.3582333302100829</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K50" t="n">
-        <v>0.9607309983917958</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N50" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9807368053786191</v>
+        <v>0.1303418803418803</v>
       </c>
       <c r="C51" t="n">
-        <v>0.3381112139445135</v>
+        <v>0.3779761904761905</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1467680295387308</v>
+        <v>0.8166172624762037</v>
       </c>
       <c r="E51" t="n">
-        <v>0.182009486044292</v>
+        <v>0.8223074009416873</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8333333333333321</v>
+        <v>0.4291694218902934</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1020408163265306</v>
+        <v>0.5100148267442093</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9917810264010463</v>
+        <v>0.527342817213182</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9967600435157286</v>
+        <v>0.5020503700685595</v>
       </c>
       <c r="J51" t="n">
-        <v>0.317139331932879</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K51" t="n">
-        <v>0.9559797406527168</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N51" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B52" t="n">
-        <v>0.978669148948484</v>
+        <v>0.108974358974359</v>
       </c>
       <c r="C52" t="n">
-        <v>0.3353280213817459</v>
+        <v>0.3541666666666666</v>
       </c>
       <c r="D52" t="n">
-        <v>0.03788619954849037</v>
+        <v>0.8019526135529373</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1721046155790258</v>
+        <v>0.8197387300407529</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8333333333333321</v>
+        <v>0.361523663958788</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0918367346938776</v>
+        <v>0.4509277556349739</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9898847082606974</v>
+        <v>0.5600276253743403</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9949640660299924</v>
+        <v>0.5670467174847416</v>
       </c>
       <c r="J52" t="n">
-        <v>0.527342817213182</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K52" t="n">
-        <v>0.9682764402574415</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N52" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B53" t="n">
-        <v>0.985533070314067</v>
+        <v>0.1153846153846153</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5855353292376632</v>
+        <v>0.3541666666666666</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3362195398965751</v>
+        <v>0.8089540979698909</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1333116499696602</v>
+        <v>0.8141278214900715</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8055555555555571</v>
+        <v>0.4852105723982906</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0918367346938776</v>
+        <v>0.5586303455603994</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9892457012389501</v>
+        <v>0.4911291353516724</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9943567852287999</v>
+        <v>0.4474101839558776</v>
       </c>
       <c r="J53" t="n">
-        <v>0.5600276253743403</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K53" t="n">
-        <v>0.9724172516696103</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N53" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9867799303260258</v>
+        <v>0.1068376068376068</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5854270571141934</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4006963600968659</v>
+        <v>0.8100965821959163</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1636590902405644</v>
+        <v>0.8220806842831399</v>
       </c>
       <c r="F54" t="n">
-        <v>0.7777777777777786</v>
+        <v>0.4562470393736418</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0918367346938776</v>
+        <v>0.533265038223133</v>
       </c>
       <c r="H54" t="n">
-        <v>0.990419868443101</v>
+        <v>0.5104932049111612</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9954637230727743</v>
+        <v>0.4750798724793894</v>
       </c>
       <c r="J54" t="n">
-        <v>0.4911291353516724</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K54" t="n">
-        <v>0.9647954030113071</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N54" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9864865020608871</v>
+        <v>0.09829059829059827</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5853190095846447</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3852395055008203</v>
+        <v>0.8183967831948311</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2424267442905529</v>
+        <v>0.8263757316783266</v>
       </c>
       <c r="F55" t="n">
-        <v>0.75</v>
+        <v>0.5575912233628971</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1020408163265306</v>
+        <v>0.6214926079465487</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9901474176219239</v>
+        <v>0.3560972505717873</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9952030253622076</v>
+        <v>0.3770002146735688</v>
       </c>
       <c r="J55" t="n">
-        <v>0.5104932049111612</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K55" t="n">
-        <v>0.9665581937920824</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N55" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9846847860887079</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5181123165673005</v>
+        <v>0.2797619047619048</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3063440074304508</v>
+        <v>0.8147146482922014</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2061619296316844</v>
+        <v>0.818119570113392</v>
       </c>
       <c r="F56" t="n">
-        <v>0.75</v>
+        <v>0.4834125834416904</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1020408163265306</v>
+        <v>0.5567139042219188</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9911098313446102</v>
+        <v>0.4669182200412889</v>
       </c>
       <c r="I56" t="n">
-        <v>0.9961098042602488</v>
+        <v>0.4483057036224152</v>
       </c>
       <c r="J56" t="n">
-        <v>0.3560972505717873</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K56" t="n">
-        <v>0.9603096985690595</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N56" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9839373204826558</v>
+        <v>0.1153846153846153</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5172975460059123</v>
+        <v>0.300595238095238</v>
       </c>
       <c r="D57" t="n">
-        <v>0.2664866521009808</v>
+        <v>0.8063220843276583</v>
       </c>
       <c r="E57" t="n">
-        <v>0.1912967755304703</v>
+        <v>0.8237947186483667</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7222222222222214</v>
+        <v>0.4669617319466213</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1020408163265306</v>
+        <v>0.5422585571354009</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9904088752920767</v>
+        <v>0.5033182562553414</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9954440264113961</v>
+        <v>0.4639043941577581</v>
       </c>
       <c r="J57" t="n">
-        <v>0.4669182200412889</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K57" t="n">
-        <v>0.9648524551104239</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N57" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B58" t="n">
-        <v>0.983772330092971</v>
+        <v>0.1303418803418803</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5164791919897075</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="D58" t="n">
-        <v>0.2568543092288174</v>
+        <v>0.8080478076572463</v>
       </c>
       <c r="E58" t="n">
-        <v>0.07701241261950299</v>
+        <v>0.8165303388546008</v>
       </c>
       <c r="F58" t="n">
-        <v>0.7222222222222214</v>
+        <v>0.4343177505648007</v>
       </c>
       <c r="G58" t="n">
-        <v>0.1122448979591836</v>
+        <v>0.5136880844390389</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9902549728845342</v>
+        <v>0.4901319569909405</v>
       </c>
       <c r="I58" t="n">
-        <v>0.995295458296656</v>
+        <v>0.4951326378303469</v>
       </c>
       <c r="J58" t="n">
-        <v>0.5033182562553414</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K58" t="n">
-        <v>0.9658462222735239</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N58" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9849553939282732</v>
+        <v>0.1474358974358974</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5530754029076816</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3017477329975792</v>
+        <v>0.8124965697135286</v>
       </c>
       <c r="E59" t="n">
-        <v>0.2030419430851083</v>
+        <v>0.8169869428260327</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7222222222222214</v>
+        <v>0.5585547850909152</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1122448979591836</v>
+        <v>0.6218749964313307</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9899476051219197</v>
+        <v>0.4353786391004341</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9950018187707194</v>
+        <v>0.3749590851079466</v>
       </c>
       <c r="J59" t="n">
-        <v>0.4901319569909405</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K59" t="n">
-        <v>0.9678357228058145</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N59" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9862116891924378</v>
+        <v>0.1752136752136752</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5526654261622547</v>
+        <v>0.5565476190476191</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3662519266207481</v>
+        <v>0.8139368519997429</v>
       </c>
       <c r="E60" t="n">
-        <v>0.08783131324587931</v>
+        <v>0.8207709777432542</v>
       </c>
       <c r="F60" t="n">
-        <v>0.7222222222222214</v>
+        <v>0.4601149660472154</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1224489795918368</v>
+        <v>0.5359503931662004</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9911269261291829</v>
+        <v>0.4986856164755484</v>
       </c>
       <c r="I60" t="n">
-        <v>0.996113734344801</v>
+        <v>0.4696874400129951</v>
       </c>
       <c r="J60" t="n">
-        <v>0.4353786391004341</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K60" t="n">
-        <v>0.9601796615295174</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N60" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9852210860693436</v>
+        <v>0.1666666666666666</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5522550630191829</v>
+        <v>0.5386904761904763</v>
       </c>
       <c r="D61" t="n">
-        <v>0.314155545751383</v>
+        <v>0.8067712217436585</v>
       </c>
       <c r="E61" t="n">
-        <v>0.3620793668103336</v>
+        <v>0.8212166282063189</v>
       </c>
       <c r="F61" t="n">
-        <v>0.7222222222222214</v>
+        <v>0.4188848064565023</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1224489795918368</v>
+        <v>0.5054761816247749</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9901960184806085</v>
+        <v>0.5700337409100718</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9952306247078969</v>
+        <v>0.5945197158673194</v>
       </c>
       <c r="J61" t="n">
-        <v>0.4986856164755484</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K61" t="n">
-        <v>0.9662146507041421</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N61" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9819968628457829</v>
+        <v>0.1645299145299145</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5334042018644561</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="D62" t="n">
-        <v>0.1614873529451852</v>
+        <v>0.8182238647215494</v>
       </c>
       <c r="E62" t="n">
-        <v>0.28546590526097</v>
+        <v>0.8202493854314398</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6944444444444464</v>
+        <v>0.5668928545878144</v>
       </c>
       <c r="G62" t="n">
-        <v>0.1224489795918368</v>
+        <v>0.6342813191968749</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9891448451977175</v>
+        <v>0.454856946818932</v>
       </c>
       <c r="I62" t="n">
-        <v>0.994917419073345</v>
+        <v>0.4509475508562953</v>
       </c>
       <c r="J62" t="n">
-        <v>0.5700337409100718</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K62" t="n">
-        <v>0.9741675116419231</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N62" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9834944113979135</v>
+        <v>0.2051282051282051</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5320708018071886</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="D63" t="n">
-        <v>0.2378893016871279</v>
+        <v>0.8270024494154147</v>
       </c>
       <c r="E63" t="n">
-        <v>0.199509331069648</v>
+        <v>0.8173434920035634</v>
       </c>
       <c r="F63" t="n">
-        <v>0.7222222222222214</v>
+        <v>0.7084021648196233</v>
       </c>
       <c r="G63" t="n">
-        <v>0.1122448979591836</v>
+        <v>0.7574236966629944</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9905534678599857</v>
+        <v>0.3578150554331625</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9962412431464301</v>
+        <v>0.3136462231982902</v>
       </c>
       <c r="J63" t="n">
-        <v>0.454856946818932</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K63" t="n">
-        <v>0.9650207628940169</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N63" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B64" t="n">
-        <v>0.9849263183920567</v>
+        <v>0.2115384615384615</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5307334052996234</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.31087309298294</v>
+        <v>0.813441790037817</v>
       </c>
       <c r="E64" t="n">
-        <v>0.1667577162142057</v>
+        <v>0.8198888825138224</v>
       </c>
       <c r="F64" t="n">
-        <v>0.75</v>
+        <v>0.5203227379281202</v>
       </c>
       <c r="G64" t="n">
-        <v>0.1122448979591836</v>
+        <v>0.5932586099447481</v>
       </c>
       <c r="H64" t="n">
-        <v>0.9919004598512414</v>
+        <v>0.4379823293781138</v>
       </c>
       <c r="I64" t="n">
-        <v>0.9975068669156322</v>
+        <v>0.494451217290218</v>
       </c>
       <c r="J64" t="n">
-        <v>0.3578150554331625</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K64" t="n">
-        <v>0.9562735189784204</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N64" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9790903032320527</v>
+        <v>0.2286324786324786</v>
       </c>
       <c r="C65" t="n">
-        <v>0.3602470634538666</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0273758595900479</v>
+        <v>0.8005818281819526</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1119513375659853</v>
+        <v>0.8206386649315868</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7777777777777786</v>
+        <v>0.6887812764343798</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1122448979591836</v>
+        <v>0.7398977682936854</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9901240296140797</v>
+        <v>0.3433451879440547</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9958196229294513</v>
+        <v>0.331147622564597</v>
       </c>
       <c r="J65" t="n">
-        <v>0.4379823293781138</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K65" t="n">
-        <v>0.967792310613265</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N65" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9807531196940311</v>
+        <v>0.2457264957264957</v>
       </c>
       <c r="C66" t="n">
-        <v>0.3569523607374294</v>
+        <v>0.4672619047619048</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1114326836318523</v>
+        <v>0.8154578610815599</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1609213430334908</v>
+        <v>0.8199435654468733</v>
       </c>
       <c r="F66" t="n">
-        <v>0.7777777777777786</v>
+        <v>0.6035386695916227</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1020408163265306</v>
+        <v>0.6653822663904637</v>
       </c>
       <c r="H66" t="n">
-        <v>0.9917263212067557</v>
+        <v>0.410549347079741</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9973267402039513</v>
+        <v>0.4127100526845274</v>
       </c>
       <c r="J66" t="n">
-        <v>0.3433451879440547</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K66" t="n">
-        <v>0.9573885046215503</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N66" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B67" t="n">
-        <v>0.979855232401758</v>
+        <v>0.25</v>
       </c>
       <c r="C67" t="n">
-        <v>0.353598402632922</v>
+        <v>0.5059523809523809</v>
       </c>
       <c r="D67" t="n">
-        <v>0.06256824348498724</v>
+        <v>0.8155122669478176</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2578963331476465</v>
+        <v>0.8193649578410942</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8055555555555571</v>
+        <v>0.6505505205278489</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1020408163265306</v>
+        <v>0.7061580847659299</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9909243471410151</v>
+        <v>0.3952852113377378</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9965608901990765</v>
+        <v>0.366630055938128</v>
       </c>
       <c r="J67" t="n">
-        <v>0.410549347079741</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K67" t="n">
-        <v>0.9625847141759466</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N67" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9892289329454397</v>
+        <v>0.2521367521367521</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6192958688975804</v>
+        <v>0.4732142857142857</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4896994117623186</v>
+        <v>0.8046915430680994</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2116314859342348</v>
+        <v>0.8175015014051229</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8055555555555571</v>
+        <v>0.5056350687680751</v>
       </c>
       <c r="G68" t="n">
-        <v>0.1020408163265306</v>
+        <v>0.5796287742270178</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9913756523427665</v>
+        <v>0.5609150233935125</v>
       </c>
       <c r="I68" t="n">
-        <v>0.996979972938963</v>
+        <v>0.5057985423575317</v>
       </c>
       <c r="J68" t="n">
-        <v>0.3952852113377378</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K68" t="n">
-        <v>0.9596490326494385</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N68" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9877583527960216</v>
+        <v>0.2628205128205128</v>
       </c>
       <c r="C69" t="n">
-        <v>0.6192165196243385</v>
+        <v>0.4702380952380952</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4137927169312083</v>
+        <v>0.8335959615893236</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1932462802737174</v>
+        <v>0.8158701824219891</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8055555555555571</v>
+        <v>0.4110563206807251</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0918367346938776</v>
+        <v>0.4969812028031683</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9900080979367408</v>
+        <v>0.6199503001817661</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9956795391954059</v>
+        <v>0.5963943696088615</v>
       </c>
       <c r="J69" t="n">
-        <v>0.5609150233935125</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K69" t="n">
-        <v>0.9685152302080455</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N69" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9867957877229482</v>
+        <v>0.2884615384615384</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6191374140238152</v>
+        <v>0.5178571428571428</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3642384169194046</v>
+        <v>0.7839068529739605</v>
       </c>
       <c r="E70" t="n">
-        <v>0.05560288825469817</v>
+        <v>0.8179849777581502</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8055555555555571</v>
+        <v>0.5652841969411213</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0918367346938776</v>
+        <v>0.6312259906472302</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9891175230787891</v>
+        <v>0.4163665091399184</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9948301099979744</v>
+        <v>0.4468423272355074</v>
       </c>
       <c r="J70" t="n">
-        <v>0.6199503001817661</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K70" t="n">
-        <v>0.9742869427779088</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N70" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9869069363253277</v>
+        <v>0.3226495726495726</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6693985555386455</v>
+        <v>0.5148809523809524</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3248246687542496</v>
+        <v>0.8136231473531693</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1779638217557723</v>
+        <v>0.8210746405241639</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7777777777777786</v>
+        <v>0.5519455256543827</v>
       </c>
       <c r="G71" t="n">
-        <v>0.08163265306122447</v>
+        <v>0.6194013687015122</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9905847454702312</v>
+        <v>0.5054531287823583</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9962098413129207</v>
+        <v>0.4590309533742618</v>
       </c>
       <c r="J71" t="n">
-        <v>0.4163665091399184</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K71" t="n">
-        <v>0.9647592257847142</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N71" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9867747974036607</v>
+        <v>0.3525641025641025</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6678693377403031</v>
+        <v>0.5297619047619048</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3174839323416665</v>
+        <v>0.8103141008001655</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2563357490960501</v>
+        <v>0.817819832281291</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7777777777777786</v>
+        <v>0.5654528950647486</v>
       </c>
       <c r="G72" t="n">
-        <v>0.08163265306122447</v>
+        <v>0.6309810782733449</v>
       </c>
       <c r="H72" t="n">
-        <v>0.990463967209353</v>
+        <v>0.4790655403947179</v>
       </c>
       <c r="I72" t="n">
-        <v>0.996088311073662</v>
+        <v>0.4453109362670312</v>
       </c>
       <c r="J72" t="n">
-        <v>0.5054531287823583</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K72" t="n">
-        <v>0.9655357433002423</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N72" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9869135225989926</v>
+        <v>0.3739316239316239</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6663551761134374</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3241966519993099</v>
+        <v>0.8246466423312068</v>
       </c>
       <c r="E73" t="n">
-        <v>0.2421537829057862</v>
+        <v>0.8180028465074485</v>
       </c>
       <c r="F73" t="n">
-        <v>0.75</v>
+        <v>0.5066344508332444</v>
       </c>
       <c r="G73" t="n">
-        <v>0.07142857142857145</v>
+        <v>0.5751003503430638</v>
       </c>
       <c r="H73" t="n">
-        <v>0.9905975573373216</v>
+        <v>0.5579617292651852</v>
       </c>
       <c r="I73" t="n">
-        <v>0.9962073241703403</v>
+        <v>0.5845592073605441</v>
       </c>
       <c r="J73" t="n">
-        <v>0.4790655403947179</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K73" t="n">
-        <v>0.9646616633608113</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N73" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B74" t="n">
-        <v>0.992543616075001</v>
+        <v>0.408119658119658</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7369433751108607</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4685122402308571</v>
+        <v>0.8330659605477557</v>
       </c>
       <c r="E74" t="n">
-        <v>0.3035569137741946</v>
+        <v>0.8269820793430065</v>
       </c>
       <c r="F74" t="n">
-        <v>0.75</v>
+        <v>0.5815326422137077</v>
       </c>
       <c r="G74" t="n">
-        <v>0.07142857142857145</v>
+        <v>0.6401731665823839</v>
       </c>
       <c r="H74" t="n">
-        <v>0.9905094462094721</v>
+        <v>0.5115782435314746</v>
       </c>
       <c r="I74" t="n">
-        <v>0.9956329972898289</v>
+        <v>0.5109565490996958</v>
       </c>
       <c r="J74" t="n">
-        <v>0.5579617292651852</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K74" t="n">
-        <v>0.9735329438710333</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N74" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9931998419472217</v>
+        <v>0.4294871794871794</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7363921559331933</v>
+        <v>0.6607142857142857</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5075882677796424</v>
+        <v>0.8075171382937057</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1759219407791629</v>
+        <v>0.8207586939303975</v>
       </c>
       <c r="F75" t="n">
-        <v>0.7777777777777786</v>
+        <v>0.6508217596027532</v>
       </c>
       <c r="G75" t="n">
-        <v>0.06122448979591832</v>
+        <v>0.7003594475917513</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9912250796078957</v>
+        <v>0.4066752155894716</v>
       </c>
       <c r="I75" t="n">
-        <v>0.99630179794689</v>
+        <v>0.4427751270576807</v>
       </c>
       <c r="J75" t="n">
-        <v>0.5115782435314746</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K75" t="n">
-        <v>0.9688438384149842</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N75" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9938021981007593</v>
+        <v>0.4487179487179486</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7358445810167794</v>
+        <v>0.6696428571428572</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5437303954333794</v>
+        <v>0.8102497836714794</v>
       </c>
       <c r="E76" t="n">
-        <v>0.1486325191755399</v>
+        <v>0.8178242058172626</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8055555555555571</v>
+        <v>0.6123412256397603</v>
       </c>
       <c r="G76" t="n">
-        <v>0.05102040816326531</v>
+        <v>0.6666034701555974</v>
       </c>
       <c r="H76" t="n">
-        <v>0.991887490373528</v>
+        <v>0.4864555798421895</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9969203761276327</v>
+        <v>0.4786371387610173</v>
       </c>
       <c r="J76" t="n">
-        <v>0.4066752155894716</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K76" t="n">
-        <v>0.9645001110870208</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N76" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9879658364809663</v>
+        <v>0.4743589743589743</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7272870913865418</v>
+        <v>0.7023809523809523</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4901145565380111</v>
+        <v>0.8183984649936918</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1084667386271587</v>
+        <v>0.824702428264898</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8333333333333321</v>
+        <v>0.6150641862114199</v>
       </c>
       <c r="G77" t="n">
-        <v>0.04081632653061223</v>
+        <v>0.6687684041067528</v>
       </c>
       <c r="H77" t="n">
-        <v>0.9915285456040249</v>
+        <v>0.4990037387758953</v>
       </c>
       <c r="I77" t="n">
-        <v>0.996573441398298</v>
+        <v>0.4747357898329815</v>
       </c>
       <c r="J77" t="n">
-        <v>0.4864555798421895</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K77" t="n">
-        <v>0.9667848214319522</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N77" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9879918369403023</v>
+        <v>0.4871794871794871</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7266563301829215</v>
+        <v>0.6815476190476191</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4915090898633362</v>
+        <v>0.8106440688255686</v>
       </c>
       <c r="E78" t="n">
-        <v>0.1461224100059623</v>
+        <v>0.8202715092558686</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8333333333333321</v>
+        <v>0.6649976533299172</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03061224489795916</v>
+        <v>0.7120906506360329</v>
       </c>
       <c r="H78" t="n">
-        <v>0.9915600034559395</v>
+        <v>0.443536424040789</v>
       </c>
       <c r="I78" t="n">
-        <v>0.9965956919989744</v>
+        <v>0.4252693290014958</v>
       </c>
       <c r="J78" t="n">
-        <v>0.4990037387758953</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K78" t="n">
-        <v>0.9665362728472044</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N78" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9884942272665626</v>
+        <v>0.4999999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7260309143961947</v>
+        <v>0.6755952380952381</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5176230247554547</v>
+        <v>0.8198417357191273</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2703185753057266</v>
+        <v>0.8144787013520314</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8055555555555571</v>
+        <v>0.6788897416481625</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02040816326530615</v>
+        <v>0.7239976189363981</v>
       </c>
       <c r="H79" t="n">
-        <v>0.992038791397809</v>
+        <v>0.4183183667114636</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9970409462329018</v>
+        <v>0.4106060248146821</v>
       </c>
       <c r="J79" t="n">
-        <v>0.443536424040789</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K79" t="n">
-        <v>0.9633848452105244</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N79" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9914705560562737</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7385511105273481</v>
+        <v>0.6755952380952381</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6715765856598916</v>
+        <v>0.7853610245878195</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2201569822221378</v>
+        <v>0.8217106416119848</v>
       </c>
       <c r="F80" t="n">
-        <v>0.75</v>
+        <v>0.6870920318810089</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02040816326530615</v>
+        <v>0.730947411588044</v>
       </c>
       <c r="H80" t="n">
-        <v>0.9921759661331585</v>
+        <v>0.4596972479140294</v>
       </c>
       <c r="I80" t="n">
-        <v>0.997163322805534</v>
+        <v>0.4014460896849275</v>
       </c>
       <c r="J80" t="n">
-        <v>0.4183183667114636</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K80" t="n">
-        <v>0.9624506699879065</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N80" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0</v>
+      </c>
+      <c r="S80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9915145762654344</v>
+        <v>0.5363247863247863</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7378615405171858</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6749325242555064</v>
+        <v>0.824129043682934</v>
       </c>
       <c r="E81" t="n">
-        <v>0.190111297317996</v>
+        <v>0.8157033295949545</v>
       </c>
       <c r="F81" t="n">
-        <v>0.7222222222222214</v>
+        <v>0.5910554033220058</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01020408163265307</v>
+        <v>0.6470324765300994</v>
       </c>
       <c r="H81" t="n">
-        <v>0.9922591581221739</v>
+        <v>0.4715287686595205</v>
       </c>
       <c r="I81" t="n">
-        <v>0.9972347508788905</v>
+        <v>0.4929293032856058</v>
       </c>
       <c r="J81" t="n">
-        <v>0.4596972479140294</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K81" t="n">
-        <v>0.9618671054426999</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N81" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9905075635050309</v>
+        <v>0.5555555555555555</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7371779310984181</v>
+        <v>0.7529761904761905</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6237122916079345</v>
+        <v>0.819552886792289</v>
       </c>
       <c r="E82" t="n">
-        <v>0.06709996294566081</v>
+        <v>0.818528860816482</v>
       </c>
       <c r="F82" t="n">
-        <v>0.6666666666666679</v>
+        <v>0.6214214456619107</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01020408163265307</v>
+        <v>0.6733082576277575</v>
       </c>
       <c r="H82" t="n">
-        <v>0.9913544566804098</v>
+        <v>0.4961603152117828</v>
       </c>
       <c r="I82" t="n">
-        <v>0.9963722960636942</v>
+        <v>0.4623951462855568</v>
       </c>
       <c r="J82" t="n">
-        <v>0.4715287686595205</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K82" t="n">
-        <v>0.9676953519512914</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N82" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9876267899259759</v>
+        <v>0.5662393162393162</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6012889636697369</v>
+        <v>0.7440476190476191</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4805115584337928</v>
+        <v>0.8179852778074733</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1835325960344964</v>
+        <v>0.8159579012005663</v>
       </c>
       <c r="F83" t="n">
-        <v>0.6666666666666679</v>
+        <v>0.7085853412340768</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>0.7490986253498312</v>
       </c>
       <c r="H83" t="n">
-        <v>0.9916475624336274</v>
+        <v>0.3415997683456339</v>
       </c>
       <c r="I83" t="n">
-        <v>0.9966423513752435</v>
+        <v>0.3770355175799077</v>
       </c>
       <c r="J83" t="n">
-        <v>0.4961603152117828</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K83" t="n">
-        <v>0.9657500705502127</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N83" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0</v>
+      </c>
+      <c r="S83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9885084779671974</v>
+        <v>0.5576923076923077</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6012641887514192</v>
+        <v>0.6577380952380952</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5261511664369597</v>
+        <v>0.8101511910185669</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2375383475831889</v>
+        <v>0.8191864508538729</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6944444444444464</v>
+        <v>0.7217491499682203</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01020408163265307</v>
+        <v>0.7603840004720399</v>
       </c>
       <c r="H84" t="n">
-        <v>0.9924788596879177</v>
+        <v>0.3600564217250121</v>
       </c>
       <c r="I84" t="n">
-        <v>0.9974213041032921</v>
+        <v>0.363126848302969</v>
       </c>
       <c r="J84" t="n">
-        <v>0.3415997683456339</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K84" t="n">
-        <v>0.9603119476597124</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N84" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9886434533918657</v>
+        <v>0.5405982905982906</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6012394187445679</v>
+        <v>0.6220238095238095</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5330401319047449</v>
+        <v>0.7973139801202804</v>
       </c>
       <c r="E85" t="n">
-        <v>0.2547311380657802</v>
+        <v>0.8238482704331076</v>
       </c>
       <c r="F85" t="n">
-        <v>0.7222222222222214</v>
+        <v>0.6323185865180651</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01020408163265307</v>
+        <v>0.6927927940672877</v>
       </c>
       <c r="H85" t="n">
-        <v>0.9926088281582508</v>
+        <v>0.3647174717258458</v>
       </c>
       <c r="I85" t="n">
-        <v>0.9975372921107752</v>
+        <v>0.3413700357352675</v>
       </c>
       <c r="J85" t="n">
-        <v>0.3600564217250121</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K85" t="n">
-        <v>0.9594258489978714</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N85" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9903792324956118</v>
+        <v>0.5341880341880341</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6666748350242442</v>
+        <v>0.6130952380952381</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6015679281944086</v>
+        <v>0.8196116871088801</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2852507283117881</v>
+        <v>0.8115732332084368</v>
       </c>
       <c r="F86" t="n">
-        <v>0.75</v>
+        <v>0.5173724659555061</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01020408163265307</v>
+        <v>0.5924100944136619</v>
       </c>
       <c r="H86" t="n">
-        <v>0.9922704360750971</v>
+        <v>0.5038792710841919</v>
       </c>
       <c r="I86" t="n">
-        <v>0.9968426081264707</v>
+        <v>0.4518928102118103</v>
       </c>
       <c r="J86" t="n">
-        <v>0.3647174717258458</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K86" t="n">
-        <v>0.9580397579119233</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N86" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9891988879818086</v>
+        <v>0.5213675213675214</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6664191037774949</v>
+        <v>0.5803571428571428</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5408641322246017</v>
+        <v>0.8018329244093183</v>
       </c>
       <c r="E87" t="n">
-        <v>0.2024863462074954</v>
+        <v>0.820830340412487</v>
       </c>
       <c r="F87" t="n">
-        <v>0.75</v>
+        <v>0.4372355758044577</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01020408163265307</v>
+        <v>0.5223729516728373</v>
       </c>
       <c r="H87" t="n">
-        <v>0.9911820636832461</v>
+        <v>0.5913563343395413</v>
       </c>
       <c r="I87" t="n">
-        <v>0.9958109021182506</v>
+        <v>0.5288153546383316</v>
       </c>
       <c r="J87" t="n">
-        <v>0.5038792710841919</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K87" t="n">
-        <v>0.9650809838276905</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N87" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9883700581039625</v>
+        <v>0.5064102564102564</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6661646978127628</v>
+        <v>0.5684523809523809</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4983903631276315</v>
+        <v>0.8045367245601444</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1416088028296189</v>
+        <v>0.8213716492306352</v>
       </c>
       <c r="F88" t="n">
-        <v>0.7777777777777786</v>
+        <v>0.4124141132971354</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01020408163265307</v>
+        <v>0.5005570752040237</v>
       </c>
       <c r="H88" t="n">
-        <v>0.9904235580151017</v>
+        <v>0.5446092017417534</v>
       </c>
       <c r="I88" t="n">
-        <v>0.9950910794673994</v>
+        <v>0.5523390153470887</v>
       </c>
       <c r="J88" t="n">
-        <v>0.5913563343395413</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K88" t="n">
-        <v>0.9699815938231239</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N88" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0</v>
+      </c>
+      <c r="S88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9888986661245849</v>
+        <v>0.4893162393162392</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7347582040571872</v>
+        <v>0.5297619047619048</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4184300303525088</v>
+        <v>0.8113212842232385</v>
       </c>
       <c r="E89" t="n">
-        <v>0.1066409000152493</v>
+        <v>0.8148626901969781</v>
       </c>
       <c r="F89" t="n">
-        <v>0.7777777777777786</v>
+        <v>0.5744902098603681</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01020408163265307</v>
+        <v>0.64166560975156</v>
       </c>
       <c r="H89" t="n">
-        <v>0.9901892492495673</v>
+        <v>0.4097728513891348</v>
       </c>
       <c r="I89" t="n">
-        <v>0.9948668618392112</v>
+        <v>0.3954151972617328</v>
       </c>
       <c r="J89" t="n">
-        <v>0.5446092017417534</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K89" t="n">
-        <v>0.9714802479258705</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N89" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9905040367523033</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7340982596941041</v>
+        <v>0.431547619047619</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5031096401896233</v>
+        <v>0.8186221843914154</v>
       </c>
       <c r="E90" t="n">
-        <v>0.1585289012986802</v>
+        <v>0.8185509208111434</v>
       </c>
       <c r="F90" t="n">
-        <v>0.7777777777777786</v>
+        <v>0.5722043101098825</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02040816326530615</v>
+        <v>0.6394975446321782</v>
       </c>
       <c r="H90" t="n">
-        <v>0.9917260919307699</v>
+        <v>0.38649153885636</v>
       </c>
       <c r="I90" t="n">
-        <v>0.9963171368707272</v>
+        <v>0.3971814658891918</v>
       </c>
       <c r="J90" t="n">
-        <v>0.4097728513891348</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K90" t="n">
-        <v>0.9614828871109893</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N90" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9904514017150735</v>
+        <v>0.408119658119658</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7334439592174847</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5017093600456553</v>
+        <v>0.8189620174086807</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2691484002225217</v>
+        <v>0.8154117944889092</v>
       </c>
       <c r="F91" t="n">
-        <v>0.75</v>
+        <v>0.5221933300440472</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02040816326530615</v>
+        <v>0.5957279232637201</v>
       </c>
       <c r="H91" t="n">
-        <v>0.9917053311413252</v>
+        <v>0.4792752537025191</v>
       </c>
       <c r="I91" t="n">
-        <v>0.9962948540887578</v>
+        <v>0.4450293330044859</v>
       </c>
       <c r="J91" t="n">
-        <v>0.38649153885636</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K91" t="n">
-        <v>0.9615954132079207</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N91" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0</v>
+      </c>
+      <c r="S91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9892597857944893</v>
+        <v>0.3675213675213674</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6680205078549155</v>
+        <v>0.300595238095238</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4488730425922074</v>
+        <v>0.8154828077055877</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2364581903823663</v>
+        <v>0.8209335594642065</v>
       </c>
       <c r="F92" t="n">
-        <v>0.75</v>
+        <v>0.5967967311817632</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03061224489795916</v>
+        <v>0.6605889979201602</v>
       </c>
       <c r="H92" t="n">
-        <v>0.9912322907058266</v>
+        <v>0.4312301472581591</v>
       </c>
       <c r="I92" t="n">
-        <v>0.9958450018582522</v>
+        <v>0.3725625009123246</v>
       </c>
       <c r="J92" t="n">
-        <v>0.4792752537025191</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K92" t="n">
-        <v>0.9646437228756978</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N92" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
+      <c r="S92" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9899923489028822</v>
+        <v>0.3739316239316239</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6677353924649692</v>
+        <v>0.3214285714285714</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4877942002504018</v>
+        <v>0.8241791552854203</v>
       </c>
       <c r="E93" t="n">
-        <v>0.1937291818975568</v>
+        <v>0.8200016738212278</v>
       </c>
       <c r="F93" t="n">
-        <v>0.7222222222222214</v>
+        <v>0.5734468584434814</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03061224489795916</v>
+        <v>0.6400634130726808</v>
       </c>
       <c r="H93" t="n">
-        <v>0.9919401683436824</v>
+        <v>0.4565441355295847</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9965116262930758</v>
+        <v>0.3946731689518042</v>
       </c>
       <c r="J93" t="n">
-        <v>0.4312301472581591</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K93" t="n">
-        <v>0.9600269790545484</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N93" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9897368011133344</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6674519254623325</v>
+        <v>0.3244047619047619</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4754126576232287</v>
+        <v>0.8126319742663987</v>
       </c>
       <c r="E94" t="n">
-        <v>0.06795346020950424</v>
+        <v>0.8171276262622229</v>
       </c>
       <c r="F94" t="n">
-        <v>0.6666666666666679</v>
+        <v>0.4858619090671296</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03061224489795916</v>
+        <v>0.5635440704756685</v>
       </c>
       <c r="H94" t="n">
-        <v>0.9917197724519455</v>
+        <v>0.5099701165816628</v>
       </c>
       <c r="I94" t="n">
-        <v>0.9963006699302519</v>
+        <v>0.4788079942813838</v>
       </c>
       <c r="J94" t="n">
-        <v>0.4565441355295847</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K94" t="n">
-        <v>0.9614356136961584</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N94" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9863785169232928</v>
+        <v>0.3247863247863247</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5343315327297281</v>
+        <v>0.3541666666666666</v>
       </c>
       <c r="D95" t="n">
-        <v>0.4140383076713465</v>
+        <v>0.8124937237162303</v>
       </c>
       <c r="E95" t="n">
-        <v>0.2001363571662454</v>
+        <v>0.8202781681486746</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6388888888888893</v>
+        <v>0.5905835921991709</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03061224489795916</v>
+        <v>0.6546642824684274</v>
       </c>
       <c r="H95" t="n">
-        <v>0.9908906373045971</v>
+        <v>0.4682875810744797</v>
       </c>
       <c r="I95" t="n">
-        <v>0.9955142249972625</v>
+        <v>0.3772658944031694</v>
       </c>
       <c r="J95" t="n">
-        <v>0.5099701165816628</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K95" t="n">
-        <v>0.9667957063588241</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N95" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9874359132063417</v>
+        <v>0.3205128205128204</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5343001291656354</v>
+        <v>0.3690476190476191</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4687494111913365</v>
+        <v>0.8132794396938479</v>
       </c>
       <c r="E96" t="n">
-        <v>0.2487013571981198</v>
+        <v>0.8161275251408611</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5833333333333357</v>
+        <v>0.4538629492802378</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02040816326530615</v>
+        <v>0.5353150535340425</v>
       </c>
       <c r="H96" t="n">
-        <v>0.9918839162738748</v>
+        <v>0.4666626050633214</v>
       </c>
       <c r="I96" t="n">
-        <v>0.9964507336835959</v>
+        <v>0.5088502526824112</v>
       </c>
       <c r="J96" t="n">
-        <v>0.4682875810744797</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K96" t="n">
-        <v>0.9603266245918292</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N96" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9860570684112078</v>
+        <v>0.3162393162393162</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5342686837350828</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3969978549038327</v>
+        <v>0.7973372499006984</v>
       </c>
       <c r="E97" t="n">
-        <v>0.2340362516483831</v>
+        <v>0.8246147103723622</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5277777777777786</v>
+        <v>0.1705717220626985</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02040816326530615</v>
+        <v>0.1558611418710248</v>
       </c>
       <c r="H97" t="n">
-        <v>0.990589126860039</v>
+        <v>0.4562957516250217</v>
       </c>
       <c r="I97" t="n">
-        <v>0.9952240948604429</v>
+        <v>0.4734480376515848</v>
       </c>
       <c r="J97" t="n">
-        <v>0.4666626050633214</v>
+        <v>0.599151581499003</v>
       </c>
       <c r="K97" t="n">
-        <v>0.9687096497014823</v>
+        <v>0.6014878022098239</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N97" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0</v>
+      </c>
+      <c r="S97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9801097718689453</v>
+        <v>0.2905982905982905</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4259359117975411</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3445734784464395</v>
+        <v>0.8137453876417202</v>
       </c>
       <c r="E98" t="n">
-        <v>0.2571979800799694</v>
+        <v>0.8223618312985181</v>
       </c>
       <c r="F98" t="n">
-        <v>0.472222222222225</v>
+        <v>0.2208449349126857</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02040816326530615</v>
+        <v>0.1990638637649152</v>
       </c>
       <c r="H98" t="n">
-        <v>0.9905520451557872</v>
+        <v>0.439059555797408</v>
       </c>
       <c r="I98" t="n">
-        <v>0.9913241710503026</v>
+        <v>0.424602667585211</v>
       </c>
       <c r="J98" t="n">
-        <v>0.4562957516250217</v>
+        <v>0.5991222582789225</v>
       </c>
       <c r="K98" t="n">
-        <v>0.9664542322535288</v>
+        <v>0.6014440433212996</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0.5118483412322276</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0.6212327013215466</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0.6246806874829494</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9805877565744382</v>
+        <v>0.05982905982905982</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4256492476376293</v>
+        <v>0.07440476190476192</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3703709222954801</v>
+        <v>0.6969692592429803</v>
       </c>
       <c r="E99" t="n">
-        <v>0.2094109687659182</v>
+        <v>0.7600573027159682</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3888888888888893</v>
+        <v>0.4492326951910948</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02040816326530615</v>
+        <v>0.3975272869885403</v>
       </c>
       <c r="H99" t="n">
-        <v>0.991029639220958</v>
+        <v>0.2262743642876197</v>
       </c>
       <c r="I99" t="n">
-        <v>0.9917681968426272</v>
+        <v>0.2037694338868463</v>
       </c>
       <c r="J99" t="n">
-        <v>0.439059555797408</v>
+        <v>0.6024064589279431</v>
       </c>
       <c r="K99" t="n">
-        <v>0.9633423732977117</v>
+        <v>0.6051197899573351</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>0.561712846347607</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="N99" t="n">
-        <v>0.4375</v>
+        <v>0.5967095507194101</v>
+      </c>
+      <c r="O99" t="n">
+        <v>0.5189573459715641</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0.6245727518676449</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0.6283884328265669</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9828625410096268</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4253614689909087</v>
+        <v>0.01190476190476189</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4894671983190405</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.1532717866473737</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5555555555555571</v>
+        <v>0.6599596933388135</v>
       </c>
       <c r="G100" t="n">
-        <v>0.1530612244897959</v>
+        <v>0.5805894956005465</v>
       </c>
       <c r="H100" t="n">
-        <v>0.9931951815674863</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0.9938079497767309</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0.2262743642876197</v>
+        <v>0.6391777769089416</v>
       </c>
       <c r="K100" t="n">
-        <v>0.9492734477251853</v>
+        <v>0.6448966196258615</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100" t="n">
+        <v>0.9853801169590644</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.6345537253015912</v>
+      </c>
+      <c r="O100" t="n">
         <v>1</v>
       </c>
-      <c r="N100" t="n">
-        <v>1</v>
+      <c r="P100" t="n">
+        <v>0.6651209654972778</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0.6722117507006274</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0.46875</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9755064648775628</v>
+        <v>0.0235042735042735</v>
       </c>
       <c r="C101" t="n">
-        <v>0.04663306097270681</v>
+        <v>0.01488095238095238</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0.9569070071883189</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>0.9232072175524301</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>0.2255785528837481</v>
       </c>
       <c r="G101" t="n">
-        <v>0.9795918367346937</v>
+        <v>0.2012902315134316</v>
       </c>
       <c r="H101" t="n">
-        <v>0.9951933831147033</v>
+        <v>0.3522132825430839</v>
       </c>
       <c r="I101" t="n">
-        <v>0.9956894132276516</v>
+        <v>0.4191087760340794</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>0.601624506392462</v>
       </c>
       <c r="K101" t="n">
-        <v>0.9362916290410209</v>
+        <v>0.598107428071327</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>0.7682619647355163</v>
       </c>
       <c r="M101" t="n">
-        <v>1</v>
+        <v>0.7602339181286549</v>
       </c>
       <c r="N101" t="n">
-        <v>0.46875</v>
+        <v>0.5970101398741534</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0.6919431279620853</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0.6228303588327636</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0.6194724833213462</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9708248839507264</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C102" t="n">
-        <v>0.02386427402236257</v>
+        <v>0.03273809523809523</v>
       </c>
       <c r="D102" t="n">
-        <v>0.7694340676021567</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
-        <v>0.2408814718789307</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8055555555555571</v>
+        <v>0.05448170247159556</v>
       </c>
       <c r="G102" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.05149592017707727</v>
       </c>
       <c r="H102" t="n">
-        <v>0.9910781315092519</v>
+        <v>0.6138188260274466</v>
       </c>
       <c r="I102" t="n">
-        <v>0.9917910788431171</v>
+        <v>0.584004465612227</v>
       </c>
       <c r="J102" t="n">
-        <v>0.3522132825430839</v>
+        <v>0.5732396293544982</v>
       </c>
       <c r="K102" t="n">
-        <v>0.9629923664167638</v>
+        <v>0.5795645990591839</v>
       </c>
       <c r="L102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>0.5655785339264959</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0.5938832540999121</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0.6016591850400536</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0.28125</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9687869021347275</v>
+        <v>0.02136752136752136</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.676814185847895</v>
+        <v>0.8619915693855537</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1507139883037646</v>
+        <v>0.8704398225170659</v>
       </c>
       <c r="F103" t="n">
-        <v>1</v>
+        <v>0.09615943572460822</v>
       </c>
       <c r="G103" t="n">
-        <v>0.9387755102040815</v>
+        <v>0.087175951351954</v>
       </c>
       <c r="H103" t="n">
-        <v>0.9894579523828488</v>
+        <v>0.6223428498919439</v>
       </c>
       <c r="I103" t="n">
-        <v>0.9902515337667627</v>
+        <v>0.5434576528203223</v>
       </c>
       <c r="J103" t="n">
-        <v>0.6138188260274466</v>
+        <v>0.6131876295108887</v>
       </c>
       <c r="K103" t="n">
-        <v>0.9734976021779451</v>
+        <v>0.6174379170769062</v>
       </c>
       <c r="L103" t="n">
-        <v>1</v>
+        <v>0.4408060453400503</v>
       </c>
       <c r="M103" t="n">
-        <v>1</v>
+        <v>0.4239766081871345</v>
       </c>
       <c r="N103" t="n">
-        <v>0.28125</v>
+        <v>0.6069195623421907</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0.4241706161137441</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0.634637437513221</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0.640249497780313</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9999196727385774</v>
+        <v>0.01709401709401709</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9938323183452991</v>
+        <v>0.008928571428571425</v>
       </c>
       <c r="D104" t="n">
-        <v>0.1792140009385367</v>
+        <v>0.9301592416903756</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1585598370021853</v>
+        <v>0.8813465190089401</v>
       </c>
       <c r="F104" t="n">
-        <v>0.3055555555555571</v>
+        <v>0.08846336195151949</v>
       </c>
       <c r="G104" t="n">
-        <v>0.4285714285714286</v>
+        <v>0.07980951472001419</v>
       </c>
       <c r="H104" t="n">
-        <v>0.9898541861236648</v>
+        <v>0.568632768710604</v>
       </c>
       <c r="I104" t="n">
-        <v>0.9906182433956492</v>
+        <v>0.5505825123141614</v>
       </c>
       <c r="J104" t="n">
-        <v>0.6223428498919439</v>
+        <v>0.5883313132892833</v>
       </c>
       <c r="K104" t="n">
-        <v>0.9709144307873941</v>
+        <v>0.5893447106443497</v>
       </c>
       <c r="L104" t="n">
-        <v>1</v>
+        <v>0.4811083123425692</v>
       </c>
       <c r="M104" t="n">
-        <v>1</v>
+        <v>0.4649122807017544</v>
       </c>
       <c r="N104" t="n">
+        <v>0.5867700693358984</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0.4810426540284361</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0.6130273104799652</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0.6155539297140448</v>
+      </c>
+      <c r="S104" t="n">
         <v>0.4375</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9994894042708684</v>
+        <v>0.01709401709401709</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9807679975323617</v>
+        <v>0.01785714285714285</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1736392952770113</v>
+        <v>0.8220104815944788</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1162311084911514</v>
+        <v>0.8502188608049476</v>
       </c>
       <c r="F105" t="n">
-        <v>0.5000000000000036</v>
+        <v>0.1724590115962758</v>
       </c>
       <c r="G105" t="n">
-        <v>0.4081632653061225</v>
+        <v>0.1523665267725929</v>
       </c>
       <c r="H105" t="n">
-        <v>0.9897825399414297</v>
+        <v>0.4905468607131919</v>
       </c>
       <c r="I105" t="n">
-        <v>0.9905425331691005</v>
+        <v>0.4691651242231111</v>
       </c>
       <c r="J105" t="n">
-        <v>0.568632768710604</v>
+        <v>0.6049282558548696</v>
       </c>
       <c r="K105" t="n">
-        <v>0.9713683439790582</v>
+        <v>0.6074061918827262</v>
       </c>
       <c r="L105" t="n">
-        <v>1</v>
+        <v>0.579345088161209</v>
       </c>
       <c r="M105" t="n">
-        <v>1</v>
+        <v>0.564327485380117</v>
       </c>
       <c r="N105" t="n">
-        <v>0.4375</v>
+        <v>0.5989539497414934</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0.5497630331753556</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0.6270610895244881</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="R105" t="n">
+        <v>0.6305833188660995</v>
+      </c>
+      <c r="S105" t="n">
+        <v>0.46875</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0.01709401709401709</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9681659571633314</v>
+        <v>0.05059523809523808</v>
       </c>
       <c r="D106" t="n">
-        <v>0.2160872206592162</v>
+        <v>0.8854473545587337</v>
       </c>
       <c r="E106" t="n">
-        <v>0.1444442940536693</v>
+        <v>0.8405250090915963</v>
       </c>
       <c r="F106" t="n">
-        <v>0.6944444444444464</v>
+        <v>0.2743252785334085</v>
       </c>
       <c r="G106" t="n">
-        <v>0.4183673469387754</v>
+        <v>0.240495367868681</v>
       </c>
       <c r="H106" t="n">
-        <v>0.990579844389242</v>
+        <v>0.4091997879257664</v>
       </c>
       <c r="I106" t="n">
-        <v>0.9912882543494577</v>
+        <v>0.3704858047871205</v>
       </c>
       <c r="J106" t="n">
-        <v>0.4905468607131919</v>
+        <v>0.6121124447746022</v>
       </c>
       <c r="K106" t="n">
-        <v>0.9661813748160424</v>
+        <v>0.6159063559785581</v>
       </c>
       <c r="L106" t="n">
-        <v>1</v>
+        <v>0.6523929471032746</v>
       </c>
       <c r="M106" t="n">
-        <v>1</v>
+        <v>0.652046783625731</v>
       </c>
       <c r="N106" t="n">
-        <v>0.46875</v>
+        <v>0.6050759488597651</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0.6255924170616114</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0.6362573620280787</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0.6411795342377421</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0.40625</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9868658388129047</v>
+        <v>0.01495726495726495</v>
       </c>
       <c r="C107" t="n">
-        <v>0.774768704163674</v>
+        <v>0.07440476190476192</v>
       </c>
       <c r="D107" t="n">
-        <v>0.2925901950006028</v>
+        <v>0.809529527014256</v>
       </c>
       <c r="E107" t="n">
-        <v>0.00218451720168622</v>
+        <v>0.8226838610176903</v>
       </c>
       <c r="F107" t="n">
-        <v>0.3888888888888893</v>
+        <v>0.2843902060835524</v>
       </c>
       <c r="G107" t="n">
-        <v>0.1836734693877551</v>
+        <v>0.2485924724139506</v>
       </c>
       <c r="H107" t="n">
-        <v>0.991546522118515</v>
+        <v>0.4466437111373774</v>
       </c>
       <c r="I107" t="n">
-        <v>0.9921940185415947</v>
+        <v>0.3604508898478792</v>
       </c>
       <c r="J107" t="n">
-        <v>0.4091997879257664</v>
+        <v>0.6606814716346718</v>
       </c>
       <c r="K107" t="n">
-        <v>0.9598946761274347</v>
+        <v>0.669007767202713</v>
       </c>
       <c r="L107" t="n">
-        <v>1</v>
+        <v>0.5642317380352644</v>
       </c>
       <c r="M107" t="n">
-        <v>1</v>
+        <v>0.5701754385964912</v>
       </c>
       <c r="N107" t="n">
-        <v>0.40625</v>
+        <v>0.6572882850386759</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0.5165876777251186</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0.6944688762956612</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0.7047072245232013</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B108" t="n">
-        <v>0.986969335937297</v>
+        <v>0.01068376068376068</v>
       </c>
       <c r="C108" t="n">
-        <v>0.7694859926116039</v>
+        <v>0.09226190476190477</v>
       </c>
       <c r="D108" t="n">
-        <v>0.2965644073463382</v>
+        <v>0.8080962408847309</v>
       </c>
       <c r="E108" t="n">
-        <v>0.08643541386793691</v>
+        <v>0.801936736537891</v>
       </c>
       <c r="F108" t="n">
-        <v>0.472222222222225</v>
+        <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0.1938775510204082</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>0.9916432491531306</v>
+        <v>0.5321018246348093</v>
       </c>
       <c r="I108" t="n">
-        <v>0.992277238373671</v>
+        <v>0.6347580487982594</v>
       </c>
       <c r="J108" t="n">
-        <v>0.4466437111373774</v>
+        <v>0.7114595144074755</v>
       </c>
       <c r="K108" t="n">
-        <v>0.9592553680439437</v>
+        <v>0.7196258615031178</v>
       </c>
       <c r="L108" t="n">
-        <v>1</v>
+        <v>0.9924433249370277</v>
       </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
       <c r="N108" t="n">
+        <v>0.7047212536571681</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0.8815165876777252</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0.7384072412295839</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0.7471664889263659</v>
+      </c>
+      <c r="S108" t="n">
         <v>0.4375</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9841016965130822</v>
+        <v>0.01068376068376068</v>
       </c>
       <c r="C109" t="n">
-        <v>0.7643035502324046</v>
+        <v>0.1369047619047619</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1462859219780156</v>
+        <v>0.8037985530107958</v>
       </c>
       <c r="E109" t="n">
-        <v>0.1716335189442063</v>
+        <v>0.8316384498028809</v>
       </c>
       <c r="F109" t="n">
-        <v>0.5277777777777786</v>
+        <v>0.9748902459172512</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2142857142857142</v>
+        <v>0.8687807280612334</v>
       </c>
       <c r="H109" t="n">
-        <v>0.9889495418148658</v>
+        <v>0.4943928131909315</v>
       </c>
       <c r="I109" t="n">
-        <v>0.9897222727444069</v>
+        <v>0.6037037115663818</v>
       </c>
       <c r="J109" t="n">
-        <v>0.5321018246348093</v>
+        <v>0.5875884583805763</v>
       </c>
       <c r="K109" t="n">
-        <v>0.9767310302830582</v>
+        <v>0.58355759763702</v>
       </c>
       <c r="L109" t="n">
-        <v>1</v>
+        <v>0.6801007556675063</v>
       </c>
       <c r="M109" t="n">
-        <v>0</v>
+        <v>0.6988304093567251</v>
       </c>
       <c r="N109" t="n">
+        <v>0.5816199751512966</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0.5189573459715641</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.6072991237934067</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="R109" t="n">
+        <v>0.6040338781280227</v>
+      </c>
+      <c r="S109" t="n">
         <v>0.4375</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9868753640885087</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6640043546815138</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4943194177947753</v>
+        <v>0.8186046173234472</v>
       </c>
       <c r="E110" t="n">
-        <v>0.2435985502952302</v>
+        <v>0.8347112478477754</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5833333333333357</v>
+        <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>0.2244897959183674</v>
+        <v>0.8926141328925918</v>
       </c>
       <c r="H110" t="n">
-        <v>0.999883377432686</v>
+        <v>0.5855552089591999</v>
       </c>
       <c r="I110" t="n">
-        <v>0.9986513641123358</v>
+        <v>0.5706666070314782</v>
       </c>
       <c r="J110" t="n">
-        <v>0.4943928131909315</v>
+        <v>0.4807835164405521</v>
       </c>
       <c r="K110" t="n">
-        <v>0.9747526090468045</v>
+        <v>0.4756700579805273</v>
       </c>
       <c r="L110" t="n">
-        <v>1</v>
+        <v>0.1007556675062972</v>
       </c>
       <c r="M110" t="n">
-        <v>0</v>
+        <v>0.07017543859649122</v>
       </c>
       <c r="N110" t="n">
+        <v>0.474409843292854</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0.2109004739336494</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0.4910876317928278</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="R110" t="n">
+        <v>0.4859998511941668</v>
+      </c>
+      <c r="S110" t="n">
         <v>0.4375</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9872037742044296</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="C111" t="n">
-        <v>0.6619418584070961</v>
+        <v>0.2946428571428572</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5069730319492753</v>
+        <v>0.8259506443671929</v>
       </c>
       <c r="E111" t="n">
-        <v>0.1801318850497206</v>
+        <v>0.8426814771918714</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6388888888888893</v>
+        <v>0.8157248129588147</v>
       </c>
       <c r="G111" t="n">
-        <v>0.2244897959183674</v>
+        <v>0.7338602921447438</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0.6801679785195373</v>
       </c>
       <c r="I111" t="n">
-        <v>0.9988963173467647</v>
+        <v>0.7400453832541867</v>
       </c>
       <c r="J111" t="n">
-        <v>0.5855552089591999</v>
+        <v>0.5804531414943113</v>
       </c>
       <c r="K111" t="n">
-        <v>0.9726478689356843</v>
+        <v>0.5796083579477082</v>
       </c>
       <c r="L111" t="n">
-        <v>1</v>
+        <v>0.3274559193954659</v>
       </c>
       <c r="M111" t="n">
-        <v>0</v>
+        <v>0.2865497076023392</v>
       </c>
       <c r="N111" t="n">
+        <v>0.5862490481343433</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0.5592417061611376</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0.6170520713880137</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0.6176682125939337</v>
+      </c>
+      <c r="S111" t="n">
         <v>0.4375</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9854174962007595</v>
+        <v>0.002136752136752136</v>
       </c>
       <c r="C112" t="n">
-        <v>0.6598991479446304</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="D112" t="n">
-        <v>0.409932680525375</v>
+        <v>0.8215175625321907</v>
       </c>
       <c r="E112" t="n">
-        <v>0.1381728817836715</v>
+        <v>0.8233982244678987</v>
       </c>
       <c r="F112" t="n">
-        <v>0.6944444444444464</v>
+        <v>0.8482087573043997</v>
       </c>
       <c r="G112" t="n">
-        <v>0.2346938775510203</v>
+        <v>0.7640010162379729</v>
       </c>
       <c r="H112" t="n">
-        <v>0.9981376246037447</v>
+        <v>0.681290936005489</v>
       </c>
       <c r="I112" t="n">
-        <v>0.9972646886707803</v>
+        <v>0.7002871988514806</v>
       </c>
       <c r="J112" t="n">
-        <v>0.6801679785195373</v>
+        <v>0.6222289557023889</v>
       </c>
       <c r="K112" t="n">
-        <v>0.9834387148438586</v>
+        <v>0.6220982387047369</v>
       </c>
       <c r="L112" t="n">
-        <v>1</v>
+        <v>0.5214105793450882</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>0.5058479532163742</v>
       </c>
       <c r="N112" t="n">
+        <v>0.6095447076269489</v>
+      </c>
+      <c r="O112" t="n">
+        <v>0.3436018957345972</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0.6346875382714124</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0.6349544902160165</v>
+      </c>
+      <c r="S112" t="n">
         <v>0.4375</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9874955598235285</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0.630675629642903</v>
+        <v>0.2976190476190476</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4932495113446513</v>
+        <v>0.8177091421539534</v>
       </c>
       <c r="E113" t="n">
-        <v>0.1693003014201584</v>
+        <v>0.8308942638373007</v>
       </c>
       <c r="F113" t="n">
-        <v>0.7222222222222214</v>
+        <v>0.8564730409213259</v>
       </c>
       <c r="G113" t="n">
-        <v>0.2346938775510203</v>
+        <v>0.7729722189222163</v>
       </c>
       <c r="H113" t="n">
-        <v>0.9983343921319349</v>
+        <v>0.7097890436050871</v>
       </c>
       <c r="I113" t="n">
-        <v>0.9975744668122967</v>
+        <v>0.6841032456783056</v>
       </c>
       <c r="J113" t="n">
-        <v>0.681290936005489</v>
+        <v>0.5445712945224225</v>
       </c>
       <c r="K113" t="n">
-        <v>0.9809057856832755</v>
+        <v>0.5501367465266382</v>
       </c>
       <c r="L113" t="n">
-        <v>1</v>
+        <v>0.4458438287153652</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>0.4298245614035088</v>
       </c>
       <c r="N113" t="n">
-        <v>0.4375</v>
+        <v>0.5419923049176386</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0.4407582938388626</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0.5628152172702879</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0.5706145680910693</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0.46875</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9876281056145754</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6299414480660334</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4974790282691405</v>
+        <v>0.8139240932155383</v>
       </c>
       <c r="E114" t="n">
-        <v>0.2444416730482688</v>
+        <v>0.8388879424853678</v>
       </c>
       <c r="F114" t="n">
-        <v>0.7222222222222214</v>
+        <v>0.8156188171734768</v>
       </c>
       <c r="G114" t="n">
-        <v>0.2244897959183674</v>
+        <v>0.7390713518540888</v>
       </c>
       <c r="H114" t="n">
-        <v>0.9983063332134289</v>
+        <v>0.7918698206865462</v>
       </c>
       <c r="I114" t="n">
-        <v>0.9976666703866399</v>
+        <v>0.715542120094006</v>
       </c>
       <c r="J114" t="n">
-        <v>0.7097890436050871</v>
+        <v>0.5711576807287798</v>
       </c>
       <c r="K114" t="n">
-        <v>0.979874732390936</v>
+        <v>0.5733836560551362</v>
       </c>
       <c r="L114" t="n">
-        <v>1</v>
+        <v>0.4861460957178841</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
+        <v>0.4707602339181287</v>
       </c>
       <c r="N114" t="n">
-        <v>0.46875</v>
+        <v>0.5576129213257985</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0.504739336492891</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0.5860118683129404</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="R114" t="n">
+        <v>0.5894447062324844</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0.40625</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9872636730484941</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6292119950002237</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4759736124340804</v>
+        <v>0.8447262678280361</v>
       </c>
       <c r="E115" t="n">
-        <v>0.2151951808131157</v>
+        <v>0.8416470585126722</v>
       </c>
       <c r="F115" t="n">
-        <v>0.7222222222222214</v>
+        <v>0.8748262380591951</v>
       </c>
       <c r="G115" t="n">
-        <v>0.2244897959183674</v>
+        <v>0.792344275292808</v>
       </c>
       <c r="H115" t="n">
-        <v>0.9978172199002874</v>
+        <v>0.5933676549433829</v>
       </c>
       <c r="I115" t="n">
-        <v>0.9973182465211856</v>
+        <v>0.6505039259497141</v>
       </c>
       <c r="J115" t="n">
-        <v>0.7918698206865462</v>
+        <v>0.6060327638112367</v>
       </c>
       <c r="K115" t="n">
-        <v>0.9818776518647443</v>
+        <v>0.6080297560441965</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>0.5163727959697733</v>
       </c>
       <c r="M115" t="n">
-        <v>0</v>
+        <v>0.5029239766081871</v>
       </c>
       <c r="N115" t="n">
-        <v>0.40625</v>
+        <v>0.6013787022564226</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0.7630331753554503</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0.6309021476525011</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0.6335656357729224</v>
+      </c>
+      <c r="S115" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B116" t="n">
-        <v>0.986330727725761</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4915445056926038</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="D116" t="n">
-        <v>0.527519107310253</v>
+        <v>0.8216318148412766</v>
       </c>
       <c r="E116" t="n">
-        <v>0.1151404357484768</v>
+        <v>0.8374910264999796</v>
       </c>
       <c r="F116" t="n">
-        <v>0.6666666666666679</v>
+        <v>0.909273795486887</v>
       </c>
       <c r="G116" t="n">
-        <v>0.2040816326530612</v>
+        <v>0.8239834138521802</v>
       </c>
       <c r="H116" t="n">
-        <v>0.9982805562897394</v>
+        <v>0.5369842896455852</v>
       </c>
       <c r="I116" t="n">
-        <v>0.9978657710983969</v>
+        <v>0.6095448924487573</v>
       </c>
       <c r="J116" t="n">
-        <v>0.5933676549433829</v>
+        <v>0.6646596551589319</v>
       </c>
       <c r="K116" t="n">
-        <v>0.9777341744656977</v>
+        <v>0.6643036866863582</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>0.6347607052896724</v>
       </c>
       <c r="M116" t="n">
-        <v>0</v>
+        <v>0.6257309941520468</v>
       </c>
       <c r="N116" t="n">
+        <v>0.6614664742896077</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0.2938388625592417</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0.6971854507398212</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0.6972421318915701</v>
+      </c>
+      <c r="S116" t="n">
         <v>0.4375</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9867423797388569</v>
+        <v>0.00641025641025641</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4914607228717047</v>
+        <v>0.2232142857142858</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5455384066374819</v>
+        <v>0.829324685465715</v>
       </c>
       <c r="E117" t="n">
-        <v>0.06056612726790031</v>
+        <v>0.8333904031509844</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6388888888888893</v>
+        <v>0.9574121260291133</v>
       </c>
       <c r="G117" t="n">
-        <v>0.1836734693877551</v>
+        <v>0.867509037694485</v>
       </c>
       <c r="H117" t="n">
-        <v>0.9985132077696616</v>
+        <v>0.5733056891296506</v>
       </c>
       <c r="I117" t="n">
-        <v>0.998190949535112</v>
+        <v>0.5555198119347867</v>
       </c>
       <c r="J117" t="n">
-        <v>0.5369842896455852</v>
+        <v>0.6445146029636001</v>
       </c>
       <c r="K117" t="n">
-        <v>0.9751247411652975</v>
+        <v>0.6479706815446887</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>0.7002518891687657</v>
       </c>
       <c r="M117" t="n">
-        <v>0</v>
+        <v>0.6988304093567251</v>
       </c>
       <c r="N117" t="n">
+        <v>0.6402649192417138</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0.575829383886256</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0.6743673387590599</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="R117" t="n">
+        <v>0.6790568190273059</v>
+      </c>
+      <c r="S117" t="n">
         <v>0.4375</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9872906244443604</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4913767579853627</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5707291801080727</v>
+        <v>0.8248883981973458</v>
       </c>
       <c r="E118" t="n">
-        <v>0.05426815117884229</v>
+        <v>0.8417035358198151</v>
       </c>
       <c r="F118" t="n">
-        <v>0.5833333333333357</v>
+        <v>0.7719288397517867</v>
       </c>
       <c r="G118" t="n">
-        <v>0.1530612244897959</v>
+        <v>0.707335319073038</v>
       </c>
       <c r="H118" t="n">
-        <v>0.9988793505479572</v>
+        <v>0.7869501147721993</v>
       </c>
       <c r="I118" t="n">
-        <v>0.9986382940255928</v>
+        <v>0.727339110023481</v>
       </c>
       <c r="J118" t="n">
-        <v>0.5733056891296506</v>
+        <v>0.5823298275794659</v>
       </c>
       <c r="K118" t="n">
-        <v>0.9716828912948247</v>
+        <v>0.5864238048353572</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>0.5163727959697733</v>
       </c>
       <c r="M118" t="n">
-        <v>0</v>
+        <v>0.5087719298245614</v>
       </c>
       <c r="N118" t="n">
-        <v>0.4375</v>
+        <v>0.5747164442306922</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0.6611374407582939</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0.5897582916754807</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="R118" t="n">
+        <v>0.5954651422335756</v>
+      </c>
+      <c r="S118" t="n">
+        <v>0.46875</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9888171566704793</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C119" t="n">
-        <v>0.5452775257263159</v>
+        <v>0.2797619047619048</v>
       </c>
       <c r="D119" t="n">
-        <v>0.4948267993131853</v>
+        <v>0.8454799427581161</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1329174136830875</v>
+        <v>0.8353271160933808</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5555555555555571</v>
+        <v>0.7378164631763221</v>
       </c>
       <c r="G119" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.6790706210898715</v>
       </c>
       <c r="H119" t="n">
-        <v>0.9970350358515092</v>
+        <v>0.7086646182002438</v>
       </c>
       <c r="I119" t="n">
-        <v>0.9969920722320874</v>
+        <v>0.7530938587693652</v>
       </c>
       <c r="J119" t="n">
-        <v>0.7869501147721993</v>
+        <v>0.5767486413574696</v>
       </c>
       <c r="K119" t="n">
-        <v>0.9826292188753706</v>
+        <v>0.5804288371075375</v>
       </c>
       <c r="L119" t="n">
-        <v>0</v>
+        <v>0.4685138539042821</v>
       </c>
       <c r="M119" t="n">
-        <v>0</v>
+        <v>0.4415204678362573</v>
       </c>
       <c r="N119" t="n">
-        <v>0.46875</v>
+        <v>0.5710392369043326</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0.3933649289099527</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0.6071098542624611</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="R119" t="n">
+        <v>0.6115857741623472</v>
+      </c>
+      <c r="S119" t="n">
+        <v>0.40625</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B120" t="n">
-        <v>0.988484777855012</v>
+        <v>0.0534188034188034</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5452413395378453</v>
+        <v>0.2529761904761905</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4769765427663835</v>
+        <v>0.8253004314759759</v>
       </c>
       <c r="E120" t="n">
-        <v>0.1821109916283447</v>
+        <v>0.833561803676217</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5277777777777786</v>
+        <v>0.7789453517760714</v>
       </c>
       <c r="G120" t="n">
-        <v>0.1326530612244898</v>
+        <v>0.7163527590973563</v>
       </c>
       <c r="H120" t="n">
-        <v>0.9966285973100717</v>
+        <v>0.6505070675988471</v>
       </c>
       <c r="I120" t="n">
-        <v>0.9967015753752547</v>
+        <v>0.7063060091136275</v>
       </c>
       <c r="J120" t="n">
-        <v>0.7086646182002438</v>
+        <v>0.7850998944364077</v>
       </c>
       <c r="K120" t="n">
-        <v>0.9842700119624287</v>
+        <v>0.791488896182037</v>
       </c>
       <c r="L120" t="n">
-        <v>0</v>
+        <v>0.690176322418136</v>
       </c>
       <c r="M120" t="n">
-        <v>0</v>
+        <v>0.6988304093567251</v>
       </c>
       <c r="N120" t="n">
-        <v>0.40625</v>
+        <v>0.7757103923690434</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0.561611374407583</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0.8500094634765473</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0.8580330348949678</v>
+      </c>
+      <c r="S120" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9889112592408951</v>
+        <v>0.1068376068376068</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5452050770040815</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4985450241403642</v>
+        <v>0.8417655800512969</v>
       </c>
       <c r="E121" t="n">
-        <v>0.189386441884282</v>
+        <v>0.8258912572247243</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5000000000000036</v>
+        <v>0.5958812055396339</v>
       </c>
       <c r="G121" t="n">
-        <v>0.1326530612244898</v>
+        <v>0.6522516148498945</v>
       </c>
       <c r="H121" t="n">
-        <v>0.9969383976416663</v>
+        <v>0.6833060359507753</v>
       </c>
       <c r="I121" t="n">
-        <v>0.9970847510212011</v>
+        <v>0.6972321076461721</v>
       </c>
       <c r="J121" t="n">
-        <v>0.6505070675988471</v>
+        <v>1</v>
       </c>
       <c r="K121" t="n">
-        <v>0.981289234280188</v>
+        <v>1</v>
       </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>0.9672544080604533</v>
       </c>
       <c r="M121" t="n">
-        <v>0</v>
+        <v>0.9181286549707602</v>
       </c>
       <c r="N121" t="n">
+        <v>1</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0.8364928909952607</v>
+      </c>
+      <c r="P121" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q121" t="n">
         <v>0.4375</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1</v>
+      </c>
+      <c r="S121" t="n">
+        <v>0.46875</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B122" t="n">
-        <v>0.9867501574115194</v>
+        <v>0.202991452991453</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>0.3898809523809523</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>0.8225231991975527</v>
       </c>
       <c r="E122" t="n">
-        <v>0.2883173500359431</v>
+        <v>0.8457818859679205</v>
       </c>
       <c r="F122" t="n">
-        <v>0.5277777777777786</v>
+        <v>0.5479772983307536</v>
       </c>
       <c r="G122" t="n">
-        <v>0.1326530612244898</v>
+        <v>0.6101461984977108</v>
       </c>
       <c r="H122" t="n">
-        <v>0.9902539106520558</v>
+        <v>0.7548506731960245</v>
       </c>
       <c r="I122" t="n">
-        <v>0.9964259369438542</v>
+        <v>0.7398704241936578</v>
       </c>
       <c r="J122" t="n">
-        <v>0.6833060359507753</v>
+        <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>0.9807111507994541</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>0.09319899244332491</v>
       </c>
       <c r="M122" t="n">
-        <v>0</v>
+        <v>0.1111111111111112</v>
       </c>
       <c r="N122" t="n">
-        <v>0.46875</v>
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0.3530805687203792</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="R122" t="n">
+        <v>0</v>
+      </c>
+      <c r="S122" t="n">
+        <v>0.40625</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9862787823929741</v>
+        <v>0.2756410256410256</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>0.4494047619047619</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>0.8314178054745589</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1471493035958689</v>
+        <v>0.8276147347747844</v>
       </c>
       <c r="F123" t="n">
-        <v>0.5000000000000036</v>
+        <v>0.302128074642741</v>
       </c>
       <c r="G123" t="n">
-        <v>0.1122448979591836</v>
+        <v>0.3954952464815762</v>
       </c>
       <c r="H123" t="n">
-        <v>0.9898222071836812</v>
+        <v>0.9618970566512602</v>
       </c>
       <c r="I123" t="n">
-        <v>0.9959931889586032</v>
+        <v>0.9738455872944172</v>
       </c>
       <c r="J123" t="n">
-        <v>0.7548506731960245</v>
+        <v>0.5464479806075772</v>
       </c>
       <c r="K123" t="n">
-        <v>0.9834275684871278</v>
+        <v>0.5479050432119024</v>
       </c>
       <c r="L123" t="n">
-        <v>0</v>
+        <v>0.3022670025188917</v>
       </c>
       <c r="M123" t="n">
-        <v>0</v>
+        <v>0.2660818713450293</v>
       </c>
       <c r="N123" t="n">
-        <v>0.40625</v>
+        <v>0.5385655885535651</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0.4146919431279621</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0.5640677362250748</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="R123" t="n">
+        <v>0.5651273529922374</v>
+      </c>
+      <c r="S123" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9838098306532541</v>
+        <v>0.393162393162393</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>0.6339285714285714</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>0.7954831318683658</v>
       </c>
       <c r="E124" t="n">
-        <v>0.1425809155506272</v>
+        <v>0.8217095570311057</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5000000000000036</v>
+        <v>0.8082868051944009</v>
       </c>
       <c r="G124" t="n">
-        <v>0.1020408163265306</v>
+        <v>0.8363940537694265</v>
       </c>
       <c r="H124" t="n">
-        <v>0.9875141902640059</v>
+        <v>0.5362716851339961</v>
       </c>
       <c r="I124" t="n">
-        <v>0.9937870650186281</v>
+        <v>0.4812012897864462</v>
       </c>
       <c r="J124" t="n">
-        <v>0.9618970566512602</v>
+        <v>0.6218575282480353</v>
       </c>
       <c r="K124" t="n">
-        <v>0.9983337449731385</v>
+        <v>0.6249972650694672</v>
       </c>
       <c r="L124" t="n">
-        <v>0</v>
+        <v>0.4508816120906801</v>
       </c>
       <c r="M124" t="n">
-        <v>0</v>
+        <v>0.4532163742690059</v>
       </c>
       <c r="N124" t="n">
+        <v>0.5913891226804537</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0.3317535545023697</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0.6405214932252641</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="R124" t="n">
+        <v>0.6484400188487389</v>
+      </c>
+      <c r="S124" t="n">
         <v>0.4375</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9899932989369233</v>
+        <v>0.4294871794871794</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>0.6785714285714285</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>0.8174440166948352</v>
       </c>
       <c r="E125" t="n">
-        <v>0.1092707641291604</v>
+        <v>0.8257191154752621</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5000000000000036</v>
+        <v>0.5282450363493927</v>
       </c>
       <c r="G125" t="n">
-        <v>0.1020408163265306</v>
+        <v>0.5919516588858256</v>
       </c>
       <c r="H125" t="n">
-        <v>0.9923324851584757</v>
+        <v>0.8373213481418396</v>
       </c>
       <c r="I125" t="n">
-        <v>0.9983185027072489</v>
+        <v>0.7483215705549733</v>
       </c>
       <c r="J125" t="n">
-        <v>0.5362716851339961</v>
+        <v>0.6948234742151151</v>
       </c>
       <c r="K125" t="n">
-        <v>0.9669481793166751</v>
+        <v>0.6949567880975823</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N125" t="n">
+        <v>0.7073764578574006</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0.4834123222748816</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0.7233714470212316</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="R125" t="n">
+        <v>0.7249510180799088</v>
+      </c>
+      <c r="S125" t="n">
         <v>0.4375</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B126" t="n">
-        <v>0.9871644166418843</v>
+        <v>0.5555555555555555</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>0.7989289927695611</v>
       </c>
       <c r="E126" t="n">
-        <v>0.1444467445445404</v>
+        <v>0.8259061849629872</v>
       </c>
       <c r="F126" t="n">
-        <v>0.5000000000000036</v>
+        <v>0.2642738378954869</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1020408163265306</v>
+        <v>0.3615254739943433</v>
       </c>
       <c r="H126" t="n">
-        <v>0.9896996478526343</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>0.9958061904429313</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="J126" t="n">
-        <v>0.8373213481418396</v>
+        <v>0.5390389803338937</v>
       </c>
       <c r="K126" t="n">
-        <v>0.983965977254543</v>
+        <v>0.5437588885242315</v>
       </c>
       <c r="L126" t="n">
-        <v>0</v>
+        <v>0.5037783375314862</v>
       </c>
       <c r="M126" t="n">
-        <v>0</v>
+        <v>0.4970760233918129</v>
       </c>
       <c r="N126" t="n">
+        <v>0.5356899523065208</v>
+      </c>
+      <c r="O126" t="n">
+        <v>0.4620853080568721</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0.5628319175230184</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="R126" t="n">
+        <v>0.567638451427296</v>
+      </c>
+      <c r="S126" t="n">
         <v>0.4375</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9844977615472891</v>
+        <v>0.6346153846153846</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>0.6785714285714285</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>0.8140641755195509</v>
       </c>
       <c r="E127" t="n">
-        <v>0.2625678169596494</v>
+        <v>0.8330763197266476</v>
       </c>
       <c r="F127" t="n">
-        <v>0.5000000000000036</v>
+        <v>0.9970576872547746</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1020408163265306</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0.9872187357887117</v>
+        <v>0.3707296219929684</v>
       </c>
       <c r="I127" t="n">
-        <v>0.9934379329620697</v>
+        <v>0.2884122331018379</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>0.6063455448254291</v>
       </c>
       <c r="K127" t="n">
-        <v>1</v>
+        <v>0.6089924515917295</v>
       </c>
       <c r="L127" t="n">
-        <v>0</v>
+        <v>0.6070528967254407</v>
       </c>
       <c r="M127" t="n">
-        <v>0</v>
+        <v>0.6023391812865497</v>
       </c>
       <c r="N127" t="n">
-        <v>0.4375</v>
+        <v>0.5994048334736083</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0.5402843601895735</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0.6310079159197942</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0.6344646710151038</v>
+      </c>
+      <c r="S127" t="n">
+        <v>0.46875</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9906427706964767</v>
+        <v>0.6901709401709401</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>0.6785714285714285</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>0.8208919451701608</v>
       </c>
       <c r="E128" t="n">
-        <v>0.2513390108337784</v>
+        <v>0.8251705550787586</v>
       </c>
       <c r="F128" t="n">
-        <v>0.472222222222225</v>
+        <v>0.7472793884359363</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0918367346938776</v>
+        <v>0.7819597873732604</v>
       </c>
       <c r="H128" t="n">
-        <v>0.9941836004110548</v>
+        <v>0.4356150255383813</v>
       </c>
       <c r="I128" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.5264563935012007</v>
       </c>
       <c r="J128" t="n">
-        <v>0.3707296219929684</v>
+        <v>0.5961899362708684</v>
       </c>
       <c r="K128" t="n">
-        <v>0.9546659025765803</v>
+        <v>0.5960945191992123</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>0.4785894206549118</v>
       </c>
       <c r="M128" t="n">
-        <v>0</v>
+        <v>0.4619883040935673</v>
       </c>
       <c r="N128" t="n">
-        <v>0.46875</v>
+        <v>0.5905274337701896</v>
+      </c>
+      <c r="O128" t="n">
+        <v>0.4597156398104266</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0.5936550173125953</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="R128" t="n">
+        <v>0.5946653108801865</v>
+      </c>
+      <c r="S128" t="n">
+        <v>0.40625</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B129" t="n">
-        <v>0.9881356328664634</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>0.8630952380952381</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>0.8120903226948355</v>
       </c>
       <c r="E129" t="n">
-        <v>0.2122502921668539</v>
+        <v>0.8250688681905269</v>
       </c>
       <c r="F129" t="n">
-        <v>0.4444444444444464</v>
+        <v>0.6921205387165075</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1020408163265306</v>
+        <v>0.7335802557482233</v>
       </c>
       <c r="H129" t="n">
-        <v>0.9918364671103895</v>
+        <v>0.5617259035703712</v>
       </c>
       <c r="I129" t="n">
-        <v>0.9977590421638708</v>
+        <v>0.5764609710971633</v>
       </c>
       <c r="J129" t="n">
-        <v>0.4356150255383813</v>
+        <v>0.5724967744457912</v>
       </c>
       <c r="K129" t="n">
-        <v>0.9698313082519218</v>
+        <v>0.5758779127010174</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>0.5944584382871536</v>
       </c>
       <c r="M129" t="n">
-        <v>0</v>
+        <v>0.5672514619883041</v>
       </c>
       <c r="N129" t="n">
-        <v>0.40625</v>
+        <v>0.5662398300669312</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0.6327014218009479</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0.5759861499237354</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="R129" t="n">
+        <v>0.5815145953721386</v>
+      </c>
+      <c r="S129" t="n">
+        <v>0.4375</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B130" t="n">
-        <v>0.987592019226022</v>
+        <v>0.9358974358974357</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>0.7984613780182788</v>
       </c>
       <c r="E130" t="n">
-        <v>0.06359962527673832</v>
+        <v>0.8241011740306265</v>
       </c>
       <c r="F130" t="n">
-        <v>0.3888888888888893</v>
+        <v>0.6660033222657138</v>
       </c>
       <c r="G130" t="n">
-        <v>0.08163265306122447</v>
+        <v>0.7105233265957642</v>
       </c>
       <c r="H130" t="n">
-        <v>0.9913333715215715</v>
+        <v>0.5863861258720136</v>
       </c>
       <c r="I130" t="n">
-        <v>0.9972618105330753</v>
+        <v>0.5984463686739868</v>
       </c>
       <c r="J130" t="n">
-        <v>0.5617259035703712</v>
+        <v>0.5513645071744145</v>
       </c>
       <c r="K130" t="n">
-        <v>0.9730170184310524</v>
+        <v>0.5543266601028334</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>0.4307304785894206</v>
       </c>
       <c r="M130" t="n">
-        <v>0</v>
+        <v>0.435672514619883</v>
       </c>
       <c r="N130" t="n">
+        <v>0.5336459460542664</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0.3483412322274882</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0.6135784188200715</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="R130" t="n">
+        <v>0.6175690087051413</v>
+      </c>
+      <c r="S130" t="n">
         <v>0.4375</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B131" t="n">
-        <v>0.9887593275571626</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>0.9732142857142858</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>0.8047628919116875</v>
       </c>
       <c r="E131" t="n">
-        <v>0.2055531181366165</v>
+        <v>0.8228511729719241</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>0.8536951307557584</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>0.8738547588552561</v>
       </c>
       <c r="H131" t="n">
-        <v>0.991105158818096</v>
+        <v>0.4252858022654106</v>
       </c>
       <c r="I131" t="n">
-        <v>0.9970248377038948</v>
+        <v>0.4138219580597101</v>
       </c>
       <c r="J131" t="n">
-        <v>0.5863861258720136</v>
+        <v>0.588438831762912</v>
       </c>
       <c r="K131" t="n">
-        <v>0.9744176722955573</v>
+        <v>0.5907996936877803</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>0.5314861460957179</v>
       </c>
       <c r="M131" t="n">
-        <v>0</v>
+        <v>0.52046783625731</v>
       </c>
       <c r="N131" t="n">
-        <v>0.4375</v>
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0.6153931796167849</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0.453125</v>
+      </c>
+      <c r="R131" t="n">
+        <v>0.6184494432181742</v>
+      </c>
+      <c r="S131" t="n">
+        <v>0.453125</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9906471816538258</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>0.8305827208491328</v>
       </c>
       <c r="E132" t="n">
-        <v>0.1234152593035975</v>
+        <v>0.8209963916862013</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>0.8810789722607577</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>0.8974481213459591</v>
       </c>
       <c r="H132" t="n">
-        <v>0.9929028604773025</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0.9987035136169232</v>
+        <v>0.3841808102347977</v>
       </c>
       <c r="J132" t="n">
-        <v>0.4252858022654106</v>
+        <v>0.5991027094655355</v>
       </c>
       <c r="K132" t="n">
-        <v>0.9626555518560601</v>
+        <v>0.6014331035991686</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>0.5340050377833753</v>
       </c>
       <c r="M132" t="n">
-        <v>0</v>
+        <v>0.5233918128654971</v>
       </c>
       <c r="N132" t="n">
-        <v>0.453125</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
-        <v>44896</v>
-      </c>
-      <c r="B133" t="n">
-        <v>0.9909176050080779</v>
-      </c>
-      <c r="C133" t="n">
-        <v>0</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0.9931810137701023</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.998945999761645</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.9607671626147806</v>
-      </c>
-      <c r="L133" t="n">
-        <v>0</v>
-      </c>
-      <c r="M133" t="n">
-        <v>0</v>
-      </c>
-      <c r="N133" t="n">
+        <v>0.5935132860406397</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0.6316369587726427</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0.421875</v>
+      </c>
+      <c r="R132" t="n">
+        <v>0.6336958408769624</v>
+      </c>
+      <c r="S132" t="n">
         <v>0.421875</v>
       </c>
     </row>
